--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
@@ -782,100 +782,100 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1806491037374188</v>
+        <v>0.1538447330349463</v>
       </c>
       <c r="P2">
-        <v>0.2919699818052948</v>
+        <v>0.242485759508927</v>
       </c>
       <c r="Q2">
-        <v>0.008992064282946346</v>
+        <v>0.01716007474962951</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.007735456026175984</v>
       </c>
       <c r="S2">
-        <v>0.03178900251222747</v>
+        <v>0.03531250078309375</v>
       </c>
       <c r="T2">
-        <v>0.01015438944110902</v>
+        <v>0.01808559471411676</v>
       </c>
       <c r="U2">
-        <v>0.01484969935693541</v>
+        <v>0.02182431019836351</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00340099725332048</v>
       </c>
       <c r="W2">
-        <v>0.07014322571309826</v>
+        <v>0.06585266335766857</v>
       </c>
       <c r="X2">
-        <v>0.05654443852874948</v>
+        <v>0.05502441194837847</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.008072950672135112</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.0009436119339461638</v>
       </c>
       <c r="AA2">
-        <v>0.0007746774020523915</v>
+        <v>0.0106168492496282</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.737380425153252E-06</v>
       </c>
       <c r="AC2">
-        <v>0.03231326094201436</v>
+        <v>0.03572994992794879</v>
       </c>
       <c r="AD2">
-        <v>0.06829717391734537</v>
+        <v>0.06438271514184604</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.0002522494176731957</v>
       </c>
       <c r="AF2">
-        <v>0.03170028378832641</v>
+        <v>0.03524185708273363</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.591528317174809E-05</v>
       </c>
       <c r="AH2">
-        <v>0.009999374404804079</v>
+        <v>0.01796216151654</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.001317501580744778</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.001163039335765668</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.003629317246858094</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.000462247766810589</v>
       </c>
       <c r="AM2">
-        <v>0.0183097744726793</v>
+        <v>0.02457945025169302</v>
       </c>
       <c r="AN2">
-        <v>0.09866332594815344</v>
+        <v>0.08856224851234794</v>
       </c>
       <c r="AO2">
-        <v>0.0224382759445493</v>
+        <v>0.02786683546296276</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>7.301099626273601E-05</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.003273052900230191</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>0.002244115739182487</v>
       </c>
       <c r="AS2">
-        <v>0.05241194780229576</v>
+        <v>0.05173385022945532</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>0.001148830797018032</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -922,100 +922,100 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1152671548090895</v>
+        <v>0.100367855175139</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.001368712669230591</v>
       </c>
       <c r="Q3">
-        <v>0.2956481462747582</v>
+        <v>0.2417840577361839</v>
       </c>
       <c r="R3">
-        <v>0.0005599140615966256</v>
+        <v>0.01043896488043529</v>
       </c>
       <c r="S3">
-        <v>0.02069082663766454</v>
+        <v>0.02622132192074314</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.007229455563623794</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.005511912353254572</v>
       </c>
       <c r="V3">
-        <v>0.02597367668428472</v>
+        <v>0.03036300329316566</v>
       </c>
       <c r="W3">
-        <v>0.01843487522642335</v>
+        <v>0.02445268721512518</v>
       </c>
       <c r="X3">
-        <v>0.01117012641684706</v>
+        <v>0.01875722462307216</v>
       </c>
       <c r="Y3">
-        <v>0.1689122403933956</v>
+        <v>0.1424248603382285</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.0001420012916831566</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.004673562658828664</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.0008347773241293233</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.005301744872644434</v>
       </c>
       <c r="AD3">
-        <v>0.06067764504195666</v>
+        <v>0.05757043451451305</v>
       </c>
       <c r="AE3">
-        <v>0.04190095387099034</v>
+        <v>0.04284976832633026</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.003154608098881115</v>
       </c>
       <c r="AG3">
-        <v>0.007773049800268729</v>
+        <v>0.01609396353873078</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.001288198959937275</v>
       </c>
       <c r="AI3">
-        <v>0.008920858445347565</v>
+        <v>0.01699382964177679</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.001661651681443275</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>0.007501834467736092</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.0003168248734252465</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.004525551446727815</v>
       </c>
       <c r="AN3">
-        <v>0.04176022220991234</v>
+        <v>0.04273943665042556</v>
       </c>
       <c r="AO3">
-        <v>0.1273595999570336</v>
+        <v>0.1098481649273196</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>0.009809297509985678</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.290847143257835E-05</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>0.002680788194595113</v>
       </c>
       <c r="AS3">
-        <v>0.005755767935039623</v>
+        <v>0.01451244245628204</v>
       </c>
       <c r="AT3">
-        <v>0.04919494223539166</v>
+        <v>0.04856815432497026</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1059,100 +1059,100 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03184889134399857</v>
+        <v>0.03385640031365729</v>
       </c>
       <c r="O4">
-        <v>0.0660802745501909</v>
+        <v>0.05949740527790112</v>
       </c>
       <c r="P4">
-        <v>0.2814520017784889</v>
+        <v>0.2208215181177113</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.003069387148437267</v>
       </c>
       <c r="R4">
-        <v>0.01678270386237836</v>
+        <v>0.02257107813776083</v>
       </c>
       <c r="S4">
-        <v>0.05109687159581133</v>
+        <v>0.04827409282159892</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.535539330633943E-07</v>
       </c>
       <c r="U4">
-        <v>0.00336669520463865</v>
+        <v>0.01252182180121835</v>
       </c>
       <c r="V4">
-        <v>0.125192493619958</v>
+        <v>0.1037753911683802</v>
       </c>
       <c r="W4">
-        <v>0.005289037054195332</v>
+        <v>0.01396175125456688</v>
       </c>
       <c r="X4">
-        <v>0.06432171563346049</v>
+        <v>0.05818015736997426</v>
       </c>
       <c r="Y4">
-        <v>0.001440970016561723</v>
+        <v>0.01107935805939919</v>
       </c>
       <c r="Z4">
-        <v>0.005800679683419603</v>
+        <v>0.01434499697726631</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.005402806707346216</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.000973116458504626</v>
       </c>
       <c r="AC4">
-        <v>0.08324430015123112</v>
+        <v>0.07235411232335487</v>
       </c>
       <c r="AD4">
-        <v>0.02621079021411546</v>
+        <v>0.02963318274194987</v>
       </c>
       <c r="AE4">
-        <v>0.0002956634246393913</v>
+        <v>0.01022146657916974</v>
       </c>
       <c r="AF4">
-        <v>0.01179594107374536</v>
+        <v>0.01883574531031859</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.005445740062008994</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.003885768934161289</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.005493389948898181</v>
       </c>
       <c r="AJ4">
-        <v>0.005240669574220732</v>
+        <v>0.01392552161153241</v>
       </c>
       <c r="AK4">
-        <v>0.0004118597115124203</v>
+        <v>0.01030850336499262</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.004251639996197363</v>
       </c>
       <c r="AM4">
-        <v>0.02774845040082538</v>
+        <v>0.03078496653763409</v>
       </c>
       <c r="AN4">
-        <v>0.127950606889279</v>
+        <v>0.1058413548954262</v>
       </c>
       <c r="AO4">
-        <v>0.0138311525017559</v>
+        <v>0.02036021967977568</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.001150933779540245</v>
       </c>
       <c r="AQ4">
-        <v>0.01738256668182936</v>
+        <v>0.02302040516140929</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>0.001277032264152551</v>
       </c>
       <c r="AS4">
-        <v>0.03321566503374412</v>
+        <v>0.03488018164182237</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1202,100 +1202,100 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2765696903328075</v>
+        <v>0.2206232623470129</v>
       </c>
       <c r="P5">
-        <v>0.1593966693624001</v>
+        <v>0.1313894641453933</v>
       </c>
       <c r="Q5">
-        <v>0.04635337625608153</v>
+        <v>0.04530068430892092</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00486655710861239</v>
       </c>
       <c r="S5">
-        <v>0.03738264665979879</v>
+        <v>0.03846897281179943</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.008252313677865237</v>
       </c>
       <c r="U5">
-        <v>0.009822858848574034</v>
+        <v>0.01748065550412001</v>
       </c>
       <c r="V5">
-        <v>0.0732565474801822</v>
+        <v>0.0657889514212054</v>
       </c>
       <c r="W5">
-        <v>0.006670411058291809</v>
+        <v>0.01507989048475408</v>
       </c>
       <c r="X5">
-        <v>0.03921662726288724</v>
+        <v>0.03986565144725946</v>
       </c>
       <c r="Y5">
-        <v>0.03816842203002564</v>
+        <v>0.03906738463252336</v>
       </c>
       <c r="Z5">
-        <v>0.002415493653806708</v>
+        <v>0.01183953329423432</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.0001275409035807517</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>5.230305154176576E-05</v>
       </c>
       <c r="AC5">
-        <v>0.02624769953171851</v>
+        <v>0.0299890888181644</v>
       </c>
       <c r="AD5">
-        <v>0.06545724656504656</v>
+        <v>0.05984934827526715</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.008391080558269901</v>
       </c>
       <c r="AF5">
-        <v>0.01821426470059954</v>
+        <v>0.02387117962158427</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.108197858680558E-05</v>
       </c>
       <c r="AH5">
-        <v>0.00971833519164832</v>
+        <v>0.01740105490295637</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.0003161293112829979</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.005074974932297558</v>
       </c>
       <c r="AK5">
-        <v>0.005882868038165722</v>
+        <v>0.01448013249992945</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.0001017661702341229</v>
       </c>
       <c r="AM5">
-        <v>0.001810024550478369</v>
+        <v>0.01137843476373418</v>
       </c>
       <c r="AN5">
-        <v>0.09398392014267906</v>
+        <v>0.08157400308324396</v>
       </c>
       <c r="AO5">
-        <v>0.05858755177557829</v>
+        <v>0.05461769210157383</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.0004615007106810769</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.009976364795674278</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.001888237770300511</v>
       </c>
       <c r="AS5">
-        <v>0.03084534655922999</v>
+        <v>0.03349045375403006</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.008914310813365441</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1342,100 +1342,100 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2289901104482266</v>
+        <v>0.1856967040435006</v>
       </c>
       <c r="P6">
-        <v>0.03425835099463566</v>
+        <v>0.0362853244794768</v>
       </c>
       <c r="Q6">
-        <v>0.1448711024940938</v>
+        <v>0.1211549104436775</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.006646316735306959</v>
       </c>
       <c r="S6">
-        <v>0.01362512119418069</v>
+        <v>0.02045411472715996</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.005865421204417099</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.002567543905550324</v>
       </c>
       <c r="V6">
-        <v>0.09131402427987571</v>
+        <v>0.08006229687176693</v>
       </c>
       <c r="W6">
-        <v>0.01661562580095783</v>
+        <v>0.02274863217077001</v>
       </c>
       <c r="X6">
-        <v>0.02385911854767411</v>
+        <v>0.02830632983234127</v>
       </c>
       <c r="Y6">
-        <v>0.1016553528192589</v>
+        <v>0.08799686372377694</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.004365012709168793</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.001973181109103553</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.000422896401607622</v>
       </c>
       <c r="AC6">
-        <v>0.008606666903703198</v>
+        <v>0.01660361709429729</v>
       </c>
       <c r="AD6">
-        <v>0.07820614351570217</v>
+        <v>0.07000504399410962</v>
       </c>
       <c r="AE6">
-        <v>0.02381478051187402</v>
+        <v>0.02827231069178281</v>
       </c>
       <c r="AF6">
-        <v>0.007263687633896638</v>
+        <v>0.01557319254521132</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.006562650441791355</v>
       </c>
       <c r="AH6">
-        <v>0.0002233115756684116</v>
+        <v>0.01017133974800441</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.005274353354625448</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.003647190055200027</v>
       </c>
       <c r="AK6">
-        <v>0.0111689939891105</v>
+        <v>0.01856960777706626</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>6.89537730142026E-05</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.004879884760992548</v>
       </c>
       <c r="AN6">
-        <v>0.06682411997880898</v>
+        <v>0.06127198553641775</v>
       </c>
       <c r="AO6">
-        <v>0.11317262287386</v>
+        <v>0.09683369245935607</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.002611437270749551</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.003701617548729383</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.004145890176665334</v>
       </c>
       <c r="AS6">
-        <v>0.01478366052008975</v>
+        <v>0.02134302447382356</v>
       </c>
       <c r="AT6">
-        <v>0.02074720591838335</v>
+        <v>0.0259186599405389</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1449,37 +1449,37 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1216881741630084</v>
+        <v>0.11707508536556</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.001474088027516051</v>
       </c>
       <c r="F7">
-        <v>0.0446745486533448</v>
+        <v>0.04543446237015168</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08644201323542552</v>
+        <v>0.08428794009953672</v>
       </c>
       <c r="I7">
-        <v>0.02871850501783255</v>
+        <v>0.03059162256063535</v>
       </c>
       <c r="J7">
-        <v>0.02151829009533469</v>
+        <v>0.02389374436914759</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1836153711250699</v>
+        <v>0.1746818132836575</v>
       </c>
       <c r="M7">
-        <v>0.07730352615883682</v>
+        <v>0.07578701700872401</v>
       </c>
       <c r="N7">
-        <v>0.06350908800760414</v>
+        <v>0.06295497415285387</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1488,25 +1488,25 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.001350745088562589</v>
+        <v>0.005133226616457243</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.06850696047312806</v>
+        <v>0.06760416051062119</v>
       </c>
       <c r="T7">
-        <v>0.0545837722600163</v>
+        <v>0.054652350086575</v>
       </c>
       <c r="U7">
-        <v>0.05422941087480834</v>
+        <v>0.05432271139947503</v>
       </c>
       <c r="V7">
-        <v>0.001566757184667383</v>
+        <v>0.005334168216558249</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.001777621898111047</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.006864907836773453</v>
+        <v>0.0102626832803346</v>
       </c>
       <c r="AC7">
-        <v>0.09675416334445508</v>
+        <v>0.09388064338215707</v>
       </c>
       <c r="AD7">
-        <v>0.08363856611447698</v>
+        <v>0.0816800808155424</v>
       </c>
       <c r="AE7">
-        <v>0.005035200366654937</v>
+        <v>0.008560628842679344</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.0006109777137061523</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1589,37 +1589,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1071382680275657</v>
+        <v>0.1096785932663625</v>
       </c>
       <c r="E8">
-        <v>0.02960334590357626</v>
+        <v>0.02853009778314891</v>
       </c>
       <c r="F8">
-        <v>0.01063784890155984</v>
+        <v>0.008680699529495971</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.09584870595912687</v>
+        <v>0.09786287266689973</v>
       </c>
       <c r="I8">
-        <v>0.02066005270954611</v>
+        <v>0.0191699956836039</v>
       </c>
       <c r="J8">
-        <v>0.03743463756657214</v>
+        <v>0.03672637268397486</v>
       </c>
       <c r="K8">
-        <v>0.01921161801649758</v>
+        <v>0.01765405560232521</v>
       </c>
       <c r="L8">
-        <v>0.160318487303271</v>
+        <v>0.1653373166579949</v>
       </c>
       <c r="M8">
-        <v>0.0677276177320391</v>
+        <v>0.06843117997325564</v>
       </c>
       <c r="N8">
-        <v>0.05848365148563638</v>
+        <v>0.05875639172759751</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01392330676529035</v>
+        <v>0.01211927862794243</v>
       </c>
       <c r="R8">
-        <v>0.002343704222802975</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.09098026223350708</v>
+        <v>0.09276753145991473</v>
       </c>
       <c r="T8">
-        <v>0.05968603435161766</v>
+        <v>0.06001481255135412</v>
       </c>
       <c r="U8">
-        <v>0.04404243587869322</v>
+        <v>0.04364213240612514</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.003150421273583939</v>
+        <v>0.000844314705660559</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.01528435942967138</v>
+        <v>0.013543764175388</v>
       </c>
       <c r="AC8">
-        <v>0.1067640065735924</v>
+        <v>0.1092868890758466</v>
       </c>
       <c r="AD8">
-        <v>0.05676123566584992</v>
+        <v>0.0569537014231094</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1729,37 +1729,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1924488927213312</v>
+        <v>0.2731211476401345</v>
       </c>
       <c r="E9">
-        <v>0.03064861805596035</v>
+        <v>0.00697761031495308</v>
       </c>
       <c r="F9">
-        <v>0.03438917068502072</v>
+        <v>0.01313040523639582</v>
       </c>
       <c r="G9">
-        <v>0.008906347543151864</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07836882398665829</v>
+        <v>0.08547206549773063</v>
       </c>
       <c r="I9">
-        <v>0.00126052221525371</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01974976048913926</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05422355636920504</v>
+        <v>0.04575577362701292</v>
       </c>
       <c r="L9">
-        <v>0.1638673494289767</v>
+        <v>0.2261076734679051</v>
       </c>
       <c r="M9">
-        <v>0.01378251228409772</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.108174213706497</v>
+        <v>0.1344986315390999</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.01738278233573231</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.02640662414239815</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.05610711942398248</v>
+        <v>0.04885402630433536</v>
       </c>
       <c r="T9">
-        <v>0.005578575771532348</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.04324441021228431</v>
+        <v>0.02769629380810481</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.008516355293806824</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.09382594625587937</v>
+        <v>0.1108973202206065</v>
       </c>
       <c r="AD9">
-        <v>0.04311841907909242</v>
+        <v>0.02748905234372134</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1869,37 +1869,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1859441851677515</v>
+        <v>0.2141935275774444</v>
       </c>
       <c r="E10">
-        <v>0.01501771419665349</v>
+        <v>0.005594611526498946</v>
       </c>
       <c r="F10">
-        <v>0.05309223971706892</v>
+        <v>0.05206081835560783</v>
       </c>
       <c r="G10">
-        <v>0.02590453980948021</v>
+        <v>0.01888090948356216</v>
       </c>
       <c r="H10">
-        <v>0.04973871252702482</v>
+        <v>0.04796816885072888</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02040448136932477</v>
+        <v>0.01216863009046992</v>
       </c>
       <c r="K10">
-        <v>0.06363625636506447</v>
+        <v>0.06492875174883225</v>
       </c>
       <c r="L10">
-        <v>0.1357618423203043</v>
+        <v>0.1529509227111424</v>
       </c>
       <c r="M10">
-        <v>0.006432712591689718</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1464095438710087</v>
+        <v>0.1659453933118164</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.00676858825629112</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.03291069406966483</v>
+        <v>0.02743123042599444</v>
       </c>
       <c r="S10">
-        <v>0.02521266403362217</v>
+        <v>0.01803654327120235</v>
       </c>
       <c r="T10">
-        <v>0.0104334755880255</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>0.07303083859087112</v>
+        <v>0.07639391368613166</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.01257803797921591</v>
+        <v>0.00261722708989637</v>
       </c>
       <c r="AC10">
-        <v>0.0830754859461596</v>
+        <v>0.08865241606158564</v>
       </c>
       <c r="AD10">
-        <v>0.05318738664744118</v>
+        <v>0.05217693580908632</v>
       </c>
       <c r="AE10">
-        <v>0.0004606009533377811</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2009,37 +2009,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2047028042760643</v>
+        <v>0.247603565710457</v>
       </c>
       <c r="E11">
-        <v>0.006652262018078488</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.05364272877326944</v>
+        <v>0.05005167483161876</v>
       </c>
       <c r="G11">
-        <v>0.006300228206736</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.06710310308948493</v>
+        <v>0.0676547535356018</v>
       </c>
       <c r="I11">
-        <v>0.003543900436984205</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02196098198754616</v>
+        <v>0.008619225105692392</v>
       </c>
       <c r="K11">
-        <v>0.03846935531413392</v>
+        <v>0.03020838660416424</v>
       </c>
       <c r="L11">
-        <v>0.179440421330404</v>
+        <v>0.2145661698107828</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1218270103610836</v>
+        <v>0.1392210580128063</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.01747849258190622</v>
+        <v>0.002757158275783084</v>
       </c>
       <c r="R11">
-        <v>0.01537020328404072</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.05008414357195011</v>
+        <v>0.04539786254512167</v>
       </c>
       <c r="T11">
-        <v>0.007983200348881692</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0.05740221003415147</v>
+        <v>0.05496821303232331</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01104753029103913</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.07825725504605441</v>
+        <v>0.08224182297030114</v>
       </c>
       <c r="AD11">
-        <v>0.05873416904819124</v>
+        <v>0.05671010956534735</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2335,97 +2335,97 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1806491037374188</v>
+        <v>0.1538447330349463</v>
       </c>
       <c r="P2">
-        <v>0.4726190855427135</v>
+        <v>0.3963304925438732</v>
       </c>
       <c r="Q2">
-        <v>0.4816111498256599</v>
+        <v>0.4134905672935027</v>
       </c>
       <c r="R2">
-        <v>0.4816111498256599</v>
+        <v>0.4212260233196787</v>
       </c>
       <c r="S2">
-        <v>0.5134001523378874</v>
+        <v>0.4565385241027724</v>
       </c>
       <c r="T2">
-        <v>0.5235545417789964</v>
+        <v>0.4746241188168892</v>
       </c>
       <c r="U2">
-        <v>0.5384042411359318</v>
+        <v>0.4964484290152527</v>
       </c>
       <c r="V2">
-        <v>0.5384042411359318</v>
+        <v>0.4998494262685731</v>
       </c>
       <c r="W2">
-        <v>0.60854746684903</v>
+        <v>0.5657020896262417</v>
       </c>
       <c r="X2">
-        <v>0.6650919053777795</v>
+        <v>0.6207265015746202</v>
       </c>
       <c r="Y2">
-        <v>0.6650919053777795</v>
+        <v>0.6287994522467553</v>
       </c>
       <c r="Z2">
-        <v>0.6650919053777795</v>
+        <v>0.6297430641807015</v>
       </c>
       <c r="AA2">
-        <v>0.6658665827798319</v>
+        <v>0.6403599134303297</v>
       </c>
       <c r="AB2">
-        <v>0.6658665827798319</v>
+        <v>0.6403616508107549</v>
       </c>
       <c r="AC2">
-        <v>0.6981798437218463</v>
+        <v>0.6760916007387037</v>
       </c>
       <c r="AD2">
-        <v>0.7664770176391916</v>
+        <v>0.7404743158805497</v>
       </c>
       <c r="AE2">
-        <v>0.7664770176391916</v>
+        <v>0.7407265652982229</v>
       </c>
       <c r="AF2">
-        <v>0.7981773014275181</v>
+        <v>0.7759684223809565</v>
       </c>
       <c r="AG2">
-        <v>0.7981773014275181</v>
+        <v>0.7759843376641283</v>
       </c>
       <c r="AH2">
-        <v>0.8081766758323221</v>
+        <v>0.7939464991806683</v>
       </c>
       <c r="AI2">
-        <v>0.8081766758323221</v>
+        <v>0.795264000761413</v>
       </c>
       <c r="AJ2">
-        <v>0.8081766758323221</v>
+        <v>0.7964270400971787</v>
       </c>
       <c r="AK2">
-        <v>0.8081766758323221</v>
+        <v>0.8000563573440368</v>
       </c>
       <c r="AL2">
-        <v>0.8081766758323221</v>
+        <v>0.8005186051108474</v>
       </c>
       <c r="AM2">
-        <v>0.8264864503050015</v>
+        <v>0.8250980553625404</v>
       </c>
       <c r="AN2">
-        <v>0.9251497762531549</v>
+        <v>0.9136603038748884</v>
       </c>
       <c r="AO2">
-        <v>0.9475880521977041</v>
+        <v>0.9415271393378511</v>
       </c>
       <c r="AP2">
-        <v>0.9475880521977041</v>
+        <v>0.9416001503341139</v>
       </c>
       <c r="AQ2">
-        <v>0.9475880521977041</v>
+        <v>0.9448732032343441</v>
       </c>
       <c r="AR2">
-        <v>0.9475880521977041</v>
+        <v>0.9471173189735266</v>
       </c>
       <c r="AS2">
-        <v>0.9999999999999999</v>
+        <v>0.9988511692029819</v>
       </c>
       <c r="AT2">
         <v>0.9999999999999999</v>
@@ -2475,97 +2475,97 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1152671548090895</v>
+        <v>0.100367855175139</v>
       </c>
       <c r="P3">
-        <v>0.1152671548090895</v>
+        <v>0.1017365678443696</v>
       </c>
       <c r="Q3">
-        <v>0.4109153010838477</v>
+        <v>0.3435206255805535</v>
       </c>
       <c r="R3">
-        <v>0.4114752151454443</v>
+        <v>0.3539595904609887</v>
       </c>
       <c r="S3">
-        <v>0.4321660417831088</v>
+        <v>0.3801809123817319</v>
       </c>
       <c r="T3">
-        <v>0.4321660417831088</v>
+        <v>0.3874103679453557</v>
       </c>
       <c r="U3">
-        <v>0.4321660417831088</v>
+        <v>0.3929222802986103</v>
       </c>
       <c r="V3">
-        <v>0.4581397184673935</v>
+        <v>0.423285283591776</v>
       </c>
       <c r="W3">
-        <v>0.4765745936938169</v>
+        <v>0.4477379708069011</v>
       </c>
       <c r="X3">
-        <v>0.4877447201106639</v>
+        <v>0.4664951954299733</v>
       </c>
       <c r="Y3">
-        <v>0.6566569605040595</v>
+        <v>0.6089200557682017</v>
       </c>
       <c r="Z3">
-        <v>0.6566569605040595</v>
+        <v>0.6090620570598849</v>
       </c>
       <c r="AA3">
-        <v>0.6566569605040595</v>
+        <v>0.6137356197187136</v>
       </c>
       <c r="AB3">
-        <v>0.6566569605040595</v>
+        <v>0.6145703970428429</v>
       </c>
       <c r="AC3">
-        <v>0.6566569605040595</v>
+        <v>0.6198721419154873</v>
       </c>
       <c r="AD3">
-        <v>0.7173346055460161</v>
+        <v>0.6774425764300004</v>
       </c>
       <c r="AE3">
-        <v>0.7592355594170065</v>
+        <v>0.7202923447563306</v>
       </c>
       <c r="AF3">
-        <v>0.7592355594170065</v>
+        <v>0.7234469528552118</v>
       </c>
       <c r="AG3">
-        <v>0.7670086092172752</v>
+        <v>0.7395409163939426</v>
       </c>
       <c r="AH3">
-        <v>0.7670086092172752</v>
+        <v>0.7408291153538799</v>
       </c>
       <c r="AI3">
-        <v>0.7759294676626227</v>
+        <v>0.7578229449956566</v>
       </c>
       <c r="AJ3">
-        <v>0.7759294676626227</v>
+        <v>0.7594845966770999</v>
       </c>
       <c r="AK3">
-        <v>0.7759294676626227</v>
+        <v>0.766986431144836</v>
       </c>
       <c r="AL3">
-        <v>0.7759294676626227</v>
+        <v>0.7673032560182612</v>
       </c>
       <c r="AM3">
-        <v>0.7759294676626227</v>
+        <v>0.7718288074649891</v>
       </c>
       <c r="AN3">
-        <v>0.8176896898725351</v>
+        <v>0.8145682441154146</v>
       </c>
       <c r="AO3">
-        <v>0.9450492898295687</v>
+        <v>0.9244164090427343</v>
       </c>
       <c r="AP3">
-        <v>0.9450492898295687</v>
+        <v>0.93422570655272</v>
       </c>
       <c r="AQ3">
-        <v>0.9450492898295687</v>
+        <v>0.9342386150241525</v>
       </c>
       <c r="AR3">
-        <v>0.9450492898295687</v>
+        <v>0.9369194032187477</v>
       </c>
       <c r="AS3">
-        <v>0.9508050577646083</v>
+        <v>0.9514318456750297</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2612,97 +2612,97 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03184889134399857</v>
+        <v>0.03385640031365729</v>
       </c>
       <c r="O4">
-        <v>0.09792916589418947</v>
+        <v>0.0933538055915584</v>
       </c>
       <c r="P4">
-        <v>0.3793811676726784</v>
+        <v>0.3141753237092697</v>
       </c>
       <c r="Q4">
-        <v>0.3793811676726784</v>
+        <v>0.3172447108577069</v>
       </c>
       <c r="R4">
-        <v>0.3961638715350567</v>
+        <v>0.3398157889954678</v>
       </c>
       <c r="S4">
-        <v>0.4472607431308681</v>
+        <v>0.3880898818170667</v>
       </c>
       <c r="T4">
-        <v>0.4472607431308681</v>
+        <v>0.3880904353709998</v>
       </c>
       <c r="U4">
-        <v>0.4506274383355067</v>
+        <v>0.4006122571722182</v>
       </c>
       <c r="V4">
-        <v>0.5758199319554647</v>
+        <v>0.5043876483405983</v>
       </c>
       <c r="W4">
-        <v>0.58110896900966</v>
+        <v>0.5183493995951652</v>
       </c>
       <c r="X4">
-        <v>0.6454306846431205</v>
+        <v>0.5765295569651395</v>
       </c>
       <c r="Y4">
-        <v>0.6468716546596822</v>
+        <v>0.5876089150245387</v>
       </c>
       <c r="Z4">
-        <v>0.6526723343431018</v>
+        <v>0.601953912001805</v>
       </c>
       <c r="AA4">
-        <v>0.6526723343431018</v>
+        <v>0.6073567187091512</v>
       </c>
       <c r="AB4">
-        <v>0.6526723343431018</v>
+        <v>0.6083298351676558</v>
       </c>
       <c r="AC4">
-        <v>0.7359166344943329</v>
+        <v>0.6806839474910107</v>
       </c>
       <c r="AD4">
-        <v>0.7621274247084483</v>
+        <v>0.7103171302329606</v>
       </c>
       <c r="AE4">
-        <v>0.7624230881330877</v>
+        <v>0.7205385968121304</v>
       </c>
       <c r="AF4">
-        <v>0.7742190292068331</v>
+        <v>0.739374342122449</v>
       </c>
       <c r="AG4">
-        <v>0.7742190292068331</v>
+        <v>0.7448200821844581</v>
       </c>
       <c r="AH4">
-        <v>0.7742190292068331</v>
+        <v>0.7487058511186193</v>
       </c>
       <c r="AI4">
-        <v>0.7742190292068331</v>
+        <v>0.7541992410675175</v>
       </c>
       <c r="AJ4">
-        <v>0.7794596987810538</v>
+        <v>0.7681247626790498</v>
       </c>
       <c r="AK4">
-        <v>0.7798715584925663</v>
+        <v>0.7784332660440425</v>
       </c>
       <c r="AL4">
-        <v>0.7798715584925663</v>
+        <v>0.7826849060402399</v>
       </c>
       <c r="AM4">
-        <v>0.8076200088933917</v>
+        <v>0.813469872577874</v>
       </c>
       <c r="AN4">
-        <v>0.9355706157826706</v>
+        <v>0.9193112274733002</v>
       </c>
       <c r="AO4">
-        <v>0.9494017682844266</v>
+        <v>0.9396714471530758</v>
       </c>
       <c r="AP4">
-        <v>0.9494017682844266</v>
+        <v>0.9408223809326161</v>
       </c>
       <c r="AQ4">
-        <v>0.9667843349662559</v>
+        <v>0.9638427860940253</v>
       </c>
       <c r="AR4">
-        <v>0.9667843349662559</v>
+        <v>0.9651198183581778</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -2755,100 +2755,100 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2765696903328075</v>
+        <v>0.2206232623470129</v>
       </c>
       <c r="P5">
-        <v>0.4359663596952076</v>
+        <v>0.3520127264924061</v>
       </c>
       <c r="Q5">
-        <v>0.4823197359512891</v>
+        <v>0.397313410801327</v>
       </c>
       <c r="R5">
-        <v>0.4823197359512891</v>
+        <v>0.4021799679099394</v>
       </c>
       <c r="S5">
-        <v>0.5197023826110879</v>
+        <v>0.4406489407217389</v>
       </c>
       <c r="T5">
-        <v>0.5197023826110879</v>
+        <v>0.4489012543996041</v>
       </c>
       <c r="U5">
-        <v>0.529525241459662</v>
+        <v>0.4663819099037241</v>
       </c>
       <c r="V5">
-        <v>0.6027817889398441</v>
+        <v>0.5321708613249295</v>
       </c>
       <c r="W5">
-        <v>0.6094521999981359</v>
+        <v>0.5472507518096836</v>
       </c>
       <c r="X5">
-        <v>0.6486688272610232</v>
+        <v>0.5871164032569431</v>
       </c>
       <c r="Y5">
-        <v>0.6868372492910488</v>
+        <v>0.6261837878894665</v>
       </c>
       <c r="Z5">
-        <v>0.6892527429448555</v>
+        <v>0.6380233211837008</v>
       </c>
       <c r="AA5">
-        <v>0.6892527429448555</v>
+        <v>0.6381508620872816</v>
       </c>
       <c r="AB5">
-        <v>0.6892527429448555</v>
+        <v>0.6382031651388234</v>
       </c>
       <c r="AC5">
-        <v>0.715500442476574</v>
+        <v>0.6681922539569878</v>
       </c>
       <c r="AD5">
-        <v>0.7809576890416206</v>
+        <v>0.7280416022322549</v>
       </c>
       <c r="AE5">
-        <v>0.7809576890416206</v>
+        <v>0.7364326827905248</v>
       </c>
       <c r="AF5">
-        <v>0.7991719537422201</v>
+        <v>0.760303862412109</v>
       </c>
       <c r="AG5">
-        <v>0.7991719537422201</v>
+        <v>0.7603249443906959</v>
       </c>
       <c r="AH5">
-        <v>0.8088902889338684</v>
+        <v>0.7777259992936523</v>
       </c>
       <c r="AI5">
-        <v>0.8088902889338684</v>
+        <v>0.7780421286049353</v>
       </c>
       <c r="AJ5">
-        <v>0.8088902889338684</v>
+        <v>0.7831171035372329</v>
       </c>
       <c r="AK5">
-        <v>0.8147731569720341</v>
+        <v>0.7975972360371623</v>
       </c>
       <c r="AL5">
-        <v>0.8147731569720341</v>
+        <v>0.7976990022073964</v>
       </c>
       <c r="AM5">
-        <v>0.8165831815225125</v>
+        <v>0.8090774369711305</v>
       </c>
       <c r="AN5">
-        <v>0.9105671016651916</v>
+        <v>0.8906514400543745</v>
       </c>
       <c r="AO5">
-        <v>0.9691546534407699</v>
+        <v>0.9452691321559483</v>
       </c>
       <c r="AP5">
-        <v>0.9691546534407699</v>
+        <v>0.9457306328666294</v>
       </c>
       <c r="AQ5">
-        <v>0.9691546534407699</v>
+        <v>0.9557069976623037</v>
       </c>
       <c r="AR5">
-        <v>0.9691546534407699</v>
+        <v>0.9575952354326043</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999999</v>
+        <v>0.9910856891866343</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -2895,97 +2895,97 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2289901104482266</v>
+        <v>0.1856967040435006</v>
       </c>
       <c r="P6">
-        <v>0.2632484614428623</v>
+        <v>0.2219820285229774</v>
       </c>
       <c r="Q6">
-        <v>0.4081195639369561</v>
+        <v>0.3431369389666549</v>
       </c>
       <c r="R6">
-        <v>0.4081195639369561</v>
+        <v>0.3497832557019618</v>
       </c>
       <c r="S6">
-        <v>0.4217446851311368</v>
+        <v>0.3702373704291218</v>
       </c>
       <c r="T6">
-        <v>0.4217446851311368</v>
+        <v>0.3761027916335389</v>
       </c>
       <c r="U6">
-        <v>0.4217446851311368</v>
+        <v>0.3786703355390892</v>
       </c>
       <c r="V6">
-        <v>0.5130587094110125</v>
+        <v>0.4587326324108561</v>
       </c>
       <c r="W6">
-        <v>0.5296743352119704</v>
+        <v>0.4814812645816261</v>
       </c>
       <c r="X6">
-        <v>0.5535334537596445</v>
+        <v>0.5097875944139674</v>
       </c>
       <c r="Y6">
-        <v>0.6551888065789033</v>
+        <v>0.5977844581377443</v>
       </c>
       <c r="Z6">
-        <v>0.6551888065789033</v>
+        <v>0.6021494708469131</v>
       </c>
       <c r="AA6">
-        <v>0.6551888065789033</v>
+        <v>0.6041226519560167</v>
       </c>
       <c r="AB6">
-        <v>0.6551888065789033</v>
+        <v>0.6045455483576243</v>
       </c>
       <c r="AC6">
-        <v>0.6637954734826065</v>
+        <v>0.6211491654519216</v>
       </c>
       <c r="AD6">
-        <v>0.7420016169983087</v>
+        <v>0.6911542094460312</v>
       </c>
       <c r="AE6">
-        <v>0.7658163975101827</v>
+        <v>0.7194265201378141</v>
       </c>
       <c r="AF6">
-        <v>0.7730800851440793</v>
+        <v>0.7349997126830253</v>
       </c>
       <c r="AG6">
-        <v>0.7730800851440793</v>
+        <v>0.7415623631248167</v>
       </c>
       <c r="AH6">
-        <v>0.7733033967197478</v>
+        <v>0.7517337028728212</v>
       </c>
       <c r="AI6">
-        <v>0.7733033967197478</v>
+        <v>0.7570080562274466</v>
       </c>
       <c r="AJ6">
-        <v>0.7733033967197478</v>
+        <v>0.7606552462826466</v>
       </c>
       <c r="AK6">
-        <v>0.7844723907088583</v>
+        <v>0.7792248540597129</v>
       </c>
       <c r="AL6">
-        <v>0.7844723907088583</v>
+        <v>0.7792938078327271</v>
       </c>
       <c r="AM6">
-        <v>0.7844723907088583</v>
+        <v>0.7841736925937196</v>
       </c>
       <c r="AN6">
-        <v>0.8512965106876673</v>
+        <v>0.8454456781301374</v>
       </c>
       <c r="AO6">
-        <v>0.9644691335615273</v>
+        <v>0.9422793705894934</v>
       </c>
       <c r="AP6">
-        <v>0.9644691335615273</v>
+        <v>0.9448908078602429</v>
       </c>
       <c r="AQ6">
-        <v>0.9644691335615273</v>
+        <v>0.9485924254089723</v>
       </c>
       <c r="AR6">
-        <v>0.9644691335615273</v>
+        <v>0.9527383155856376</v>
       </c>
       <c r="AS6">
-        <v>0.979252794081617</v>
+        <v>0.9740813400594611</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -3002,133 +3002,133 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1216881741630084</v>
+        <v>0.11707508536556</v>
       </c>
       <c r="E7">
-        <v>0.1216881741630084</v>
+        <v>0.1185491733930761</v>
       </c>
       <c r="F7">
-        <v>0.1663627228163532</v>
+        <v>0.1639836357632277</v>
       </c>
       <c r="G7">
-        <v>0.1663627228163532</v>
+        <v>0.1639836357632277</v>
       </c>
       <c r="H7">
-        <v>0.2528047360517787</v>
+        <v>0.2482715758627644</v>
       </c>
       <c r="I7">
-        <v>0.2815232410696112</v>
+        <v>0.2788631984233998</v>
       </c>
       <c r="J7">
-        <v>0.3030415311649459</v>
+        <v>0.3027569427925474</v>
       </c>
       <c r="K7">
-        <v>0.3030415311649459</v>
+        <v>0.3027569427925474</v>
       </c>
       <c r="L7">
-        <v>0.4866569022900158</v>
+        <v>0.4774387560762049</v>
       </c>
       <c r="M7">
-        <v>0.5639604284488526</v>
+        <v>0.5532257730849289</v>
       </c>
       <c r="N7">
-        <v>0.6274695164564568</v>
+        <v>0.6161807472377828</v>
       </c>
       <c r="O7">
-        <v>0.6274695164564568</v>
+        <v>0.6161807472377828</v>
       </c>
       <c r="P7">
-        <v>0.6274695164564568</v>
+        <v>0.6161807472377828</v>
       </c>
       <c r="Q7">
-        <v>0.6288202615450194</v>
+        <v>0.62131397385424</v>
       </c>
       <c r="R7">
-        <v>0.6288202615450194</v>
+        <v>0.62131397385424</v>
       </c>
       <c r="S7">
-        <v>0.6973272220181475</v>
+        <v>0.6889181343648613</v>
       </c>
       <c r="T7">
-        <v>0.7519109942781638</v>
+        <v>0.7435704844514363</v>
       </c>
       <c r="U7">
-        <v>0.8061404051529721</v>
+        <v>0.7978931958509112</v>
       </c>
       <c r="V7">
-        <v>0.8077071623376395</v>
+        <v>0.8032273640674695</v>
       </c>
       <c r="W7">
-        <v>0.8077071623376395</v>
+        <v>0.8050049859655806</v>
       </c>
       <c r="X7">
-        <v>0.8077071623376395</v>
+        <v>0.8050049859655806</v>
       </c>
       <c r="Y7">
-        <v>0.8077071623376395</v>
+        <v>0.8050049859655806</v>
       </c>
       <c r="Z7">
-        <v>0.8077071623376395</v>
+        <v>0.8050049859655806</v>
       </c>
       <c r="AA7">
-        <v>0.8077071623376395</v>
+        <v>0.8050049859655806</v>
       </c>
       <c r="AB7">
-        <v>0.8145720701744129</v>
+        <v>0.8152676692459152</v>
       </c>
       <c r="AC7">
-        <v>0.911326233518868</v>
+        <v>0.9091483126280723</v>
       </c>
       <c r="AD7">
-        <v>0.9949647996333449</v>
+        <v>0.9908283934436146</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>0.999389022286294</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -3142,133 +3142,133 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1071382680275657</v>
+        <v>0.1096785932663625</v>
       </c>
       <c r="E8">
-        <v>0.1367416139311419</v>
+        <v>0.1382086910495114</v>
       </c>
       <c r="F8">
-        <v>0.1473794628327018</v>
+        <v>0.1468893905790074</v>
       </c>
       <c r="G8">
-        <v>0.1473794628327018</v>
+        <v>0.1468893905790074</v>
       </c>
       <c r="H8">
-        <v>0.2432281687918286</v>
+        <v>0.2447522632459072</v>
       </c>
       <c r="I8">
-        <v>0.2638882215013748</v>
+        <v>0.263922258929511</v>
       </c>
       <c r="J8">
-        <v>0.3013228590679469</v>
+        <v>0.3006486316134859</v>
       </c>
       <c r="K8">
-        <v>0.3205344770844444</v>
+        <v>0.3183026872158111</v>
       </c>
       <c r="L8">
-        <v>0.4808529643877155</v>
+        <v>0.4836400038738061</v>
       </c>
       <c r="M8">
-        <v>0.5485805821197546</v>
+        <v>0.5520711838470617</v>
       </c>
       <c r="N8">
-        <v>0.607064233605391</v>
+        <v>0.6108275755746592</v>
       </c>
       <c r="O8">
-        <v>0.607064233605391</v>
+        <v>0.6108275755746592</v>
       </c>
       <c r="P8">
-        <v>0.607064233605391</v>
+        <v>0.6108275755746592</v>
       </c>
       <c r="Q8">
-        <v>0.6209875403706813</v>
+        <v>0.6229468542026017</v>
       </c>
       <c r="R8">
-        <v>0.6233312445934842</v>
+        <v>0.6229468542026017</v>
       </c>
       <c r="S8">
-        <v>0.7143115068269913</v>
+        <v>0.7157143856625163</v>
       </c>
       <c r="T8">
-        <v>0.773997541178609</v>
+        <v>0.7757291982138704</v>
       </c>
       <c r="U8">
-        <v>0.8180399770573021</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="V8">
-        <v>0.8180399770573021</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="W8">
-        <v>0.8180399770573021</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="X8">
-        <v>0.8180399770573021</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="Y8">
-        <v>0.821190398330886</v>
+        <v>0.8202156453256562</v>
       </c>
       <c r="Z8">
-        <v>0.821190398330886</v>
+        <v>0.8202156453256562</v>
       </c>
       <c r="AA8">
-        <v>0.821190398330886</v>
+        <v>0.8202156453256562</v>
       </c>
       <c r="AB8">
-        <v>0.8364747577605575</v>
+        <v>0.8337594095010442</v>
       </c>
       <c r="AC8">
-        <v>0.9432387643341499</v>
+        <v>0.9430462985768908</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -3282,133 +3282,133 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1924488927213312</v>
+        <v>0.2731211476401345</v>
       </c>
       <c r="E9">
-        <v>0.2230975107772915</v>
+        <v>0.2800987579550875</v>
       </c>
       <c r="F9">
-        <v>0.2574866814623122</v>
+        <v>0.2932291631914833</v>
       </c>
       <c r="G9">
-        <v>0.2663930290054641</v>
+        <v>0.2932291631914833</v>
       </c>
       <c r="H9">
-        <v>0.3447618529921224</v>
+        <v>0.378701228689214</v>
       </c>
       <c r="I9">
-        <v>0.3460223752073761</v>
+        <v>0.378701228689214</v>
       </c>
       <c r="J9">
-        <v>0.3657721356965153</v>
+        <v>0.378701228689214</v>
       </c>
       <c r="K9">
-        <v>0.4199956920657204</v>
+        <v>0.4244570023162269</v>
       </c>
       <c r="L9">
-        <v>0.5838630414946971</v>
+        <v>0.650564675784132</v>
       </c>
       <c r="M9">
-        <v>0.5976455537787949</v>
+        <v>0.650564675784132</v>
       </c>
       <c r="N9">
-        <v>0.705819767485292</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="O9">
-        <v>0.705819767485292</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="P9">
-        <v>0.705819767485292</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="Q9">
-        <v>0.7232025498210243</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="R9">
-        <v>0.7496091739634224</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="S9">
-        <v>0.8057162933874049</v>
+        <v>0.8339173336275671</v>
       </c>
       <c r="T9">
-        <v>0.8112948691589372</v>
+        <v>0.8339173336275671</v>
       </c>
       <c r="U9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="V9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="W9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="X9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="Y9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="Z9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="AA9">
-        <v>0.8545392793712215</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="AB9">
-        <v>0.8630556346650283</v>
+        <v>0.8616136274356719</v>
       </c>
       <c r="AC9">
-        <v>0.9568815809209077</v>
+        <v>0.9725109476562784</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -3422,85 +3422,85 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1859441851677515</v>
+        <v>0.2141935275774444</v>
       </c>
       <c r="E10">
-        <v>0.200961899364405</v>
+        <v>0.2197881391039433</v>
       </c>
       <c r="F10">
-        <v>0.2540541390814739</v>
+        <v>0.2718489574595512</v>
       </c>
       <c r="G10">
-        <v>0.2799586788909541</v>
+        <v>0.2907298669431133</v>
       </c>
       <c r="H10">
-        <v>0.3296973914179789</v>
+        <v>0.3386980357938422</v>
       </c>
       <c r="I10">
-        <v>0.3296973914179789</v>
+        <v>0.3386980357938422</v>
       </c>
       <c r="J10">
-        <v>0.3501018727873037</v>
+        <v>0.3508666658843121</v>
       </c>
       <c r="K10">
-        <v>0.4137381291523682</v>
+        <v>0.4157954176331443</v>
       </c>
       <c r="L10">
-        <v>0.5494999714726725</v>
+        <v>0.5687463403442867</v>
       </c>
       <c r="M10">
-        <v>0.5559326840643622</v>
+        <v>0.5687463403442867</v>
       </c>
       <c r="N10">
-        <v>0.7023422279353709</v>
+        <v>0.7346917336561032</v>
       </c>
       <c r="O10">
-        <v>0.7023422279353709</v>
+        <v>0.7346917336561032</v>
       </c>
       <c r="P10">
-        <v>0.7023422279353709</v>
+        <v>0.7346917336561032</v>
       </c>
       <c r="Q10">
-        <v>0.7091108161916621</v>
+        <v>0.7346917336561032</v>
       </c>
       <c r="R10">
-        <v>0.7420215102613269</v>
+        <v>0.7621229640820977</v>
       </c>
       <c r="S10">
-        <v>0.7672341742949491</v>
+        <v>0.7801595073533</v>
       </c>
       <c r="T10">
-        <v>0.7776676498829747</v>
+        <v>0.7801595073533</v>
       </c>
       <c r="U10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="V10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="W10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="X10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="Y10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="Z10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="AA10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="AB10">
-        <v>0.8632765264530616</v>
+        <v>0.8591706481293281</v>
       </c>
       <c r="AC10">
-        <v>0.9463520123992213</v>
+        <v>0.9478230641909138</v>
       </c>
       <c r="AD10">
-        <v>0.9995393990466624</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -3562,133 +3562,133 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2047028042760643</v>
+        <v>0.247603565710457</v>
       </c>
       <c r="E11">
-        <v>0.2113550662941428</v>
+        <v>0.247603565710457</v>
       </c>
       <c r="F11">
-        <v>0.2649977950674122</v>
+        <v>0.2976552405420757</v>
       </c>
       <c r="G11">
-        <v>0.2712980232741482</v>
+        <v>0.2976552405420757</v>
       </c>
       <c r="H11">
-        <v>0.3384011263636331</v>
+        <v>0.3653099940776775</v>
       </c>
       <c r="I11">
-        <v>0.3419450268006173</v>
+        <v>0.3653099940776775</v>
       </c>
       <c r="J11">
-        <v>0.3639060087881635</v>
+        <v>0.3739292191833699</v>
       </c>
       <c r="K11">
-        <v>0.4023753641022974</v>
+        <v>0.4041376057875342</v>
       </c>
       <c r="L11">
-        <v>0.5818157854327014</v>
+        <v>0.618703775598317</v>
       </c>
       <c r="M11">
-        <v>0.5818157854327014</v>
+        <v>0.618703775598317</v>
       </c>
       <c r="N11">
-        <v>0.703642795793785</v>
+        <v>0.7579248336111233</v>
       </c>
       <c r="O11">
-        <v>0.703642795793785</v>
+        <v>0.7579248336111233</v>
       </c>
       <c r="P11">
-        <v>0.703642795793785</v>
+        <v>0.7579248336111233</v>
       </c>
       <c r="Q11">
-        <v>0.7211212883756912</v>
+        <v>0.7606819918869063</v>
       </c>
       <c r="R11">
-        <v>0.7364914916597319</v>
+        <v>0.7606819918869063</v>
       </c>
       <c r="S11">
-        <v>0.7865756352316821</v>
+        <v>0.806079854432028</v>
       </c>
       <c r="T11">
-        <v>0.7945588355805637</v>
+        <v>0.806079854432028</v>
       </c>
       <c r="U11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="V11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="W11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="X11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="Y11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="Z11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="AA11">
-        <v>0.8519610456147152</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="AB11">
-        <v>0.8630085759057543</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="AC11">
-        <v>0.9412658309518087</v>
+        <v>0.9432898904346525</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3756,16 +3756,16 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5134001523378874</v>
+        <v>0.5657020896262417</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6566569605040595</v>
+        <v>0.6089200557682017</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5758199319554647</v>
+        <v>0.5043876483405983</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -3879,16 +3879,16 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5197023826110879</v>
+        <v>0.5321708613249295</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -3920,16 +3920,16 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5130587094110125</v>
+        <v>0.5097875944139674</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5639604284488526</v>
+        <v>0.5532257730849289</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5485805821197546</v>
+        <v>0.5520711838470617</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5838630414946971</v>
+        <v>0.650564675784132</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5494999714726725</v>
+        <v>0.5687463403442867</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5818157854327014</v>
+        <v>0.618703775598317</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7664770176391916</v>
+        <v>0.7404743158805497</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4261,16 +4261,16 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7173346055460161</v>
+        <v>0.7202923447563306</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>42</v>
@@ -4302,16 +4302,16 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7359166344943329</v>
+        <v>0.7103171302329606</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>42</v>
@@ -4343,16 +4343,16 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.715500442476574</v>
+        <v>0.7280416022322549</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -4384,16 +4384,16 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7420016169983087</v>
+        <v>0.7194265201378141</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>42</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7519109942781638</v>
+        <v>0.7435704844514363</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7143115068269913</v>
+        <v>0.7157143856625163</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.705819767485292</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7023422279353709</v>
+        <v>0.7346917336561032</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.703642795793785</v>
+        <v>0.7579248336111233</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -4684,16 +4684,16 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8081766758323221</v>
+        <v>0.8000563573440368</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8176896898725351</v>
+        <v>0.8145682441154146</v>
       </c>
       <c r="G3">
         <v>27</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8076200088933917</v>
+        <v>0.813469872577874</v>
       </c>
       <c r="G4">
         <v>26</v>
@@ -4807,16 +4807,16 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8088902889338684</v>
+        <v>0.8090774369711305</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8512965106876673</v>
+        <v>0.8454456781301374</v>
       </c>
       <c r="G6">
         <v>27</v>
@@ -4889,16 +4889,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8032273640674695</v>
+      </c>
+      <c r="G7">
         <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8061404051529721</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
       </c>
       <c r="H7">
         <v>42</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8180399770573021</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8057162933874049</v>
+        <v>0.8339173336275671</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8506984884738458</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="G10">
         <v>19</v>
@@ -5053,16 +5053,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8519610456147152</v>
+        <v>0.806079854432028</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>42</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9251497762531549</v>
+        <v>0.9136603038748884</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9450492898295687</v>
+        <v>0.9244164090427343</v>
       </c>
       <c r="G3">
         <v>28</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9355706157826706</v>
+        <v>0.9193112274733002</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5271,16 +5271,16 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9105671016651916</v>
+        <v>0.9452691321559483</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>42</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9644691335615273</v>
+        <v>0.9422793705894934</v>
       </c>
       <c r="G6">
         <v>28</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.911326233518868</v>
+        <v>0.9091483126280723</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9432387643341499</v>
+        <v>0.9430462985768908</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9568815809209077</v>
+        <v>0.9725109476562784</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9463520123992213</v>
+        <v>0.9478230641909138</v>
       </c>
       <c r="G10">
         <v>27</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9412658309518087</v>
+        <v>0.9432898904346525</v>
       </c>
       <c r="G11">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="73">
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
   <si>
     <t>Signal_Value_48</t>
   </si>
@@ -592,15 +595,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -737,10 +740,13 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -782,105 +788,108 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1538447330349463</v>
+        <v>0.005074772313286994</v>
       </c>
       <c r="P2">
-        <v>0.242485759508927</v>
+        <v>0.1532400529353443</v>
       </c>
       <c r="Q2">
-        <v>0.01716007474962951</v>
+        <v>0.2415326796710972</v>
       </c>
       <c r="R2">
-        <v>0.007735456026175984</v>
+        <v>0.01709262781463157</v>
       </c>
       <c r="S2">
-        <v>0.03531250078309375</v>
+        <v>0.00770505214930545</v>
       </c>
       <c r="T2">
-        <v>0.01808559471411676</v>
+        <v>0.0351737065191012</v>
       </c>
       <c r="U2">
-        <v>0.02182431019836351</v>
+        <v>0.01801451006274551</v>
       </c>
       <c r="V2">
-        <v>0.00340099725332048</v>
+        <v>0.02173853068674713</v>
       </c>
       <c r="W2">
-        <v>0.06585266335766857</v>
+        <v>0.003387629780041972</v>
       </c>
       <c r="X2">
-        <v>0.05502441194837847</v>
+        <v>0.06559383229954503</v>
       </c>
       <c r="Y2">
-        <v>0.008072950672135112</v>
+        <v>0.05480814086622236</v>
       </c>
       <c r="Z2">
-        <v>0.0009436119339461638</v>
+        <v>0.008041220287089043</v>
       </c>
       <c r="AA2">
-        <v>0.0106168492496282</v>
+        <v>0.0009399031078658159</v>
       </c>
       <c r="AB2">
-        <v>1.737380425153252E-06</v>
+        <v>0.01057512018074765</v>
       </c>
       <c r="AC2">
-        <v>0.03572994992794879</v>
+        <v>1.730551726192921E-06</v>
       </c>
       <c r="AD2">
-        <v>0.06438271514184604</v>
+        <v>0.03558951489806515</v>
       </c>
       <c r="AE2">
-        <v>0.0002522494176731957</v>
+        <v>0.06412966165189803</v>
       </c>
       <c r="AF2">
-        <v>0.03524185708273363</v>
+        <v>0.0002512579621973133</v>
       </c>
       <c r="AG2">
-        <v>1.591528317174809E-05</v>
+        <v>0.03510334048076388</v>
       </c>
       <c r="AH2">
-        <v>0.01796216151654</v>
+        <v>1.585272883645408E-05</v>
       </c>
       <c r="AI2">
-        <v>0.001317501580744778</v>
+        <v>0.01789156201403756</v>
       </c>
       <c r="AJ2">
-        <v>0.001163039335765668</v>
+        <v>0.001312323197505037</v>
       </c>
       <c r="AK2">
-        <v>0.003629317246858094</v>
+        <v>0.00115846805972964</v>
       </c>
       <c r="AL2">
-        <v>0.000462247766810589</v>
+        <v>0.003615052371675017</v>
       </c>
       <c r="AM2">
-        <v>0.02457945025169302</v>
+        <v>0.0004604309218646374</v>
       </c>
       <c r="AN2">
-        <v>0.08856224851234794</v>
+        <v>0.02448284178071611</v>
       </c>
       <c r="AO2">
-        <v>0.02786683546296276</v>
+        <v>0.0882141584075066</v>
       </c>
       <c r="AP2">
-        <v>7.301099626273601E-05</v>
+        <v>0.0277573060659472</v>
       </c>
       <c r="AQ2">
-        <v>0.003273052900230191</v>
+        <v>7.272402968532214E-05</v>
       </c>
       <c r="AR2">
-        <v>0.002244115739182487</v>
+        <v>0.003260188306723021</v>
       </c>
       <c r="AS2">
-        <v>0.05173385022945532</v>
+        <v>0.002235295338887216</v>
       </c>
       <c r="AT2">
-        <v>0.001148830797018032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
+        <v>0.05153051255846443</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -922,105 +931,108 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0.100367855175139</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.001368712669230591</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2417840577361839</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.01043896488043529</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.02622132192074314</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.007229455563623794</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.005511912353254572</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.03036300329316566</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.02445268721512518</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.01875722462307216</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.1424248603382285</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0001420012916831566</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.004673562658828664</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0008347773241293233</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.005301744872644434</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.05757043451451305</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.04284976832633026</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.003154608098881115</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.01609396353873078</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.001288198959937275</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.01699382964177679</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.001661651681443275</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.007501834467736092</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0003168248734252465</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.004525551446727815</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.04273943665042556</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>0.1098481649273196</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0.009809297509985678</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>1.290847143257835E-05</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>0.002680788194595113</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>0.01451244245628204</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>0.04856815432497026</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1059,108 +1071,111 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.03385640031365729</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.05949740527790112</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.2208215181177113</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.003069387148437267</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.02257107813776083</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.04827409282159892</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>5.535539330633943E-07</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.01252182180121835</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.1037753911683802</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.01396175125456688</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.05818015736997426</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.01107935805939919</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.01434499697726631</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.005402806707346216</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.000973116458504626</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.07235411232335487</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.02963318274194987</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.01022146657916974</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>0.01883574531031859</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.005445740062008994</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>0.003885768934161289</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.005493389948898181</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.01392552161153241</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.01030850336499262</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.004251639996197363</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>0.03078496653763409</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>0.1058413548954262</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>0.02036021967977568</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0.001150933779540245</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>0.02302040516140929</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>0.001277032264152551</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>0.03488018164182237</v>
       </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AU4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1202,105 +1217,108 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0.2206232623470129</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.1313894641453933</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.04530068430892092</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.00486655710861239</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.03846897281179943</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.008252313677865237</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.01748065550412001</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.0657889514212054</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.01507989048475408</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.03986565144725946</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.03906738463252336</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.01183953329423432</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.0001275409035807517</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>5.230305154176576E-05</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.0299890888181644</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.05984934827526715</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.008391080558269901</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.02387117962158427</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2.108197858680558E-05</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.01740105490295637</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.0003161293112829979</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.005074974932297558</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.01448013249992945</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.0001017661702341229</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.01137843476373418</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>0.08157400308324396</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>0.05461769210157383</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0.0004615007106810769</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>0.009976364795674278</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>0.001888237770300511</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.03349045375403006</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.008914310813365441</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1342,105 +1360,108 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.1856967040435006</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.0362853244794768</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.1211549104436775</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.006646316735306959</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.02045411472715996</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.005865421204417099</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.002567543905550324</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.08006229687176693</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.02274863217077001</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.02830632983234127</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.08799686372377694</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.004365012709168793</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.001973181109103553</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.000422896401607622</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.01660361709429729</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.07000504399410962</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.02827231069178281</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.01557319254521132</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.006562650441791355</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.01017133974800441</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.005274353354625448</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.003647190055200027</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.01856960777706626</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>6.89537730142026E-05</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>0.004879884760992548</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>0.06127198553641775</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>0.09683369245935607</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0.002611437270749551</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>0.003701617548729383</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>0.004145890176665334</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>0.02134302447382356</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>0.0259186599405389</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1449,67 +1470,67 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.11707508536556</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.001474088027516051</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.04543446237015168</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.08428794009953672</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.03059162256063535</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.02389374436914759</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0.1746818132836575</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.07578701700872401</v>
       </c>
-      <c r="N7">
-        <v>0.06295497415285387</v>
-      </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.06295497415285385</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.005133226616457243</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.005133226616457242</v>
       </c>
       <c r="S7">
-        <v>0.06760416051062119</v>
+        <v>0</v>
       </c>
       <c r="T7">
+        <v>0.06760416051062121</v>
+      </c>
+      <c r="U7">
         <v>0.054652350086575</v>
       </c>
-      <c r="U7">
-        <v>0.05432271139947503</v>
-      </c>
       <c r="V7">
-        <v>0.005334168216558249</v>
+        <v>0.05432271139947502</v>
       </c>
       <c r="W7">
-        <v>0.001777621898111047</v>
+        <v>0.005334168216558247</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.001777621898111045</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1521,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>0.0102626832803346</v>
       </c>
-      <c r="AC7">
-        <v>0.09388064338215707</v>
-      </c>
       <c r="AD7">
+        <v>0.09388064338215708</v>
+      </c>
+      <c r="AE7">
         <v>0.0816800808155424</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.008560628842679344</v>
       </c>
-      <c r="AF7">
-        <v>0.0006109777137061523</v>
-      </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.0006109777137061521</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1577,10 +1598,13 @@
       <c r="AT7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AU7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1589,62 +1613,62 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1096785932663625</v>
       </c>
-      <c r="E8">
-        <v>0.02853009778314891</v>
-      </c>
       <c r="F8">
+        <v>0.0285300977831489</v>
+      </c>
+      <c r="G8">
         <v>0.008680699529495971</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
-        <v>0.09786287266689973</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>0.09786287266689975</v>
+      </c>
+      <c r="J8">
         <v>0.0191699956836039</v>
       </c>
-      <c r="J8">
-        <v>0.03672637268397486</v>
-      </c>
       <c r="K8">
+        <v>0.03672637268397487</v>
+      </c>
+      <c r="L8">
         <v>0.01765405560232521</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.1653373166579949</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.06843117997325564</v>
       </c>
-      <c r="N8">
-        <v>0.05875639172759751</v>
-      </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.05875639172759749</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0.01211927862794243</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>0.09276753145991473</v>
       </c>
-      <c r="T8">
-        <v>0.06001481255135412</v>
-      </c>
       <c r="U8">
+        <v>0.06001481255135414</v>
+      </c>
+      <c r="V8">
         <v>0.04364213240612514</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
       <c r="W8">
         <v>0</v>
       </c>
@@ -1652,26 +1676,26 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.000844314705660559</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.0008443147056605579</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <v>0.013543764175388</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.1092868890758466</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.0569537014231094</v>
       </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
       <c r="AF8">
         <v>0</v>
       </c>
@@ -1717,10 +1741,13 @@
       <c r="AT8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AU8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1729,40 +1756,40 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2731211476401345</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.00697761031495308</v>
+        <v>0.2436221903825776</v>
       </c>
       <c r="F9">
-        <v>0.01313040523639582</v>
+        <v>0.01846075147439415</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.02366610859763072</v>
       </c>
       <c r="H9">
-        <v>0.08547206549773063</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.08486824215741469</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.04575577362701292</v>
+        <v>0.003293889382991317</v>
       </c>
       <c r="L9">
-        <v>0.2261076734679051</v>
+        <v>0.05126766137463992</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2038480835262534</v>
       </c>
       <c r="N9">
-        <v>0.1344986315390999</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.1263454550386509</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1774,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.04885402630433536</v>
+        <v>0.01255758811207729</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.05388882977849524</v>
       </c>
       <c r="U9">
-        <v>0.02769629380810481</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.03598906959358029</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1804,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.1108973202206065</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02748905234372134</v>
+        <v>0.1063783903862447</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.03581374019504973</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1857,10 +1884,13 @@
       <c r="AT9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:46">
+      <c r="AU9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1869,41 +1899,41 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2141935275774444</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.005594611526498946</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.05206081835560783</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.01888090948356216</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.04796816885072888</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.01216863009046992</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.06492875174883225</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.1529509227111424</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>0.1659453933118164</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
@@ -1911,20 +1941,20 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0.02743123042599444</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.01803654327120235</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0.07639391368613166</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
@@ -1941,17 +1971,17 @@
         <v>0</v>
       </c>
       <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>0.00261722708989637</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.08865241606158564</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>0.05217693580908632</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
@@ -1997,10 +2027,13 @@
       <c r="AT10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AU10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2009,62 +2042,62 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.247603565710457</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.05005167483161876</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0.0676547535356018</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.008619225105692392</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.03020838660416424</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.2145661698107828</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0.1392210580128063</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0.002757158275783084</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0.04539786254512167</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>0.05496821303232331</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
         <v>0</v>
       </c>
@@ -2084,14 +2117,14 @@
         <v>0</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0.08224182297030114</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>0.05671010956534735</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -2135,6 +2168,9 @@
         <v>0</v>
       </c>
       <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
         <v>0</v>
       </c>
     </row>
@@ -2145,15 +2181,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:47">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2290,10 +2326,13 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:46">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2335,105 +2374,108 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1538447330349463</v>
+        <v>0.005074772313286994</v>
       </c>
       <c r="P2">
-        <v>0.3963304925438732</v>
+        <v>0.1583148252486313</v>
       </c>
       <c r="Q2">
-        <v>0.4134905672935027</v>
+        <v>0.3998475049197285</v>
       </c>
       <c r="R2">
-        <v>0.4212260233196787</v>
+        <v>0.41694013273436</v>
       </c>
       <c r="S2">
-        <v>0.4565385241027724</v>
+        <v>0.4246451848836655</v>
       </c>
       <c r="T2">
-        <v>0.4746241188168892</v>
+        <v>0.4598188914027667</v>
       </c>
       <c r="U2">
-        <v>0.4964484290152527</v>
+        <v>0.4778334014655122</v>
       </c>
       <c r="V2">
-        <v>0.4998494262685731</v>
+        <v>0.4995719321522593</v>
       </c>
       <c r="W2">
-        <v>0.5657020896262417</v>
+        <v>0.5029595619323013</v>
       </c>
       <c r="X2">
-        <v>0.6207265015746202</v>
+        <v>0.5685533942318464</v>
       </c>
       <c r="Y2">
-        <v>0.6287994522467553</v>
+        <v>0.6233615350980687</v>
       </c>
       <c r="Z2">
-        <v>0.6297430641807015</v>
+        <v>0.6314027553851578</v>
       </c>
       <c r="AA2">
-        <v>0.6403599134303297</v>
+        <v>0.6323426584930236</v>
       </c>
       <c r="AB2">
-        <v>0.6403616508107549</v>
+        <v>0.6429177786737713</v>
       </c>
       <c r="AC2">
-        <v>0.6760916007387037</v>
+        <v>0.6429195092254975</v>
       </c>
       <c r="AD2">
-        <v>0.7404743158805497</v>
+        <v>0.6785090241235626</v>
       </c>
       <c r="AE2">
-        <v>0.7407265652982229</v>
+        <v>0.7426386857754607</v>
       </c>
       <c r="AF2">
-        <v>0.7759684223809565</v>
+        <v>0.7428899437376579</v>
       </c>
       <c r="AG2">
-        <v>0.7759843376641283</v>
+        <v>0.7779932842184218</v>
       </c>
       <c r="AH2">
-        <v>0.7939464991806683</v>
+        <v>0.7780091369472583</v>
       </c>
       <c r="AI2">
-        <v>0.795264000761413</v>
+        <v>0.7959006989612958</v>
       </c>
       <c r="AJ2">
-        <v>0.7964270400971787</v>
+        <v>0.7972130221588009</v>
       </c>
       <c r="AK2">
-        <v>0.8000563573440368</v>
+        <v>0.7983714902185305</v>
       </c>
       <c r="AL2">
-        <v>0.8005186051108474</v>
+        <v>0.8019865425902055</v>
       </c>
       <c r="AM2">
-        <v>0.8250980553625404</v>
+        <v>0.8024469735120702</v>
       </c>
       <c r="AN2">
-        <v>0.9136603038748884</v>
+        <v>0.8269298152927863</v>
       </c>
       <c r="AO2">
-        <v>0.9415271393378511</v>
+        <v>0.9151439737002929</v>
       </c>
       <c r="AP2">
-        <v>0.9416001503341139</v>
+        <v>0.9429012797662401</v>
       </c>
       <c r="AQ2">
-        <v>0.9448732032343441</v>
+        <v>0.9429740037959253</v>
       </c>
       <c r="AR2">
-        <v>0.9471173189735266</v>
+        <v>0.9462341921026484</v>
       </c>
       <c r="AS2">
-        <v>0.9988511692029819</v>
+        <v>0.9484694874415356</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2475,105 +2517,108 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0.100367855175139</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.1017365678443696</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.3435206255805535</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.3539595904609887</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.3801809123817319</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.3874103679453557</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.3929222802986103</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.423285283591776</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.4477379708069011</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.4664951954299733</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.6089200557682017</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.6090620570598849</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.6137356197187136</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.6145703970428429</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.6198721419154873</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.6774425764300004</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.7202923447563306</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.7234469528552118</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.7395409163939426</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.7408291153538799</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.7578229449956566</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.7594845966770999</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.766986431144836</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.7673032560182612</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.7718288074649891</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.8145682441154146</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>0.9244164090427343</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0.93422570655272</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>0.9342386150241525</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>0.9369194032187477</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>0.9514318456750297</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:47">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2612,108 +2657,111 @@
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.03385640031365729</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.0933538055915584</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.3141753237092697</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.3172447108577069</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>0.3398157889954678</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.3880898818170667</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.3880904353709998</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.4006122571722182</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.5043876483405983</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.5183493995951652</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.5765295569651395</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>0.5876089150245387</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>0.601953912001805</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.6073567187091512</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.6083298351676558</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.6806839474910107</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.7103171302329606</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>0.7205385968121304</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>0.739374342122449</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>0.7448200821844581</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>0.7487058511186193</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.7541992410675175</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.7681247626790498</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.7784332660440425</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.7826849060402399</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>0.813469872577874</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>0.9193112274733002</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>0.9396714471530758</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0.9408223809326161</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>0.9638427860940253</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>0.9651198183581778</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
       </c>
       <c r="AT4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AU4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2755,105 +2803,108 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0.2206232623470129</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.3520127264924061</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.397313410801327</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.4021799679099394</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.4406489407217389</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.4489012543996041</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.4663819099037241</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.5321708613249295</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.5472507518096836</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>0.5871164032569431</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>0.6261837878894665</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>0.6380233211837008</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.6381508620872816</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>0.6382031651388234</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>0.6681922539569878</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>0.7280416022322549</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>0.7364326827905248</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>0.760303862412109</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.7603249443906959</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>0.7777259992936523</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.7780421286049353</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>0.7831171035372329</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.7975972360371623</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.7976990022073964</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>0.8090774369711305</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>0.8906514400543745</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>0.9452691321559483</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0.9457306328666294</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>0.9557069976623037</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>0.9575952354326043</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.9910856891866343</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:47">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2895,105 +2946,108 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.1856967040435006</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.2219820285229774</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.3431369389666549</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.3497832557019618</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.3702373704291218</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.3761027916335389</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.3786703355390892</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.4587326324108561</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.4814812645816261</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>0.5097875944139674</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.5977844581377443</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>0.6021494708469131</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.6041226519560167</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>0.6045455483576243</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>0.6211491654519216</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.6911542094460312</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.7194265201378141</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.7349997126830253</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.7415623631248167</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>0.7517337028728212</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.7570080562274466</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.7606552462826466</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.7792248540597129</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.7792938078327271</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>0.7841736925937196</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>0.8454456781301374</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>0.9422793705894934</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0.9448908078602429</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>0.9485924254089723</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>0.9527383155856376</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>0.9740813400594611</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:47">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3002,37 +3056,37 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.11707508536556</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1185491733930761</v>
-      </c>
-      <c r="F7">
-        <v>0.1639836357632277</v>
       </c>
       <c r="G7">
         <v>0.1639836357632277</v>
       </c>
       <c r="H7">
+        <v>0.1639836357632277</v>
+      </c>
+      <c r="I7">
         <v>0.2482715758627644</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.2788631984233998</v>
-      </c>
-      <c r="J7">
-        <v>0.3027569427925474</v>
       </c>
       <c r="K7">
         <v>0.3027569427925474</v>
       </c>
       <c r="L7">
+        <v>0.3027569427925474</v>
+      </c>
+      <c r="M7">
         <v>0.4774387560762049</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.5532257730849289</v>
-      </c>
-      <c r="N7">
-        <v>0.6161807472377828</v>
       </c>
       <c r="O7">
         <v>0.6161807472377828</v>
@@ -3041,25 +3095,25 @@
         <v>0.6161807472377828</v>
       </c>
       <c r="Q7">
-        <v>0.62131397385424</v>
+        <v>0.6161807472377828</v>
       </c>
       <c r="R7">
         <v>0.62131397385424</v>
       </c>
       <c r="S7">
+        <v>0.62131397385424</v>
+      </c>
+      <c r="T7">
         <v>0.6889181343648613</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.7435704844514363</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.7978931958509112</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.8032273640674695</v>
-      </c>
-      <c r="W7">
-        <v>0.8050049859655806</v>
       </c>
       <c r="X7">
         <v>0.8050049859655806</v>
@@ -3074,19 +3128,19 @@
         <v>0.8050049859655806</v>
       </c>
       <c r="AB7">
+        <v>0.8050049859655806</v>
+      </c>
+      <c r="AC7">
         <v>0.8152676692459152</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.9091483126280723</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.9908283934436146</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.999389022286294</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -3130,10 +3184,13 @@
       <c r="AT7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:46">
+      <c r="AU7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3142,37 +3199,37 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1096785932663625</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1382086910495114</v>
-      </c>
-      <c r="F8">
-        <v>0.1468893905790074</v>
       </c>
       <c r="G8">
         <v>0.1468893905790074</v>
       </c>
       <c r="H8">
+        <v>0.1468893905790074</v>
+      </c>
+      <c r="I8">
         <v>0.2447522632459072</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.263922258929511</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.3006486316134859</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.3183026872158111</v>
       </c>
-      <c r="L8">
-        <v>0.4836400038738061</v>
-      </c>
       <c r="M8">
+        <v>0.483640003873806</v>
+      </c>
+      <c r="N8">
         <v>0.5520711838470617</v>
-      </c>
-      <c r="N8">
-        <v>0.6108275755746592</v>
       </c>
       <c r="O8">
         <v>0.6108275755746592</v>
@@ -3181,19 +3238,19 @@
         <v>0.6108275755746592</v>
       </c>
       <c r="Q8">
-        <v>0.6229468542026017</v>
+        <v>0.6108275755746592</v>
       </c>
       <c r="R8">
-        <v>0.6229468542026017</v>
+        <v>0.6229468542026015</v>
       </c>
       <c r="S8">
+        <v>0.6229468542026015</v>
+      </c>
+      <c r="T8">
         <v>0.7157143856625163</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.7757291982138704</v>
-      </c>
-      <c r="U8">
-        <v>0.8193713306199956</v>
       </c>
       <c r="V8">
         <v>0.8193713306199956</v>
@@ -3205,7 +3262,7 @@
         <v>0.8193713306199956</v>
       </c>
       <c r="Y8">
-        <v>0.8202156453256562</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="Z8">
         <v>0.8202156453256562</v>
@@ -3214,13 +3271,13 @@
         <v>0.8202156453256562</v>
       </c>
       <c r="AB8">
+        <v>0.8202156453256562</v>
+      </c>
+      <c r="AC8">
         <v>0.8337594095010442</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.9430462985768908</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -3270,10 +3327,13 @@
       <c r="AT8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:46">
+      <c r="AU8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3282,138 +3342,141 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2731211476401345</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2800987579550875</v>
+        <v>0.2436221903825776</v>
       </c>
       <c r="F9">
-        <v>0.2932291631914833</v>
+        <v>0.2620829418569717</v>
       </c>
       <c r="G9">
-        <v>0.2932291631914833</v>
+        <v>0.2857490504546025</v>
       </c>
       <c r="H9">
-        <v>0.378701228689214</v>
+        <v>0.2857490504546025</v>
       </c>
       <c r="I9">
-        <v>0.378701228689214</v>
+        <v>0.3706172926120171</v>
       </c>
       <c r="J9">
-        <v>0.378701228689214</v>
+        <v>0.3706172926120171</v>
       </c>
       <c r="K9">
-        <v>0.4244570023162269</v>
+        <v>0.3739111819950084</v>
       </c>
       <c r="L9">
-        <v>0.650564675784132</v>
+        <v>0.4251788433696484</v>
       </c>
       <c r="M9">
-        <v>0.650564675784132</v>
+        <v>0.6290269268959018</v>
       </c>
       <c r="N9">
-        <v>0.7850633073232318</v>
+        <v>0.6290269268959018</v>
       </c>
       <c r="O9">
-        <v>0.7850633073232318</v>
+        <v>0.7553723819345527</v>
       </c>
       <c r="P9">
-        <v>0.7850633073232318</v>
+        <v>0.7553723819345527</v>
       </c>
       <c r="Q9">
-        <v>0.7850633073232318</v>
+        <v>0.7553723819345527</v>
       </c>
       <c r="R9">
-        <v>0.7850633073232318</v>
+        <v>0.7553723819345527</v>
       </c>
       <c r="S9">
-        <v>0.8339173336275671</v>
+        <v>0.76792997004663</v>
       </c>
       <c r="T9">
-        <v>0.8339173336275671</v>
+        <v>0.8218187998251252</v>
       </c>
       <c r="U9">
-        <v>0.8616136274356719</v>
+        <v>0.8218187998251252</v>
       </c>
       <c r="V9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="W9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="X9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="Y9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="Z9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="AA9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="AB9">
-        <v>0.8616136274356719</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="AC9">
-        <v>0.9725109476562784</v>
+        <v>0.8578078694187055</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>0.9641862598049502</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU9">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3422,37 +3485,37 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2141935275774444</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2197881391039433</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.2718489574595512</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.2907298669431133</v>
-      </c>
-      <c r="H10">
-        <v>0.3386980357938422</v>
       </c>
       <c r="I10">
         <v>0.3386980357938422</v>
       </c>
       <c r="J10">
+        <v>0.3386980357938422</v>
+      </c>
+      <c r="K10">
         <v>0.3508666658843121</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.4157954176331443</v>
-      </c>
-      <c r="L10">
-        <v>0.5687463403442867</v>
       </c>
       <c r="M10">
         <v>0.5687463403442867</v>
       </c>
       <c r="N10">
-        <v>0.7346917336561032</v>
+        <v>0.5687463403442867</v>
       </c>
       <c r="O10">
         <v>0.7346917336561032</v>
@@ -3464,16 +3527,16 @@
         <v>0.7346917336561032</v>
       </c>
       <c r="R10">
+        <v>0.7346917336561032</v>
+      </c>
+      <c r="S10">
         <v>0.7621229640820977</v>
-      </c>
-      <c r="S10">
-        <v>0.7801595073533</v>
       </c>
       <c r="T10">
         <v>0.7801595073533</v>
       </c>
       <c r="U10">
-        <v>0.8565534210394317</v>
+        <v>0.7801595073533</v>
       </c>
       <c r="V10">
         <v>0.8565534210394317</v>
@@ -3494,13 +3557,13 @@
         <v>0.8565534210394317</v>
       </c>
       <c r="AB10">
+        <v>0.8565534210394317</v>
+      </c>
+      <c r="AC10">
         <v>0.8591706481293281</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>0.9478230641909138</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -3550,10 +3613,13 @@
       <c r="AT10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:46">
+      <c r="AU10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3562,37 +3628,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.247603565710457</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.247603565710457</v>
       </c>
       <c r="F11">
-        <v>0.2976552405420757</v>
+        <v>0.247603565710457</v>
       </c>
       <c r="G11">
         <v>0.2976552405420757</v>
       </c>
       <c r="H11">
-        <v>0.3653099940776775</v>
+        <v>0.2976552405420757</v>
       </c>
       <c r="I11">
         <v>0.3653099940776775</v>
       </c>
       <c r="J11">
+        <v>0.3653099940776775</v>
+      </c>
+      <c r="K11">
         <v>0.3739292191833699</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.4041376057875342</v>
-      </c>
-      <c r="L11">
-        <v>0.618703775598317</v>
       </c>
       <c r="M11">
         <v>0.618703775598317</v>
       </c>
       <c r="N11">
-        <v>0.7579248336111233</v>
+        <v>0.618703775598317</v>
       </c>
       <c r="O11">
         <v>0.7579248336111233</v>
@@ -3601,19 +3667,19 @@
         <v>0.7579248336111233</v>
       </c>
       <c r="Q11">
-        <v>0.7606819918869063</v>
+        <v>0.7579248336111233</v>
       </c>
       <c r="R11">
         <v>0.7606819918869063</v>
       </c>
       <c r="S11">
-        <v>0.806079854432028</v>
+        <v>0.7606819918869063</v>
       </c>
       <c r="T11">
         <v>0.806079854432028</v>
       </c>
       <c r="U11">
-        <v>0.8610480674643514</v>
+        <v>0.806079854432028</v>
       </c>
       <c r="V11">
         <v>0.8610480674643514</v>
@@ -3637,10 +3703,10 @@
         <v>0.8610480674643514</v>
       </c>
       <c r="AC11">
+        <v>0.8610480674643514</v>
+      </c>
+      <c r="AD11">
         <v>0.9432898904346525</v>
-      </c>
-      <c r="AD11">
-        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
         <v>0.9999999999999999</v>
@@ -3688,6 +3754,9 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AU11">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -3706,54 +3775,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -3762,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5657020896262417</v>
+        <v>0.5029595619323013</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -3774,30 +3843,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3815,30 +3884,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3856,30 +3925,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3897,30 +3966,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3938,30 +4007,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3979,30 +4048,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4020,36 +4089,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.650564675784132</v>
+        <v>0.6290269268959018</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -4061,30 +4130,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4102,30 +4171,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4143,16 +4212,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4170,63 +4239,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7404743158805497</v>
+        <v>0.7426386857754607</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4238,30 +4307,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4279,30 +4348,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4320,30 +4389,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4361,30 +4430,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4402,30 +4471,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4443,30 +4512,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4484,36 +4553,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7850633073232318</v>
+        <v>0.7553723819345527</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -4525,30 +4594,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4566,30 +4635,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4607,16 +4676,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4634,63 +4703,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8000563573440368</v>
+        <v>0.8019865425902055</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -4702,30 +4771,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4743,30 +4812,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4784,30 +4853,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4825,30 +4894,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4866,30 +4935,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4907,30 +4976,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4948,36 +5017,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8339173336275671</v>
+        <v>0.8218187998251252</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -4989,30 +5058,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5030,30 +5099,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5071,16 +5140,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5098,63 +5167,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9136603038748884</v>
+        <v>0.9151439737002929</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -5166,30 +5235,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5207,30 +5276,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5248,30 +5317,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5289,30 +5358,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5330,30 +5399,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5371,30 +5440,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5412,36 +5481,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9725109476562784</v>
+        <v>0.9641862598049502</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -5453,30 +5522,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5494,30 +5563,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5535,16 +5604,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="73">
-  <si>
-    <t>Signal_Value_47</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="72">
   <si>
     <t>Signal_Value_48</t>
   </si>
@@ -595,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -740,1301 +737,1271 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47">
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.1538447330349463</v>
+      </c>
+      <c r="P2">
+        <v>0.242485759508927</v>
+      </c>
+      <c r="Q2">
+        <v>0.01716007474962951</v>
+      </c>
+      <c r="R2">
+        <v>0.007735456026175984</v>
+      </c>
+      <c r="S2">
+        <v>0.03531250078309375</v>
+      </c>
+      <c r="T2">
+        <v>0.01808559471411676</v>
+      </c>
+      <c r="U2">
+        <v>0.02182431019836351</v>
+      </c>
+      <c r="V2">
+        <v>0.00340099725332048</v>
+      </c>
+      <c r="W2">
+        <v>0.06585266335766857</v>
+      </c>
+      <c r="X2">
+        <v>0.05502441194837847</v>
+      </c>
+      <c r="Y2">
+        <v>0.008072950672135112</v>
+      </c>
+      <c r="Z2">
+        <v>0.0009436119339461638</v>
+      </c>
+      <c r="AA2">
+        <v>0.0106168492496282</v>
+      </c>
+      <c r="AB2">
+        <v>1.737380425153252E-06</v>
+      </c>
+      <c r="AC2">
+        <v>0.03572994992794879</v>
+      </c>
+      <c r="AD2">
+        <v>0.06438271514184604</v>
+      </c>
+      <c r="AE2">
+        <v>0.0002522494176731957</v>
+      </c>
+      <c r="AF2">
+        <v>0.03524185708273363</v>
+      </c>
+      <c r="AG2">
+        <v>1.591528317174809E-05</v>
+      </c>
+      <c r="AH2">
+        <v>0.01796216151654</v>
+      </c>
+      <c r="AI2">
+        <v>0.001317501580744778</v>
+      </c>
+      <c r="AJ2">
+        <v>0.001163039335765668</v>
+      </c>
+      <c r="AK2">
+        <v>0.003629317246858094</v>
+      </c>
+      <c r="AL2">
+        <v>0.000462247766810589</v>
+      </c>
+      <c r="AM2">
+        <v>0.02457945025169302</v>
+      </c>
+      <c r="AN2">
+        <v>0.08856224851234794</v>
+      </c>
+      <c r="AO2">
+        <v>0.02786683546296276</v>
+      </c>
+      <c r="AP2">
+        <v>7.301099626273601E-05</v>
+      </c>
+      <c r="AQ2">
+        <v>0.003273052900230191</v>
+      </c>
+      <c r="AR2">
+        <v>0.002244115739182487</v>
+      </c>
+      <c r="AS2">
+        <v>0.05173385022945532</v>
+      </c>
+      <c r="AT2">
+        <v>0.001148830797018032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.005074772313286994</v>
-      </c>
-      <c r="P2">
-        <v>0.1532400529353443</v>
-      </c>
-      <c r="Q2">
-        <v>0.2415326796710972</v>
-      </c>
-      <c r="R2">
-        <v>0.01709262781463157</v>
-      </c>
-      <c r="S2">
-        <v>0.00770505214930545</v>
-      </c>
-      <c r="T2">
-        <v>0.0351737065191012</v>
-      </c>
-      <c r="U2">
-        <v>0.01801451006274551</v>
-      </c>
-      <c r="V2">
-        <v>0.02173853068674713</v>
-      </c>
-      <c r="W2">
-        <v>0.003387629780041972</v>
-      </c>
-      <c r="X2">
-        <v>0.06559383229954503</v>
-      </c>
-      <c r="Y2">
-        <v>0.05480814086622236</v>
-      </c>
-      <c r="Z2">
-        <v>0.008041220287089043</v>
-      </c>
-      <c r="AA2">
-        <v>0.0009399031078658159</v>
-      </c>
-      <c r="AB2">
-        <v>0.01057512018074765</v>
-      </c>
-      <c r="AC2">
-        <v>1.730551726192921E-06</v>
-      </c>
-      <c r="AD2">
-        <v>0.03558951489806515</v>
-      </c>
-      <c r="AE2">
-        <v>0.06412966165189803</v>
-      </c>
-      <c r="AF2">
-        <v>0.0002512579621973133</v>
-      </c>
-      <c r="AG2">
-        <v>0.03510334048076388</v>
-      </c>
-      <c r="AH2">
-        <v>1.585272883645408E-05</v>
-      </c>
-      <c r="AI2">
-        <v>0.01789156201403756</v>
-      </c>
-      <c r="AJ2">
-        <v>0.001312323197505037</v>
-      </c>
-      <c r="AK2">
-        <v>0.00115846805972964</v>
-      </c>
-      <c r="AL2">
-        <v>0.003615052371675017</v>
-      </c>
-      <c r="AM2">
-        <v>0.0004604309218646374</v>
-      </c>
-      <c r="AN2">
-        <v>0.02448284178071611</v>
-      </c>
-      <c r="AO2">
-        <v>0.0882141584075066</v>
-      </c>
-      <c r="AP2">
-        <v>0.0277573060659472</v>
-      </c>
-      <c r="AQ2">
-        <v>7.272402968532214E-05</v>
-      </c>
-      <c r="AR2">
-        <v>0.003260188306723021</v>
-      </c>
-      <c r="AS2">
-        <v>0.002235295338887216</v>
-      </c>
-      <c r="AT2">
-        <v>0.05153051255846443</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.100367855175139</v>
+      </c>
+      <c r="P3">
+        <v>0.001368712669230591</v>
+      </c>
+      <c r="Q3">
+        <v>0.2417840577361839</v>
+      </c>
+      <c r="R3">
+        <v>0.01043896488043529</v>
+      </c>
+      <c r="S3">
+        <v>0.02622132192074314</v>
+      </c>
+      <c r="T3">
+        <v>0.007229455563623794</v>
+      </c>
+      <c r="U3">
+        <v>0.005511912353254572</v>
+      </c>
+      <c r="V3">
+        <v>0.03036300329316566</v>
+      </c>
+      <c r="W3">
+        <v>0.02445268721512518</v>
+      </c>
+      <c r="X3">
+        <v>0.01875722462307216</v>
+      </c>
+      <c r="Y3">
+        <v>0.1424248603382285</v>
+      </c>
+      <c r="Z3">
+        <v>0.0001420012916831566</v>
+      </c>
+      <c r="AA3">
+        <v>0.004673562658828664</v>
+      </c>
+      <c r="AB3">
+        <v>0.0008347773241293233</v>
+      </c>
+      <c r="AC3">
+        <v>0.005301744872644434</v>
+      </c>
+      <c r="AD3">
+        <v>0.05757043451451305</v>
+      </c>
+      <c r="AE3">
+        <v>0.04284976832633026</v>
+      </c>
+      <c r="AF3">
+        <v>0.003154608098881115</v>
+      </c>
+      <c r="AG3">
+        <v>0.01609396353873078</v>
+      </c>
+      <c r="AH3">
+        <v>0.001288198959937275</v>
+      </c>
+      <c r="AI3">
+        <v>0.01699382964177679</v>
+      </c>
+      <c r="AJ3">
+        <v>0.001661651681443275</v>
+      </c>
+      <c r="AK3">
+        <v>0.007501834467736092</v>
+      </c>
+      <c r="AL3">
+        <v>0.0003168248734252465</v>
+      </c>
+      <c r="AM3">
+        <v>0.004525551446727815</v>
+      </c>
+      <c r="AN3">
+        <v>0.04273943665042556</v>
+      </c>
+      <c r="AO3">
+        <v>0.1098481649273196</v>
+      </c>
+      <c r="AP3">
+        <v>0.009809297509985678</v>
+      </c>
+      <c r="AQ3">
+        <v>1.290847143257835E-05</v>
+      </c>
+      <c r="AR3">
+        <v>0.002680788194595113</v>
+      </c>
+      <c r="AS3">
+        <v>0.01451244245628204</v>
+      </c>
+      <c r="AT3">
+        <v>0.04856815432497026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.100367855175139</v>
-      </c>
-      <c r="Q3">
-        <v>0.001368712669230591</v>
-      </c>
-      <c r="R3">
-        <v>0.2417840577361839</v>
-      </c>
-      <c r="S3">
-        <v>0.01043896488043529</v>
-      </c>
-      <c r="T3">
-        <v>0.02622132192074314</v>
-      </c>
-      <c r="U3">
-        <v>0.007229455563623794</v>
-      </c>
-      <c r="V3">
-        <v>0.005511912353254572</v>
-      </c>
-      <c r="W3">
-        <v>0.03036300329316566</v>
-      </c>
-      <c r="X3">
-        <v>0.02445268721512518</v>
-      </c>
-      <c r="Y3">
-        <v>0.01875722462307216</v>
-      </c>
-      <c r="Z3">
-        <v>0.1424248603382285</v>
-      </c>
-      <c r="AA3">
-        <v>0.0001420012916831566</v>
-      </c>
-      <c r="AB3">
-        <v>0.004673562658828664</v>
-      </c>
-      <c r="AC3">
-        <v>0.0008347773241293233</v>
-      </c>
-      <c r="AD3">
-        <v>0.005301744872644434</v>
-      </c>
-      <c r="AE3">
-        <v>0.05757043451451305</v>
-      </c>
-      <c r="AF3">
-        <v>0.04284976832633026</v>
-      </c>
-      <c r="AG3">
-        <v>0.003154608098881115</v>
-      </c>
-      <c r="AH3">
-        <v>0.01609396353873078</v>
-      </c>
-      <c r="AI3">
-        <v>0.001288198959937275</v>
-      </c>
-      <c r="AJ3">
-        <v>0.01699382964177679</v>
-      </c>
-      <c r="AK3">
-        <v>0.001661651681443275</v>
-      </c>
-      <c r="AL3">
-        <v>0.007501834467736092</v>
-      </c>
-      <c r="AM3">
-        <v>0.0003168248734252465</v>
-      </c>
-      <c r="AN3">
-        <v>0.004525551446727815</v>
-      </c>
-      <c r="AO3">
-        <v>0.04273943665042556</v>
-      </c>
-      <c r="AP3">
-        <v>0.1098481649273196</v>
-      </c>
-      <c r="AQ3">
-        <v>0.009809297509985678</v>
-      </c>
-      <c r="AR3">
-        <v>1.290847143257835E-05</v>
-      </c>
-      <c r="AS3">
-        <v>0.002680788194595113</v>
-      </c>
-      <c r="AT3">
-        <v>0.01451244245628204</v>
-      </c>
-      <c r="AU3">
-        <v>0.04856815432497026</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.03385640031365729</v>
+      </c>
+      <c r="O4">
+        <v>0.05949740527790112</v>
+      </c>
+      <c r="P4">
+        <v>0.2208215181177113</v>
+      </c>
+      <c r="Q4">
+        <v>0.003069387148437267</v>
+      </c>
+      <c r="R4">
+        <v>0.02257107813776083</v>
+      </c>
+      <c r="S4">
+        <v>0.04827409282159892</v>
+      </c>
+      <c r="T4">
+        <v>5.535539330633943E-07</v>
+      </c>
+      <c r="U4">
+        <v>0.01252182180121835</v>
+      </c>
+      <c r="V4">
+        <v>0.1037753911683802</v>
+      </c>
+      <c r="W4">
+        <v>0.01396175125456688</v>
+      </c>
+      <c r="X4">
+        <v>0.05818015736997426</v>
+      </c>
+      <c r="Y4">
+        <v>0.01107935805939919</v>
+      </c>
+      <c r="Z4">
+        <v>0.01434499697726631</v>
+      </c>
+      <c r="AA4">
+        <v>0.005402806707346216</v>
+      </c>
+      <c r="AB4">
+        <v>0.000973116458504626</v>
+      </c>
+      <c r="AC4">
+        <v>0.07235411232335487</v>
+      </c>
+      <c r="AD4">
+        <v>0.02963318274194987</v>
+      </c>
+      <c r="AE4">
+        <v>0.01022146657916974</v>
+      </c>
+      <c r="AF4">
+        <v>0.01883574531031859</v>
+      </c>
+      <c r="AG4">
+        <v>0.005445740062008994</v>
+      </c>
+      <c r="AH4">
+        <v>0.003885768934161289</v>
+      </c>
+      <c r="AI4">
+        <v>0.005493389948898181</v>
+      </c>
+      <c r="AJ4">
+        <v>0.01392552161153241</v>
+      </c>
+      <c r="AK4">
+        <v>0.01030850336499262</v>
+      </c>
+      <c r="AL4">
+        <v>0.004251639996197363</v>
+      </c>
+      <c r="AM4">
+        <v>0.03078496653763409</v>
+      </c>
+      <c r="AN4">
+        <v>0.1058413548954262</v>
+      </c>
+      <c r="AO4">
+        <v>0.02036021967977568</v>
+      </c>
+      <c r="AP4">
+        <v>0.001150933779540245</v>
+      </c>
+      <c r="AQ4">
+        <v>0.02302040516140929</v>
+      </c>
+      <c r="AR4">
+        <v>0.001277032264152551</v>
+      </c>
+      <c r="AS4">
+        <v>0.03488018164182237</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.03385640031365729</v>
-      </c>
-      <c r="P4">
-        <v>0.05949740527790112</v>
-      </c>
-      <c r="Q4">
-        <v>0.2208215181177113</v>
-      </c>
-      <c r="R4">
-        <v>0.003069387148437267</v>
-      </c>
-      <c r="S4">
-        <v>0.02257107813776083</v>
-      </c>
-      <c r="T4">
-        <v>0.04827409282159892</v>
-      </c>
-      <c r="U4">
-        <v>5.535539330633943E-07</v>
-      </c>
-      <c r="V4">
-        <v>0.01252182180121835</v>
-      </c>
-      <c r="W4">
-        <v>0.1037753911683802</v>
-      </c>
-      <c r="X4">
-        <v>0.01396175125456688</v>
-      </c>
-      <c r="Y4">
-        <v>0.05818015736997426</v>
-      </c>
-      <c r="Z4">
-        <v>0.01107935805939919</v>
-      </c>
-      <c r="AA4">
-        <v>0.01434499697726631</v>
-      </c>
-      <c r="AB4">
-        <v>0.005402806707346216</v>
-      </c>
-      <c r="AC4">
-        <v>0.000973116458504626</v>
-      </c>
-      <c r="AD4">
-        <v>0.07235411232335487</v>
-      </c>
-      <c r="AE4">
-        <v>0.02963318274194987</v>
-      </c>
-      <c r="AF4">
-        <v>0.01022146657916974</v>
-      </c>
-      <c r="AG4">
-        <v>0.01883574531031859</v>
-      </c>
-      <c r="AH4">
-        <v>0.005445740062008994</v>
-      </c>
-      <c r="AI4">
-        <v>0.003885768934161289</v>
-      </c>
-      <c r="AJ4">
-        <v>0.005493389948898181</v>
-      </c>
-      <c r="AK4">
-        <v>0.01392552161153241</v>
-      </c>
-      <c r="AL4">
-        <v>0.01030850336499262</v>
-      </c>
-      <c r="AM4">
-        <v>0.004251639996197363</v>
-      </c>
-      <c r="AN4">
-        <v>0.03078496653763409</v>
-      </c>
-      <c r="AO4">
-        <v>0.1058413548954262</v>
-      </c>
-      <c r="AP4">
-        <v>0.02036021967977568</v>
-      </c>
-      <c r="AQ4">
-        <v>0.001150933779540245</v>
-      </c>
-      <c r="AR4">
-        <v>0.02302040516140929</v>
-      </c>
-      <c r="AS4">
-        <v>0.001277032264152551</v>
-      </c>
-      <c r="AT4">
-        <v>0.03488018164182237</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.2206232623470129</v>
+      </c>
+      <c r="P5">
+        <v>0.1313894641453933</v>
+      </c>
+      <c r="Q5">
+        <v>0.04530068430892092</v>
+      </c>
+      <c r="R5">
+        <v>0.00486655710861239</v>
+      </c>
+      <c r="S5">
+        <v>0.03846897281179943</v>
+      </c>
+      <c r="T5">
+        <v>0.008252313677865237</v>
+      </c>
+      <c r="U5">
+        <v>0.01748065550412001</v>
+      </c>
+      <c r="V5">
+        <v>0.0657889514212054</v>
+      </c>
+      <c r="W5">
+        <v>0.01507989048475408</v>
+      </c>
+      <c r="X5">
+        <v>0.03986565144725946</v>
+      </c>
+      <c r="Y5">
+        <v>0.03906738463252336</v>
+      </c>
+      <c r="Z5">
+        <v>0.01183953329423432</v>
+      </c>
+      <c r="AA5">
+        <v>0.0001275409035807517</v>
+      </c>
+      <c r="AB5">
+        <v>5.230305154176576E-05</v>
+      </c>
+      <c r="AC5">
+        <v>0.0299890888181644</v>
+      </c>
+      <c r="AD5">
+        <v>0.05984934827526715</v>
+      </c>
+      <c r="AE5">
+        <v>0.008391080558269901</v>
+      </c>
+      <c r="AF5">
+        <v>0.02387117962158427</v>
+      </c>
+      <c r="AG5">
+        <v>2.108197858680558E-05</v>
+      </c>
+      <c r="AH5">
+        <v>0.01740105490295637</v>
+      </c>
+      <c r="AI5">
+        <v>0.0003161293112829979</v>
+      </c>
+      <c r="AJ5">
+        <v>0.005074974932297558</v>
+      </c>
+      <c r="AK5">
+        <v>0.01448013249992945</v>
+      </c>
+      <c r="AL5">
+        <v>0.0001017661702341229</v>
+      </c>
+      <c r="AM5">
+        <v>0.01137843476373418</v>
+      </c>
+      <c r="AN5">
+        <v>0.08157400308324396</v>
+      </c>
+      <c r="AO5">
+        <v>0.05461769210157383</v>
+      </c>
+      <c r="AP5">
+        <v>0.0004615007106810769</v>
+      </c>
+      <c r="AQ5">
+        <v>0.009976364795674278</v>
+      </c>
+      <c r="AR5">
+        <v>0.001888237770300511</v>
+      </c>
+      <c r="AS5">
+        <v>0.03349045375403006</v>
+      </c>
+      <c r="AT5">
+        <v>0.008914310813365441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.2206232623470129</v>
-      </c>
-      <c r="Q5">
-        <v>0.1313894641453933</v>
-      </c>
-      <c r="R5">
-        <v>0.04530068430892092</v>
-      </c>
-      <c r="S5">
-        <v>0.00486655710861239</v>
-      </c>
-      <c r="T5">
-        <v>0.03846897281179943</v>
-      </c>
-      <c r="U5">
-        <v>0.008252313677865237</v>
-      </c>
-      <c r="V5">
-        <v>0.01748065550412001</v>
-      </c>
-      <c r="W5">
-        <v>0.0657889514212054</v>
-      </c>
-      <c r="X5">
-        <v>0.01507989048475408</v>
-      </c>
-      <c r="Y5">
-        <v>0.03986565144725946</v>
-      </c>
-      <c r="Z5">
-        <v>0.03906738463252336</v>
-      </c>
-      <c r="AA5">
-        <v>0.01183953329423432</v>
-      </c>
-      <c r="AB5">
-        <v>0.0001275409035807517</v>
-      </c>
-      <c r="AC5">
-        <v>5.230305154176576E-05</v>
-      </c>
-      <c r="AD5">
-        <v>0.0299890888181644</v>
-      </c>
-      <c r="AE5">
-        <v>0.05984934827526715</v>
-      </c>
-      <c r="AF5">
-        <v>0.008391080558269901</v>
-      </c>
-      <c r="AG5">
-        <v>0.02387117962158427</v>
-      </c>
-      <c r="AH5">
-        <v>2.108197858680558E-05</v>
-      </c>
-      <c r="AI5">
-        <v>0.01740105490295637</v>
-      </c>
-      <c r="AJ5">
-        <v>0.0003161293112829979</v>
-      </c>
-      <c r="AK5">
-        <v>0.005074974932297558</v>
-      </c>
-      <c r="AL5">
-        <v>0.01448013249992945</v>
-      </c>
-      <c r="AM5">
-        <v>0.0001017661702341229</v>
-      </c>
-      <c r="AN5">
-        <v>0.01137843476373418</v>
-      </c>
-      <c r="AO5">
-        <v>0.08157400308324396</v>
-      </c>
-      <c r="AP5">
-        <v>0.05461769210157383</v>
-      </c>
-      <c r="AQ5">
-        <v>0.0004615007106810769</v>
-      </c>
-      <c r="AR5">
-        <v>0.009976364795674278</v>
-      </c>
-      <c r="AS5">
-        <v>0.001888237770300511</v>
-      </c>
-      <c r="AT5">
-        <v>0.03349045375403006</v>
-      </c>
-      <c r="AU5">
-        <v>0.008914310813365441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.1856967040435006</v>
+      </c>
+      <c r="P6">
+        <v>0.0362853244794768</v>
+      </c>
+      <c r="Q6">
+        <v>0.1211549104436775</v>
+      </c>
+      <c r="R6">
+        <v>0.006646316735306959</v>
+      </c>
+      <c r="S6">
+        <v>0.02045411472715996</v>
+      </c>
+      <c r="T6">
+        <v>0.005865421204417099</v>
+      </c>
+      <c r="U6">
+        <v>0.002567543905550324</v>
+      </c>
+      <c r="V6">
+        <v>0.08006229687176693</v>
+      </c>
+      <c r="W6">
+        <v>0.02274863217077001</v>
+      </c>
+      <c r="X6">
+        <v>0.02830632983234127</v>
+      </c>
+      <c r="Y6">
+        <v>0.08799686372377694</v>
+      </c>
+      <c r="Z6">
+        <v>0.004365012709168793</v>
+      </c>
+      <c r="AA6">
+        <v>0.001973181109103553</v>
+      </c>
+      <c r="AB6">
+        <v>0.000422896401607622</v>
+      </c>
+      <c r="AC6">
+        <v>0.01660361709429729</v>
+      </c>
+      <c r="AD6">
+        <v>0.07000504399410962</v>
+      </c>
+      <c r="AE6">
+        <v>0.02827231069178281</v>
+      </c>
+      <c r="AF6">
+        <v>0.01557319254521132</v>
+      </c>
+      <c r="AG6">
+        <v>0.006562650441791355</v>
+      </c>
+      <c r="AH6">
+        <v>0.01017133974800441</v>
+      </c>
+      <c r="AI6">
+        <v>0.005274353354625448</v>
+      </c>
+      <c r="AJ6">
+        <v>0.003647190055200027</v>
+      </c>
+      <c r="AK6">
+        <v>0.01856960777706626</v>
+      </c>
+      <c r="AL6">
+        <v>6.89537730142026E-05</v>
+      </c>
+      <c r="AM6">
+        <v>0.004879884760992548</v>
+      </c>
+      <c r="AN6">
+        <v>0.06127198553641775</v>
+      </c>
+      <c r="AO6">
+        <v>0.09683369245935607</v>
+      </c>
+      <c r="AP6">
+        <v>0.002611437270749551</v>
+      </c>
+      <c r="AQ6">
+        <v>0.003701617548729383</v>
+      </c>
+      <c r="AR6">
+        <v>0.004145890176665334</v>
+      </c>
+      <c r="AS6">
+        <v>0.02134302447382356</v>
+      </c>
+      <c r="AT6">
+        <v>0.0259186599405389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.1856967040435006</v>
-      </c>
-      <c r="Q6">
-        <v>0.0362853244794768</v>
-      </c>
-      <c r="R6">
-        <v>0.1211549104436775</v>
-      </c>
-      <c r="S6">
-        <v>0.006646316735306959</v>
-      </c>
-      <c r="T6">
-        <v>0.02045411472715996</v>
-      </c>
-      <c r="U6">
-        <v>0.005865421204417099</v>
-      </c>
-      <c r="V6">
-        <v>0.002567543905550324</v>
-      </c>
-      <c r="W6">
-        <v>0.08006229687176693</v>
-      </c>
-      <c r="X6">
-        <v>0.02274863217077001</v>
-      </c>
-      <c r="Y6">
-        <v>0.02830632983234127</v>
-      </c>
-      <c r="Z6">
-        <v>0.08799686372377694</v>
-      </c>
-      <c r="AA6">
-        <v>0.004365012709168793</v>
-      </c>
-      <c r="AB6">
-        <v>0.001973181109103553</v>
-      </c>
-      <c r="AC6">
-        <v>0.000422896401607622</v>
-      </c>
-      <c r="AD6">
-        <v>0.01660361709429729</v>
-      </c>
-      <c r="AE6">
-        <v>0.07000504399410962</v>
-      </c>
-      <c r="AF6">
-        <v>0.02827231069178281</v>
-      </c>
-      <c r="AG6">
-        <v>0.01557319254521132</v>
-      </c>
-      <c r="AH6">
-        <v>0.006562650441791355</v>
-      </c>
-      <c r="AI6">
-        <v>0.01017133974800441</v>
-      </c>
-      <c r="AJ6">
-        <v>0.005274353354625448</v>
-      </c>
-      <c r="AK6">
-        <v>0.003647190055200027</v>
-      </c>
-      <c r="AL6">
-        <v>0.01856960777706626</v>
-      </c>
-      <c r="AM6">
-        <v>6.89537730142026E-05</v>
-      </c>
-      <c r="AN6">
-        <v>0.004879884760992548</v>
-      </c>
-      <c r="AO6">
-        <v>0.06127198553641775</v>
-      </c>
-      <c r="AP6">
-        <v>0.09683369245935607</v>
-      </c>
-      <c r="AQ6">
-        <v>0.002611437270749551</v>
-      </c>
-      <c r="AR6">
-        <v>0.003701617548729383</v>
-      </c>
-      <c r="AS6">
-        <v>0.004145890176665334</v>
-      </c>
-      <c r="AT6">
-        <v>0.02134302447382356</v>
-      </c>
-      <c r="AU6">
-        <v>0.0259186599405389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.11707508536556</v>
+      </c>
+      <c r="E7">
+        <v>0.001474088027516051</v>
+      </c>
+      <c r="F7">
+        <v>0.04543446237015168</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.08428794009953672</v>
+      </c>
+      <c r="I7">
+        <v>0.03059162256063535</v>
+      </c>
+      <c r="J7">
+        <v>0.02389374436914759</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.1746818132836575</v>
+      </c>
+      <c r="M7">
+        <v>0.07578701700872401</v>
+      </c>
+      <c r="N7">
+        <v>0.06295497415285387</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.005133226616457243</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.06760416051062119</v>
+      </c>
+      <c r="T7">
+        <v>0.054652350086575</v>
+      </c>
+      <c r="U7">
+        <v>0.05432271139947503</v>
+      </c>
+      <c r="V7">
+        <v>0.005334168216558249</v>
+      </c>
+      <c r="W7">
+        <v>0.001777621898111047</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0102626832803346</v>
+      </c>
+      <c r="AC7">
+        <v>0.09388064338215707</v>
+      </c>
+      <c r="AD7">
+        <v>0.0816800808155424</v>
+      </c>
+      <c r="AE7">
+        <v>0.008560628842679344</v>
+      </c>
+      <c r="AF7">
+        <v>0.0006109777137061523</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.11707508536556</v>
-      </c>
-      <c r="F7">
-        <v>0.001474088027516051</v>
-      </c>
-      <c r="G7">
-        <v>0.04543446237015168</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.08428794009953672</v>
-      </c>
-      <c r="J7">
-        <v>0.03059162256063535</v>
-      </c>
-      <c r="K7">
-        <v>0.02389374436914759</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0.1746818132836575</v>
-      </c>
-      <c r="N7">
-        <v>0.07578701700872401</v>
-      </c>
-      <c r="O7">
-        <v>0.06295497415285385</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0.005133226616457242</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0.06760416051062121</v>
-      </c>
-      <c r="U7">
-        <v>0.054652350086575</v>
-      </c>
-      <c r="V7">
-        <v>0.05432271139947502</v>
-      </c>
-      <c r="W7">
-        <v>0.005334168216558247</v>
-      </c>
-      <c r="X7">
-        <v>0.001777621898111045</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0.0102626832803346</v>
-      </c>
-      <c r="AD7">
-        <v>0.09388064338215708</v>
-      </c>
-      <c r="AE7">
-        <v>0.0816800808155424</v>
-      </c>
-      <c r="AF7">
-        <v>0.008560628842679344</v>
-      </c>
-      <c r="AG7">
-        <v>0.0006109777137061521</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.1096785932663625</v>
+      </c>
+      <c r="E8">
+        <v>0.02853009778314891</v>
+      </c>
+      <c r="F8">
+        <v>0.008680699529495971</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.09786287266689973</v>
+      </c>
+      <c r="I8">
+        <v>0.0191699956836039</v>
+      </c>
+      <c r="J8">
+        <v>0.03672637268397486</v>
+      </c>
+      <c r="K8">
+        <v>0.01765405560232521</v>
+      </c>
+      <c r="L8">
+        <v>0.1653373166579949</v>
+      </c>
+      <c r="M8">
+        <v>0.06843117997325564</v>
+      </c>
+      <c r="N8">
+        <v>0.05875639172759751</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.01211927862794243</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.09276753145991473</v>
+      </c>
+      <c r="T8">
+        <v>0.06001481255135412</v>
+      </c>
+      <c r="U8">
+        <v>0.04364213240612514</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0.000844314705660559</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.013543764175388</v>
+      </c>
+      <c r="AC8">
+        <v>0.1092868890758466</v>
+      </c>
+      <c r="AD8">
+        <v>0.0569537014231094</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1096785932663625</v>
-      </c>
-      <c r="F8">
-        <v>0.0285300977831489</v>
-      </c>
-      <c r="G8">
-        <v>0.008680699529495971</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.09786287266689975</v>
-      </c>
-      <c r="J8">
-        <v>0.0191699956836039</v>
-      </c>
-      <c r="K8">
-        <v>0.03672637268397487</v>
-      </c>
-      <c r="L8">
-        <v>0.01765405560232521</v>
-      </c>
-      <c r="M8">
-        <v>0.1653373166579949</v>
-      </c>
-      <c r="N8">
-        <v>0.06843117997325564</v>
-      </c>
-      <c r="O8">
-        <v>0.05875639172759749</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0.01211927862794243</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0.09276753145991473</v>
-      </c>
-      <c r="U8">
-        <v>0.06001481255135414</v>
-      </c>
-      <c r="V8">
-        <v>0.04364213240612514</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0.0008443147056605579</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0.013543764175388</v>
-      </c>
-      <c r="AD8">
-        <v>0.1092868890758466</v>
-      </c>
-      <c r="AE8">
-        <v>0.0569537014231094</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.2731211476401345</v>
+      </c>
+      <c r="E9">
+        <v>0.00697761031495308</v>
+      </c>
+      <c r="F9">
+        <v>0.01313040523639582</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.08547206549773063</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0.04575577362701292</v>
+      </c>
+      <c r="L9">
+        <v>0.2261076734679051</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.1344986315390999</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.04885402630433536</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.02769629380810481</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0.1108973202206065</v>
+      </c>
+      <c r="AD9">
+        <v>0.02748905234372134</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2436221903825776</v>
-      </c>
-      <c r="F9">
-        <v>0.01846075147439415</v>
-      </c>
-      <c r="G9">
-        <v>0.02366610859763072</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.08486824215741469</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.003293889382991317</v>
-      </c>
-      <c r="L9">
-        <v>0.05126766137463992</v>
-      </c>
-      <c r="M9">
-        <v>0.2038480835262534</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.1263454550386509</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0.01255758811207729</v>
-      </c>
-      <c r="T9">
-        <v>0.05388882977849524</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0.03598906959358029</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0.1063783903862447</v>
-      </c>
-      <c r="AE9">
-        <v>0.03581374019504973</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.2141935275774444</v>
+      </c>
+      <c r="E10">
+        <v>0.005594611526498946</v>
+      </c>
+      <c r="F10">
+        <v>0.05206081835560783</v>
+      </c>
+      <c r="G10">
+        <v>0.01888090948356216</v>
+      </c>
+      <c r="H10">
+        <v>0.04796816885072888</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.01216863009046992</v>
+      </c>
+      <c r="K10">
+        <v>0.06492875174883225</v>
+      </c>
+      <c r="L10">
+        <v>0.1529509227111424</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.1659453933118164</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.02743123042599444</v>
+      </c>
+      <c r="S10">
+        <v>0.01803654327120235</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.07639391368613166</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.00261722708989637</v>
+      </c>
+      <c r="AC10">
+        <v>0.08865241606158564</v>
+      </c>
+      <c r="AD10">
+        <v>0.05217693580908632</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.2141935275774444</v>
-      </c>
-      <c r="F10">
-        <v>0.005594611526498946</v>
-      </c>
-      <c r="G10">
-        <v>0.05206081835560783</v>
-      </c>
-      <c r="H10">
-        <v>0.01888090948356216</v>
-      </c>
-      <c r="I10">
-        <v>0.04796816885072888</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.01216863009046992</v>
-      </c>
-      <c r="L10">
-        <v>0.06492875174883225</v>
-      </c>
-      <c r="M10">
-        <v>0.1529509227111424</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0.1659453933118164</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0.02743123042599444</v>
-      </c>
-      <c r="T10">
-        <v>0.01803654327120235</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0.07639391368613166</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0.00261722708989637</v>
-      </c>
-      <c r="AD10">
-        <v>0.08865241606158564</v>
-      </c>
-      <c r="AE10">
-        <v>0.05217693580908632</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -2042,61 +2009,61 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.247603565710457</v>
       </c>
       <c r="E11">
-        <v>0.247603565710457</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.05005167483161876</v>
       </c>
       <c r="G11">
-        <v>0.05005167483161876</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0676547535356018</v>
       </c>
       <c r="I11">
-        <v>0.0676547535356018</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.008619225105692392</v>
       </c>
       <c r="K11">
-        <v>0.008619225105692392</v>
+        <v>0.03020838660416424</v>
       </c>
       <c r="L11">
-        <v>0.03020838660416424</v>
+        <v>0.2145661698107828</v>
       </c>
       <c r="M11">
-        <v>0.2145661698107828</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1392210580128063</v>
       </c>
       <c r="O11">
-        <v>0.1392210580128063</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.002757158275783084</v>
       </c>
       <c r="R11">
-        <v>0.002757158275783084</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.04539786254512167</v>
       </c>
       <c r="T11">
-        <v>0.04539786254512167</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.05496821303232331</v>
       </c>
       <c r="V11">
-        <v>0.05496821303232331</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2117,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.08224182297030114</v>
       </c>
       <c r="AD11">
-        <v>0.08224182297030114</v>
+        <v>0.05671010956534735</v>
       </c>
       <c r="AE11">
-        <v>0.05671010956534735</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2168,9 +2135,6 @@
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
         <v>0</v>
       </c>
     </row>
@@ -2181,15 +2145,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2326,729 +2290,711 @@
       <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47">
+    </row>
+    <row r="2" spans="1:46">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.1538447330349463</v>
+      </c>
+      <c r="P2">
+        <v>0.3963304925438732</v>
+      </c>
+      <c r="Q2">
+        <v>0.4134905672935027</v>
+      </c>
+      <c r="R2">
+        <v>0.4212260233196787</v>
+      </c>
+      <c r="S2">
+        <v>0.4565385241027724</v>
+      </c>
+      <c r="T2">
+        <v>0.4746241188168892</v>
+      </c>
+      <c r="U2">
+        <v>0.4964484290152527</v>
+      </c>
+      <c r="V2">
+        <v>0.4998494262685731</v>
+      </c>
+      <c r="W2">
+        <v>0.5657020896262417</v>
+      </c>
+      <c r="X2">
+        <v>0.6207265015746202</v>
+      </c>
+      <c r="Y2">
+        <v>0.6287994522467553</v>
+      </c>
+      <c r="Z2">
+        <v>0.6297430641807015</v>
+      </c>
+      <c r="AA2">
+        <v>0.6403599134303297</v>
+      </c>
+      <c r="AB2">
+        <v>0.6403616508107549</v>
+      </c>
+      <c r="AC2">
+        <v>0.6760916007387037</v>
+      </c>
+      <c r="AD2">
+        <v>0.7404743158805497</v>
+      </c>
+      <c r="AE2">
+        <v>0.7407265652982229</v>
+      </c>
+      <c r="AF2">
+        <v>0.7759684223809565</v>
+      </c>
+      <c r="AG2">
+        <v>0.7759843376641283</v>
+      </c>
+      <c r="AH2">
+        <v>0.7939464991806683</v>
+      </c>
+      <c r="AI2">
+        <v>0.795264000761413</v>
+      </c>
+      <c r="AJ2">
+        <v>0.7964270400971787</v>
+      </c>
+      <c r="AK2">
+        <v>0.8000563573440368</v>
+      </c>
+      <c r="AL2">
+        <v>0.8005186051108474</v>
+      </c>
+      <c r="AM2">
+        <v>0.8250980553625404</v>
+      </c>
+      <c r="AN2">
+        <v>0.9136603038748884</v>
+      </c>
+      <c r="AO2">
+        <v>0.9415271393378511</v>
+      </c>
+      <c r="AP2">
+        <v>0.9416001503341139</v>
+      </c>
+      <c r="AQ2">
+        <v>0.9448732032343441</v>
+      </c>
+      <c r="AR2">
+        <v>0.9471173189735266</v>
+      </c>
+      <c r="AS2">
+        <v>0.9988511692029819</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.005074772313286994</v>
-      </c>
-      <c r="P2">
-        <v>0.1583148252486313</v>
-      </c>
-      <c r="Q2">
-        <v>0.3998475049197285</v>
-      </c>
-      <c r="R2">
-        <v>0.41694013273436</v>
-      </c>
-      <c r="S2">
-        <v>0.4246451848836655</v>
-      </c>
-      <c r="T2">
-        <v>0.4598188914027667</v>
-      </c>
-      <c r="U2">
-        <v>0.4778334014655122</v>
-      </c>
-      <c r="V2">
-        <v>0.4995719321522593</v>
-      </c>
-      <c r="W2">
-        <v>0.5029595619323013</v>
-      </c>
-      <c r="X2">
-        <v>0.5685533942318464</v>
-      </c>
-      <c r="Y2">
-        <v>0.6233615350980687</v>
-      </c>
-      <c r="Z2">
-        <v>0.6314027553851578</v>
-      </c>
-      <c r="AA2">
-        <v>0.6323426584930236</v>
-      </c>
-      <c r="AB2">
-        <v>0.6429177786737713</v>
-      </c>
-      <c r="AC2">
-        <v>0.6429195092254975</v>
-      </c>
-      <c r="AD2">
-        <v>0.6785090241235626</v>
-      </c>
-      <c r="AE2">
-        <v>0.7426386857754607</v>
-      </c>
-      <c r="AF2">
-        <v>0.7428899437376579</v>
-      </c>
-      <c r="AG2">
-        <v>0.7779932842184218</v>
-      </c>
-      <c r="AH2">
-        <v>0.7780091369472583</v>
-      </c>
-      <c r="AI2">
-        <v>0.7959006989612958</v>
-      </c>
-      <c r="AJ2">
-        <v>0.7972130221588009</v>
-      </c>
-      <c r="AK2">
-        <v>0.7983714902185305</v>
-      </c>
-      <c r="AL2">
-        <v>0.8019865425902055</v>
-      </c>
-      <c r="AM2">
-        <v>0.8024469735120702</v>
-      </c>
-      <c r="AN2">
-        <v>0.8269298152927863</v>
-      </c>
-      <c r="AO2">
-        <v>0.9151439737002929</v>
-      </c>
-      <c r="AP2">
-        <v>0.9429012797662401</v>
-      </c>
-      <c r="AQ2">
-        <v>0.9429740037959253</v>
-      </c>
-      <c r="AR2">
-        <v>0.9462341921026484</v>
-      </c>
-      <c r="AS2">
-        <v>0.9484694874415356</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0.100367855175139</v>
+      </c>
+      <c r="P3">
+        <v>0.1017365678443696</v>
+      </c>
+      <c r="Q3">
+        <v>0.3435206255805535</v>
+      </c>
+      <c r="R3">
+        <v>0.3539595904609887</v>
+      </c>
+      <c r="S3">
+        <v>0.3801809123817319</v>
+      </c>
+      <c r="T3">
+        <v>0.3874103679453557</v>
+      </c>
+      <c r="U3">
+        <v>0.3929222802986103</v>
+      </c>
+      <c r="V3">
+        <v>0.423285283591776</v>
+      </c>
+      <c r="W3">
+        <v>0.4477379708069011</v>
+      </c>
+      <c r="X3">
+        <v>0.4664951954299733</v>
+      </c>
+      <c r="Y3">
+        <v>0.6089200557682017</v>
+      </c>
+      <c r="Z3">
+        <v>0.6090620570598849</v>
+      </c>
+      <c r="AA3">
+        <v>0.6137356197187136</v>
+      </c>
+      <c r="AB3">
+        <v>0.6145703970428429</v>
+      </c>
+      <c r="AC3">
+        <v>0.6198721419154873</v>
+      </c>
+      <c r="AD3">
+        <v>0.6774425764300004</v>
+      </c>
+      <c r="AE3">
+        <v>0.7202923447563306</v>
+      </c>
+      <c r="AF3">
+        <v>0.7234469528552118</v>
+      </c>
+      <c r="AG3">
+        <v>0.7395409163939426</v>
+      </c>
+      <c r="AH3">
+        <v>0.7408291153538799</v>
+      </c>
+      <c r="AI3">
+        <v>0.7578229449956566</v>
+      </c>
+      <c r="AJ3">
+        <v>0.7594845966770999</v>
+      </c>
+      <c r="AK3">
+        <v>0.766986431144836</v>
+      </c>
+      <c r="AL3">
+        <v>0.7673032560182612</v>
+      </c>
+      <c r="AM3">
+        <v>0.7718288074649891</v>
+      </c>
+      <c r="AN3">
+        <v>0.8145682441154146</v>
+      </c>
+      <c r="AO3">
+        <v>0.9244164090427343</v>
+      </c>
+      <c r="AP3">
+        <v>0.93422570655272</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9342386150241525</v>
+      </c>
+      <c r="AR3">
+        <v>0.9369194032187477</v>
+      </c>
+      <c r="AS3">
+        <v>0.9514318456750297</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.100367855175139</v>
-      </c>
-      <c r="Q3">
-        <v>0.1017365678443696</v>
-      </c>
-      <c r="R3">
-        <v>0.3435206255805535</v>
-      </c>
-      <c r="S3">
-        <v>0.3539595904609887</v>
-      </c>
-      <c r="T3">
-        <v>0.3801809123817319</v>
-      </c>
-      <c r="U3">
-        <v>0.3874103679453557</v>
-      </c>
-      <c r="V3">
-        <v>0.3929222802986103</v>
-      </c>
-      <c r="W3">
-        <v>0.423285283591776</v>
-      </c>
-      <c r="X3">
-        <v>0.4477379708069011</v>
-      </c>
-      <c r="Y3">
-        <v>0.4664951954299733</v>
-      </c>
-      <c r="Z3">
-        <v>0.6089200557682017</v>
-      </c>
-      <c r="AA3">
-        <v>0.6090620570598849</v>
-      </c>
-      <c r="AB3">
-        <v>0.6137356197187136</v>
-      </c>
-      <c r="AC3">
-        <v>0.6145703970428429</v>
-      </c>
-      <c r="AD3">
-        <v>0.6198721419154873</v>
-      </c>
-      <c r="AE3">
-        <v>0.6774425764300004</v>
-      </c>
-      <c r="AF3">
-        <v>0.7202923447563306</v>
-      </c>
-      <c r="AG3">
-        <v>0.7234469528552118</v>
-      </c>
-      <c r="AH3">
-        <v>0.7395409163939426</v>
-      </c>
-      <c r="AI3">
-        <v>0.7408291153538799</v>
-      </c>
-      <c r="AJ3">
-        <v>0.7578229449956566</v>
-      </c>
-      <c r="AK3">
-        <v>0.7594845966770999</v>
-      </c>
-      <c r="AL3">
-        <v>0.766986431144836</v>
-      </c>
-      <c r="AM3">
-        <v>0.7673032560182612</v>
-      </c>
-      <c r="AN3">
-        <v>0.7718288074649891</v>
-      </c>
-      <c r="AO3">
-        <v>0.8145682441154146</v>
-      </c>
-      <c r="AP3">
-        <v>0.9244164090427343</v>
-      </c>
-      <c r="AQ3">
-        <v>0.93422570655272</v>
-      </c>
-      <c r="AR3">
-        <v>0.9342386150241525</v>
-      </c>
-      <c r="AS3">
-        <v>0.9369194032187477</v>
-      </c>
-      <c r="AT3">
-        <v>0.9514318456750297</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.03385640031365729</v>
+      </c>
+      <c r="O4">
+        <v>0.0933538055915584</v>
+      </c>
+      <c r="P4">
+        <v>0.3141753237092697</v>
+      </c>
+      <c r="Q4">
+        <v>0.3172447108577069</v>
+      </c>
+      <c r="R4">
+        <v>0.3398157889954678</v>
+      </c>
+      <c r="S4">
+        <v>0.3880898818170667</v>
+      </c>
+      <c r="T4">
+        <v>0.3880904353709998</v>
+      </c>
+      <c r="U4">
+        <v>0.4006122571722182</v>
+      </c>
+      <c r="V4">
+        <v>0.5043876483405983</v>
+      </c>
+      <c r="W4">
+        <v>0.5183493995951652</v>
+      </c>
+      <c r="X4">
+        <v>0.5765295569651395</v>
+      </c>
+      <c r="Y4">
+        <v>0.5876089150245387</v>
+      </c>
+      <c r="Z4">
+        <v>0.601953912001805</v>
+      </c>
+      <c r="AA4">
+        <v>0.6073567187091512</v>
+      </c>
+      <c r="AB4">
+        <v>0.6083298351676558</v>
+      </c>
+      <c r="AC4">
+        <v>0.6806839474910107</v>
+      </c>
+      <c r="AD4">
+        <v>0.7103171302329606</v>
+      </c>
+      <c r="AE4">
+        <v>0.7205385968121304</v>
+      </c>
+      <c r="AF4">
+        <v>0.739374342122449</v>
+      </c>
+      <c r="AG4">
+        <v>0.7448200821844581</v>
+      </c>
+      <c r="AH4">
+        <v>0.7487058511186193</v>
+      </c>
+      <c r="AI4">
+        <v>0.7541992410675175</v>
+      </c>
+      <c r="AJ4">
+        <v>0.7681247626790498</v>
+      </c>
+      <c r="AK4">
+        <v>0.7784332660440425</v>
+      </c>
+      <c r="AL4">
+        <v>0.7826849060402399</v>
+      </c>
+      <c r="AM4">
+        <v>0.813469872577874</v>
+      </c>
+      <c r="AN4">
+        <v>0.9193112274733002</v>
+      </c>
+      <c r="AO4">
+        <v>0.9396714471530758</v>
+      </c>
+      <c r="AP4">
+        <v>0.9408223809326161</v>
+      </c>
+      <c r="AQ4">
+        <v>0.9638427860940253</v>
+      </c>
+      <c r="AR4">
+        <v>0.9651198183581778</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.03385640031365729</v>
-      </c>
-      <c r="P4">
-        <v>0.0933538055915584</v>
-      </c>
-      <c r="Q4">
-        <v>0.3141753237092697</v>
-      </c>
-      <c r="R4">
-        <v>0.3172447108577069</v>
-      </c>
-      <c r="S4">
-        <v>0.3398157889954678</v>
-      </c>
-      <c r="T4">
-        <v>0.3880898818170667</v>
-      </c>
-      <c r="U4">
-        <v>0.3880904353709998</v>
-      </c>
-      <c r="V4">
-        <v>0.4006122571722182</v>
-      </c>
-      <c r="W4">
-        <v>0.5043876483405983</v>
-      </c>
-      <c r="X4">
-        <v>0.5183493995951652</v>
-      </c>
-      <c r="Y4">
-        <v>0.5765295569651395</v>
-      </c>
-      <c r="Z4">
-        <v>0.5876089150245387</v>
-      </c>
-      <c r="AA4">
-        <v>0.601953912001805</v>
-      </c>
-      <c r="AB4">
-        <v>0.6073567187091512</v>
-      </c>
-      <c r="AC4">
-        <v>0.6083298351676558</v>
-      </c>
-      <c r="AD4">
-        <v>0.6806839474910107</v>
-      </c>
-      <c r="AE4">
-        <v>0.7103171302329606</v>
-      </c>
-      <c r="AF4">
-        <v>0.7205385968121304</v>
-      </c>
-      <c r="AG4">
-        <v>0.739374342122449</v>
-      </c>
-      <c r="AH4">
-        <v>0.7448200821844581</v>
-      </c>
-      <c r="AI4">
-        <v>0.7487058511186193</v>
-      </c>
-      <c r="AJ4">
-        <v>0.7541992410675175</v>
-      </c>
-      <c r="AK4">
-        <v>0.7681247626790498</v>
-      </c>
-      <c r="AL4">
-        <v>0.7784332660440425</v>
-      </c>
-      <c r="AM4">
-        <v>0.7826849060402399</v>
-      </c>
-      <c r="AN4">
-        <v>0.813469872577874</v>
-      </c>
-      <c r="AO4">
-        <v>0.9193112274733002</v>
-      </c>
-      <c r="AP4">
-        <v>0.9396714471530758</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9408223809326161</v>
-      </c>
-      <c r="AR4">
-        <v>0.9638427860940253</v>
-      </c>
-      <c r="AS4">
-        <v>0.9651198183581778</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.2206232623470129</v>
+      </c>
+      <c r="P5">
+        <v>0.3520127264924061</v>
+      </c>
+      <c r="Q5">
+        <v>0.397313410801327</v>
+      </c>
+      <c r="R5">
+        <v>0.4021799679099394</v>
+      </c>
+      <c r="S5">
+        <v>0.4406489407217389</v>
+      </c>
+      <c r="T5">
+        <v>0.4489012543996041</v>
+      </c>
+      <c r="U5">
+        <v>0.4663819099037241</v>
+      </c>
+      <c r="V5">
+        <v>0.5321708613249295</v>
+      </c>
+      <c r="W5">
+        <v>0.5472507518096836</v>
+      </c>
+      <c r="X5">
+        <v>0.5871164032569431</v>
+      </c>
+      <c r="Y5">
+        <v>0.6261837878894665</v>
+      </c>
+      <c r="Z5">
+        <v>0.6380233211837008</v>
+      </c>
+      <c r="AA5">
+        <v>0.6381508620872816</v>
+      </c>
+      <c r="AB5">
+        <v>0.6382031651388234</v>
+      </c>
+      <c r="AC5">
+        <v>0.6681922539569878</v>
+      </c>
+      <c r="AD5">
+        <v>0.7280416022322549</v>
+      </c>
+      <c r="AE5">
+        <v>0.7364326827905248</v>
+      </c>
+      <c r="AF5">
+        <v>0.760303862412109</v>
+      </c>
+      <c r="AG5">
+        <v>0.7603249443906959</v>
+      </c>
+      <c r="AH5">
+        <v>0.7777259992936523</v>
+      </c>
+      <c r="AI5">
+        <v>0.7780421286049353</v>
+      </c>
+      <c r="AJ5">
+        <v>0.7831171035372329</v>
+      </c>
+      <c r="AK5">
+        <v>0.7975972360371623</v>
+      </c>
+      <c r="AL5">
+        <v>0.7976990022073964</v>
+      </c>
+      <c r="AM5">
+        <v>0.8090774369711305</v>
+      </c>
+      <c r="AN5">
+        <v>0.8906514400543745</v>
+      </c>
+      <c r="AO5">
+        <v>0.9452691321559483</v>
+      </c>
+      <c r="AP5">
+        <v>0.9457306328666294</v>
+      </c>
+      <c r="AQ5">
+        <v>0.9557069976623037</v>
+      </c>
+      <c r="AR5">
+        <v>0.9575952354326043</v>
+      </c>
+      <c r="AS5">
+        <v>0.9910856891866343</v>
+      </c>
+      <c r="AT5">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.2206232623470129</v>
-      </c>
-      <c r="Q5">
-        <v>0.3520127264924061</v>
-      </c>
-      <c r="R5">
-        <v>0.397313410801327</v>
-      </c>
-      <c r="S5">
-        <v>0.4021799679099394</v>
-      </c>
-      <c r="T5">
-        <v>0.4406489407217389</v>
-      </c>
-      <c r="U5">
-        <v>0.4489012543996041</v>
-      </c>
-      <c r="V5">
-        <v>0.4663819099037241</v>
-      </c>
-      <c r="W5">
-        <v>0.5321708613249295</v>
-      </c>
-      <c r="X5">
-        <v>0.5472507518096836</v>
-      </c>
-      <c r="Y5">
-        <v>0.5871164032569431</v>
-      </c>
-      <c r="Z5">
-        <v>0.6261837878894665</v>
-      </c>
-      <c r="AA5">
-        <v>0.6380233211837008</v>
-      </c>
-      <c r="AB5">
-        <v>0.6381508620872816</v>
-      </c>
-      <c r="AC5">
-        <v>0.6382031651388234</v>
-      </c>
-      <c r="AD5">
-        <v>0.6681922539569878</v>
-      </c>
-      <c r="AE5">
-        <v>0.7280416022322549</v>
-      </c>
-      <c r="AF5">
-        <v>0.7364326827905248</v>
-      </c>
-      <c r="AG5">
-        <v>0.760303862412109</v>
-      </c>
-      <c r="AH5">
-        <v>0.7603249443906959</v>
-      </c>
-      <c r="AI5">
-        <v>0.7777259992936523</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7780421286049353</v>
-      </c>
-      <c r="AK5">
-        <v>0.7831171035372329</v>
-      </c>
-      <c r="AL5">
-        <v>0.7975972360371623</v>
-      </c>
-      <c r="AM5">
-        <v>0.7976990022073964</v>
-      </c>
-      <c r="AN5">
-        <v>0.8090774369711305</v>
-      </c>
-      <c r="AO5">
-        <v>0.8906514400543745</v>
-      </c>
-      <c r="AP5">
-        <v>0.9452691321559483</v>
-      </c>
-      <c r="AQ5">
-        <v>0.9457306328666294</v>
-      </c>
-      <c r="AR5">
-        <v>0.9557069976623037</v>
-      </c>
-      <c r="AS5">
-        <v>0.9575952354326043</v>
-      </c>
-      <c r="AT5">
-        <v>0.9910856891866343</v>
-      </c>
-      <c r="AU5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.1856967040435006</v>
+      </c>
+      <c r="P6">
+        <v>0.2219820285229774</v>
+      </c>
+      <c r="Q6">
+        <v>0.3431369389666549</v>
+      </c>
+      <c r="R6">
+        <v>0.3497832557019618</v>
+      </c>
+      <c r="S6">
+        <v>0.3702373704291218</v>
+      </c>
+      <c r="T6">
+        <v>0.3761027916335389</v>
+      </c>
+      <c r="U6">
+        <v>0.3786703355390892</v>
+      </c>
+      <c r="V6">
+        <v>0.4587326324108561</v>
+      </c>
+      <c r="W6">
+        <v>0.4814812645816261</v>
+      </c>
+      <c r="X6">
+        <v>0.5097875944139674</v>
+      </c>
+      <c r="Y6">
+        <v>0.5977844581377443</v>
+      </c>
+      <c r="Z6">
+        <v>0.6021494708469131</v>
+      </c>
+      <c r="AA6">
+        <v>0.6041226519560167</v>
+      </c>
+      <c r="AB6">
+        <v>0.6045455483576243</v>
+      </c>
+      <c r="AC6">
+        <v>0.6211491654519216</v>
+      </c>
+      <c r="AD6">
+        <v>0.6911542094460312</v>
+      </c>
+      <c r="AE6">
+        <v>0.7194265201378141</v>
+      </c>
+      <c r="AF6">
+        <v>0.7349997126830253</v>
+      </c>
+      <c r="AG6">
+        <v>0.7415623631248167</v>
+      </c>
+      <c r="AH6">
+        <v>0.7517337028728212</v>
+      </c>
+      <c r="AI6">
+        <v>0.7570080562274466</v>
+      </c>
+      <c r="AJ6">
+        <v>0.7606552462826466</v>
+      </c>
+      <c r="AK6">
+        <v>0.7792248540597129</v>
+      </c>
+      <c r="AL6">
+        <v>0.7792938078327271</v>
+      </c>
+      <c r="AM6">
+        <v>0.7841736925937196</v>
+      </c>
+      <c r="AN6">
+        <v>0.8454456781301374</v>
+      </c>
+      <c r="AO6">
+        <v>0.9422793705894934</v>
+      </c>
+      <c r="AP6">
+        <v>0.9448908078602429</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9485924254089723</v>
+      </c>
+      <c r="AR6">
+        <v>0.9527383155856376</v>
+      </c>
+      <c r="AS6">
+        <v>0.9740813400594611</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0.1856967040435006</v>
-      </c>
-      <c r="Q6">
-        <v>0.2219820285229774</v>
-      </c>
-      <c r="R6">
-        <v>0.3431369389666549</v>
-      </c>
-      <c r="S6">
-        <v>0.3497832557019618</v>
-      </c>
-      <c r="T6">
-        <v>0.3702373704291218</v>
-      </c>
-      <c r="U6">
-        <v>0.3761027916335389</v>
-      </c>
-      <c r="V6">
-        <v>0.3786703355390892</v>
-      </c>
-      <c r="W6">
-        <v>0.4587326324108561</v>
-      </c>
-      <c r="X6">
-        <v>0.4814812645816261</v>
-      </c>
-      <c r="Y6">
-        <v>0.5097875944139674</v>
-      </c>
-      <c r="Z6">
-        <v>0.5977844581377443</v>
-      </c>
-      <c r="AA6">
-        <v>0.6021494708469131</v>
-      </c>
-      <c r="AB6">
-        <v>0.6041226519560167</v>
-      </c>
-      <c r="AC6">
-        <v>0.6045455483576243</v>
-      </c>
-      <c r="AD6">
-        <v>0.6211491654519216</v>
-      </c>
-      <c r="AE6">
-        <v>0.6911542094460312</v>
-      </c>
-      <c r="AF6">
-        <v>0.7194265201378141</v>
-      </c>
-      <c r="AG6">
-        <v>0.7349997126830253</v>
-      </c>
-      <c r="AH6">
-        <v>0.7415623631248167</v>
-      </c>
-      <c r="AI6">
-        <v>0.7517337028728212</v>
-      </c>
-      <c r="AJ6">
-        <v>0.7570080562274466</v>
-      </c>
-      <c r="AK6">
-        <v>0.7606552462826466</v>
-      </c>
-      <c r="AL6">
-        <v>0.7792248540597129</v>
-      </c>
-      <c r="AM6">
-        <v>0.7792938078327271</v>
-      </c>
-      <c r="AN6">
-        <v>0.7841736925937196</v>
-      </c>
-      <c r="AO6">
-        <v>0.8454456781301374</v>
-      </c>
-      <c r="AP6">
-        <v>0.9422793705894934</v>
-      </c>
-      <c r="AQ6">
-        <v>0.9448908078602429</v>
-      </c>
-      <c r="AR6">
-        <v>0.9485924254089723</v>
-      </c>
-      <c r="AS6">
-        <v>0.9527383155856376</v>
-      </c>
-      <c r="AT6">
-        <v>0.9740813400594611</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B7">
         <v>0</v>
       </c>
@@ -3056,37 +3002,37 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.11707508536556</v>
       </c>
       <c r="E7">
-        <v>0.11707508536556</v>
+        <v>0.1185491733930761</v>
       </c>
       <c r="F7">
-        <v>0.1185491733930761</v>
+        <v>0.1639836357632277</v>
       </c>
       <c r="G7">
         <v>0.1639836357632277</v>
       </c>
       <c r="H7">
-        <v>0.1639836357632277</v>
+        <v>0.2482715758627644</v>
       </c>
       <c r="I7">
-        <v>0.2482715758627644</v>
+        <v>0.2788631984233998</v>
       </c>
       <c r="J7">
-        <v>0.2788631984233998</v>
+        <v>0.3027569427925474</v>
       </c>
       <c r="K7">
         <v>0.3027569427925474</v>
       </c>
       <c r="L7">
-        <v>0.3027569427925474</v>
+        <v>0.4774387560762049</v>
       </c>
       <c r="M7">
-        <v>0.4774387560762049</v>
+        <v>0.5532257730849289</v>
       </c>
       <c r="N7">
-        <v>0.5532257730849289</v>
+        <v>0.6161807472377828</v>
       </c>
       <c r="O7">
         <v>0.6161807472377828</v>
@@ -3095,25 +3041,25 @@
         <v>0.6161807472377828</v>
       </c>
       <c r="Q7">
-        <v>0.6161807472377828</v>
+        <v>0.62131397385424</v>
       </c>
       <c r="R7">
         <v>0.62131397385424</v>
       </c>
       <c r="S7">
-        <v>0.62131397385424</v>
+        <v>0.6889181343648613</v>
       </c>
       <c r="T7">
-        <v>0.6889181343648613</v>
+        <v>0.7435704844514363</v>
       </c>
       <c r="U7">
-        <v>0.7435704844514363</v>
+        <v>0.7978931958509112</v>
       </c>
       <c r="V7">
-        <v>0.7978931958509112</v>
+        <v>0.8032273640674695</v>
       </c>
       <c r="W7">
-        <v>0.8032273640674695</v>
+        <v>0.8050049859655806</v>
       </c>
       <c r="X7">
         <v>0.8050049859655806</v>
@@ -3128,19 +3074,19 @@
         <v>0.8050049859655806</v>
       </c>
       <c r="AB7">
-        <v>0.8050049859655806</v>
+        <v>0.8152676692459152</v>
       </c>
       <c r="AC7">
-        <v>0.8152676692459152</v>
+        <v>0.9091483126280723</v>
       </c>
       <c r="AD7">
-        <v>0.9091483126280723</v>
+        <v>0.9908283934436146</v>
       </c>
       <c r="AE7">
-        <v>0.9908283934436146</v>
+        <v>0.999389022286294</v>
       </c>
       <c r="AF7">
-        <v>0.999389022286294</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -3184,13 +3130,10 @@
       <c r="AT7">
         <v>1</v>
       </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47">
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3199,37 +3142,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1096785932663625</v>
       </c>
       <c r="E8">
-        <v>0.1096785932663625</v>
+        <v>0.1382086910495114</v>
       </c>
       <c r="F8">
-        <v>0.1382086910495114</v>
+        <v>0.1468893905790074</v>
       </c>
       <c r="G8">
         <v>0.1468893905790074</v>
       </c>
       <c r="H8">
-        <v>0.1468893905790074</v>
+        <v>0.2447522632459072</v>
       </c>
       <c r="I8">
-        <v>0.2447522632459072</v>
+        <v>0.263922258929511</v>
       </c>
       <c r="J8">
-        <v>0.263922258929511</v>
+        <v>0.3006486316134859</v>
       </c>
       <c r="K8">
-        <v>0.3006486316134859</v>
+        <v>0.3183026872158111</v>
       </c>
       <c r="L8">
-        <v>0.3183026872158111</v>
+        <v>0.4836400038738061</v>
       </c>
       <c r="M8">
-        <v>0.483640003873806</v>
+        <v>0.5520711838470617</v>
       </c>
       <c r="N8">
-        <v>0.5520711838470617</v>
+        <v>0.6108275755746592</v>
       </c>
       <c r="O8">
         <v>0.6108275755746592</v>
@@ -3238,19 +3181,19 @@
         <v>0.6108275755746592</v>
       </c>
       <c r="Q8">
-        <v>0.6108275755746592</v>
+        <v>0.6229468542026017</v>
       </c>
       <c r="R8">
-        <v>0.6229468542026015</v>
+        <v>0.6229468542026017</v>
       </c>
       <c r="S8">
-        <v>0.6229468542026015</v>
+        <v>0.7157143856625163</v>
       </c>
       <c r="T8">
-        <v>0.7157143856625163</v>
+        <v>0.7757291982138704</v>
       </c>
       <c r="U8">
-        <v>0.7757291982138704</v>
+        <v>0.8193713306199956</v>
       </c>
       <c r="V8">
         <v>0.8193713306199956</v>
@@ -3262,7 +3205,7 @@
         <v>0.8193713306199956</v>
       </c>
       <c r="Y8">
-        <v>0.8193713306199956</v>
+        <v>0.8202156453256562</v>
       </c>
       <c r="Z8">
         <v>0.8202156453256562</v>
@@ -3271,13 +3214,13 @@
         <v>0.8202156453256562</v>
       </c>
       <c r="AB8">
-        <v>0.8202156453256562</v>
+        <v>0.8337594095010442</v>
       </c>
       <c r="AC8">
-        <v>0.8337594095010442</v>
+        <v>0.9430462985768908</v>
       </c>
       <c r="AD8">
-        <v>0.9430462985768908</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -3327,157 +3270,151 @@
       <c r="AT8">
         <v>1</v>
       </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47">
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.2731211476401345</v>
+      </c>
+      <c r="E9">
+        <v>0.2800987579550875</v>
+      </c>
+      <c r="F9">
+        <v>0.2932291631914833</v>
+      </c>
+      <c r="G9">
+        <v>0.2932291631914833</v>
+      </c>
+      <c r="H9">
+        <v>0.378701228689214</v>
+      </c>
+      <c r="I9">
+        <v>0.378701228689214</v>
+      </c>
+      <c r="J9">
+        <v>0.378701228689214</v>
+      </c>
+      <c r="K9">
+        <v>0.4244570023162269</v>
+      </c>
+      <c r="L9">
+        <v>0.650564675784132</v>
+      </c>
+      <c r="M9">
+        <v>0.650564675784132</v>
+      </c>
+      <c r="N9">
+        <v>0.7850633073232318</v>
+      </c>
+      <c r="O9">
+        <v>0.7850633073232318</v>
+      </c>
+      <c r="P9">
+        <v>0.7850633073232318</v>
+      </c>
+      <c r="Q9">
+        <v>0.7850633073232318</v>
+      </c>
+      <c r="R9">
+        <v>0.7850633073232318</v>
+      </c>
+      <c r="S9">
+        <v>0.8339173336275671</v>
+      </c>
+      <c r="T9">
+        <v>0.8339173336275671</v>
+      </c>
+      <c r="U9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="V9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="W9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="X9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="Y9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="Z9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="AA9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="AB9">
+        <v>0.8616136274356719</v>
+      </c>
+      <c r="AC9">
+        <v>0.9725109476562784</v>
+      </c>
+      <c r="AD9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AF9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT9">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2436221903825776</v>
-      </c>
-      <c r="F9">
-        <v>0.2620829418569717</v>
-      </c>
-      <c r="G9">
-        <v>0.2857490504546025</v>
-      </c>
-      <c r="H9">
-        <v>0.2857490504546025</v>
-      </c>
-      <c r="I9">
-        <v>0.3706172926120171</v>
-      </c>
-      <c r="J9">
-        <v>0.3706172926120171</v>
-      </c>
-      <c r="K9">
-        <v>0.3739111819950084</v>
-      </c>
-      <c r="L9">
-        <v>0.4251788433696484</v>
-      </c>
-      <c r="M9">
-        <v>0.6290269268959018</v>
-      </c>
-      <c r="N9">
-        <v>0.6290269268959018</v>
-      </c>
-      <c r="O9">
-        <v>0.7553723819345527</v>
-      </c>
-      <c r="P9">
-        <v>0.7553723819345527</v>
-      </c>
-      <c r="Q9">
-        <v>0.7553723819345527</v>
-      </c>
-      <c r="R9">
-        <v>0.7553723819345527</v>
-      </c>
-      <c r="S9">
-        <v>0.76792997004663</v>
-      </c>
-      <c r="T9">
-        <v>0.8218187998251252</v>
-      </c>
-      <c r="U9">
-        <v>0.8218187998251252</v>
-      </c>
-      <c r="V9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="W9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="X9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="Y9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="Z9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="AA9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="AB9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="AC9">
-        <v>0.8578078694187055</v>
-      </c>
-      <c r="AD9">
-        <v>0.9641862598049502</v>
-      </c>
-      <c r="AE9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AF9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AG9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AH9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AK9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AL9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AM9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AN9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AO9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AP9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AQ9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AR9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AS9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AT9">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU9">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="B10">
         <v>0</v>
       </c>
@@ -3485,37 +3422,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2141935275774444</v>
       </c>
       <c r="E10">
-        <v>0.2141935275774444</v>
+        <v>0.2197881391039433</v>
       </c>
       <c r="F10">
-        <v>0.2197881391039433</v>
+        <v>0.2718489574595512</v>
       </c>
       <c r="G10">
-        <v>0.2718489574595512</v>
+        <v>0.2907298669431133</v>
       </c>
       <c r="H10">
-        <v>0.2907298669431133</v>
+        <v>0.3386980357938422</v>
       </c>
       <c r="I10">
         <v>0.3386980357938422</v>
       </c>
       <c r="J10">
-        <v>0.3386980357938422</v>
+        <v>0.3508666658843121</v>
       </c>
       <c r="K10">
-        <v>0.3508666658843121</v>
+        <v>0.4157954176331443</v>
       </c>
       <c r="L10">
-        <v>0.4157954176331443</v>
+        <v>0.5687463403442867</v>
       </c>
       <c r="M10">
         <v>0.5687463403442867</v>
       </c>
       <c r="N10">
-        <v>0.5687463403442867</v>
+        <v>0.7346917336561032</v>
       </c>
       <c r="O10">
         <v>0.7346917336561032</v>
@@ -3527,16 +3464,16 @@
         <v>0.7346917336561032</v>
       </c>
       <c r="R10">
-        <v>0.7346917336561032</v>
+        <v>0.7621229640820977</v>
       </c>
       <c r="S10">
-        <v>0.7621229640820977</v>
+        <v>0.7801595073533</v>
       </c>
       <c r="T10">
         <v>0.7801595073533</v>
       </c>
       <c r="U10">
-        <v>0.7801595073533</v>
+        <v>0.8565534210394317</v>
       </c>
       <c r="V10">
         <v>0.8565534210394317</v>
@@ -3557,13 +3494,13 @@
         <v>0.8565534210394317</v>
       </c>
       <c r="AB10">
-        <v>0.8565534210394317</v>
+        <v>0.8591706481293281</v>
       </c>
       <c r="AC10">
-        <v>0.8591706481293281</v>
+        <v>0.9478230641909138</v>
       </c>
       <c r="AD10">
-        <v>0.9478230641909138</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -3613,13 +3550,10 @@
       <c r="AT10">
         <v>1</v>
       </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:47">
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3628,37 +3562,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.247603565710457</v>
       </c>
       <c r="E11">
         <v>0.247603565710457</v>
       </c>
       <c r="F11">
-        <v>0.247603565710457</v>
+        <v>0.2976552405420757</v>
       </c>
       <c r="G11">
         <v>0.2976552405420757</v>
       </c>
       <c r="H11">
-        <v>0.2976552405420757</v>
+        <v>0.3653099940776775</v>
       </c>
       <c r="I11">
         <v>0.3653099940776775</v>
       </c>
       <c r="J11">
-        <v>0.3653099940776775</v>
+        <v>0.3739292191833699</v>
       </c>
       <c r="K11">
-        <v>0.3739292191833699</v>
+        <v>0.4041376057875342</v>
       </c>
       <c r="L11">
-        <v>0.4041376057875342</v>
+        <v>0.618703775598317</v>
       </c>
       <c r="M11">
         <v>0.618703775598317</v>
       </c>
       <c r="N11">
-        <v>0.618703775598317</v>
+        <v>0.7579248336111233</v>
       </c>
       <c r="O11">
         <v>0.7579248336111233</v>
@@ -3667,19 +3601,19 @@
         <v>0.7579248336111233</v>
       </c>
       <c r="Q11">
-        <v>0.7579248336111233</v>
+        <v>0.7606819918869063</v>
       </c>
       <c r="R11">
         <v>0.7606819918869063</v>
       </c>
       <c r="S11">
-        <v>0.7606819918869063</v>
+        <v>0.806079854432028</v>
       </c>
       <c r="T11">
         <v>0.806079854432028</v>
       </c>
       <c r="U11">
-        <v>0.806079854432028</v>
+        <v>0.8610480674643514</v>
       </c>
       <c r="V11">
         <v>0.8610480674643514</v>
@@ -3703,10 +3637,10 @@
         <v>0.8610480674643514</v>
       </c>
       <c r="AC11">
-        <v>0.8610480674643514</v>
+        <v>0.9432898904346525</v>
       </c>
       <c r="AD11">
-        <v>0.9432898904346525</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
         <v>0.9999999999999999</v>
@@ -3754,9 +3688,6 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AU11">
         <v>0.9999999999999999</v>
       </c>
     </row>
@@ -3775,54 +3706,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -3831,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5029595619323013</v>
+        <v>0.5657020896262417</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>42</v>
@@ -3843,30 +3774,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3884,30 +3815,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3925,30 +3856,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3966,30 +3897,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4007,30 +3938,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4048,30 +3979,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4089,36 +4020,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6290269268959018</v>
+        <v>0.650564675784132</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -4130,30 +4061,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4171,30 +4102,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>71</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4212,16 +4143,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4239,63 +4170,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7426386857754607</v>
+        <v>0.7404743158805497</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -4307,30 +4238,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4348,30 +4279,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4389,30 +4320,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4430,30 +4361,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4471,30 +4402,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4512,30 +4443,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4553,36 +4484,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7553723819345527</v>
+        <v>0.7850633073232318</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -4594,30 +4525,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4635,30 +4566,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>71</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4676,16 +4607,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4703,63 +4634,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8019865425902055</v>
+        <v>0.8000563573440368</v>
       </c>
       <c r="G2">
         <v>24</v>
@@ -4771,30 +4702,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4812,30 +4743,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4853,30 +4784,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4894,30 +4825,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4935,30 +4866,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4976,30 +4907,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5017,36 +4948,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8218187998251252</v>
+        <v>0.8339173336275671</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -5058,30 +4989,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5099,30 +5030,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>71</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5140,16 +5071,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5167,63 +5098,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9151439737002929</v>
+        <v>0.9136603038748884</v>
       </c>
       <c r="G2">
         <v>27</v>
@@ -5235,30 +5166,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>71</v>
-      </c>
-      <c r="M2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5276,30 +5207,30 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5317,30 +5248,30 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5358,30 +5289,30 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>71</v>
-      </c>
-      <c r="M5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5399,30 +5330,30 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5440,30 +5371,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5481,36 +5412,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>71</v>
-      </c>
-      <c r="M8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9641862598049502</v>
+        <v>0.9725109476562784</v>
       </c>
       <c r="G9">
         <v>27</v>
@@ -5522,30 +5453,30 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
         <v>69</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5563,30 +5494,30 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>71</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5604,16 +5535,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s">
         <v>69</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>70</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>71</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/42_225-80R17.xlsx
@@ -189,40 +189,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Al</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -232,9 +235,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Al</t>
   </si>
 </sst>
 </file>
@@ -782,100 +782,100 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1538447330349463</v>
+        <v>0.2344786174063797</v>
       </c>
       <c r="P2">
-        <v>0.242485759508927</v>
+        <v>0.4023050951560341</v>
       </c>
       <c r="Q2">
-        <v>0.01716007474962951</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.007735456026175984</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.03531250078309375</v>
+        <v>0.01005830290932622</v>
       </c>
       <c r="T2">
-        <v>0.01808559471411676</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02182431019836351</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.00340099725332048</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.06585266335766857</v>
+        <v>0.06788082729420809</v>
       </c>
       <c r="X2">
-        <v>0.05502441194837847</v>
+        <v>0.047379402993325</v>
       </c>
       <c r="Y2">
-        <v>0.008072950672135112</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0009436119339461638</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0106168492496282</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.737380425153252E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.03572994992794879</v>
+        <v>0.01084867078306911</v>
       </c>
       <c r="AD2">
-        <v>0.06438271514184604</v>
+        <v>0.0650977341673669</v>
       </c>
       <c r="AE2">
-        <v>0.0002522494176731957</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.03524185708273363</v>
+        <v>0.00992455126092761</v>
       </c>
       <c r="AG2">
-        <v>1.591528317174809E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.01796216151654</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001317501580744778</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001163039335765668</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.003629317246858094</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.000462247766810589</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.02457945025169302</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.08856224851234794</v>
+        <v>0.1108775054608855</v>
       </c>
       <c r="AO2">
-        <v>0.02786683546296276</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>7.301099626273601E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.003273052900230191</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.002244115739182487</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.05173385022945532</v>
+        <v>0.04114929256847763</v>
       </c>
       <c r="AT2">
-        <v>0.001148830797018032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -922,100 +922,100 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.100367855175139</v>
+        <v>0.1287572353946568</v>
       </c>
       <c r="P3">
-        <v>0.001368712669230591</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2417840577361839</v>
+        <v>0.387516852786036</v>
       </c>
       <c r="R3">
-        <v>0.01043896488043529</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.02622132192074314</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.007229455563623794</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.005511912353254572</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.03036300329316566</v>
+        <v>0.0006642137997646448</v>
       </c>
       <c r="W3">
-        <v>0.02445268721512518</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.01875722462307216</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1424248603382285</v>
+        <v>0.2057120281803746</v>
       </c>
       <c r="Z3">
-        <v>0.0001420012916831566</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004673562658828664</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0008347773241293233</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.005301744872644434</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05757043451451305</v>
+        <v>0.05044764996578024</v>
       </c>
       <c r="AE3">
-        <v>0.04284976832633026</v>
+        <v>0.02351216533518343</v>
       </c>
       <c r="AF3">
-        <v>0.003154608098881115</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01609396353873078</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.001288198959937275</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01699382964177679</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.001661651681443275</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.007501834467736092</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0003168248734252465</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.004525551446727815</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.04273943665042556</v>
+        <v>0.02331028336037277</v>
       </c>
       <c r="AO3">
-        <v>0.1098481649273196</v>
+        <v>0.1461040547816863</v>
       </c>
       <c r="AP3">
-        <v>0.009809297509985678</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.290847143257835E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.002680788194595113</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.01451244245628204</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.04856815432497026</v>
+        <v>0.03397551639614529</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1059,100 +1059,100 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03385640031365729</v>
+        <v>0.00823549813293455</v>
       </c>
       <c r="O4">
-        <v>0.05949740527790112</v>
+        <v>0.06299289657047698</v>
       </c>
       <c r="P4">
-        <v>0.2208215181177113</v>
+        <v>0.4075070346345291</v>
       </c>
       <c r="Q4">
-        <v>0.003069387148437267</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02257107813776083</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.04827409282159892</v>
+        <v>0.03902506095655425</v>
       </c>
       <c r="T4">
-        <v>5.535539330633943E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01252182180121835</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.1037753911683802</v>
+        <v>0.1575503181223177</v>
       </c>
       <c r="W4">
-        <v>0.01396175125456688</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.05818015736997426</v>
+        <v>0.06017986062918085</v>
       </c>
       <c r="Y4">
-        <v>0.01107935805939919</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01434499697726631</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.005402806707346216</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000973116458504626</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.07235411232335487</v>
+        <v>0.09044891209188077</v>
       </c>
       <c r="AD4">
-        <v>0.02963318274194987</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.01022146657916974</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.01883574531031859</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.005445740062008994</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.003885768934161289</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.005493389948898181</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.01392552161153241</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.01030850336499262</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004251639996197363</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.03078496653763409</v>
+        <v>0.001676327644774719</v>
       </c>
       <c r="AN4">
-        <v>0.1058413548954262</v>
+        <v>0.1619622668395042</v>
       </c>
       <c r="AO4">
-        <v>0.02036021967977568</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.001150933779540245</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.02302040516140929</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001277032264152551</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.03488018164182237</v>
+        <v>0.0104218243778468</v>
       </c>
       <c r="AT4">
         <v>0</v>
@@ -1202,100 +1202,100 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2206232623470129</v>
+        <v>0.3971021228286053</v>
       </c>
       <c r="P5">
-        <v>0.1313894641453933</v>
+        <v>0.2112122673217975</v>
       </c>
       <c r="Q5">
-        <v>0.04530068430892092</v>
+        <v>0.03187404383386393</v>
       </c>
       <c r="R5">
-        <v>0.00486655710861239</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.03846897281179943</v>
+        <v>0.01764237501937811</v>
       </c>
       <c r="T5">
-        <v>0.008252313677865237</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01748065550412001</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0657889514212054</v>
+        <v>0.07455474430659487</v>
       </c>
       <c r="W5">
-        <v>0.01507989048475408</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.03986565144725946</v>
+        <v>0.02055190475998708</v>
       </c>
       <c r="Y5">
-        <v>0.03906738463252336</v>
+        <v>0.0188889731596545</v>
       </c>
       <c r="Z5">
-        <v>0.01183953329423432</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001275409035807517</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>5.230305154176576E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0299890888181644</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.05984934827526715</v>
+        <v>0.06218149568535437</v>
       </c>
       <c r="AE5">
-        <v>0.008391080558269901</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.02387117962158427</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.108197858680558E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01740105490295637</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003161293112829979</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.005074974932297558</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.01448013249992945</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001017661702341229</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01137843476373418</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.08157400308324396</v>
+        <v>0.1074378113928347</v>
       </c>
       <c r="AO5">
-        <v>0.05461769210157383</v>
+        <v>0.05128302638573087</v>
       </c>
       <c r="AP5">
-        <v>0.0004615007106810769</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.009976364795674278</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001888237770300511</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.03349045375403006</v>
+        <v>0.007271235306198899</v>
       </c>
       <c r="AT5">
-        <v>0.008914310813365441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1342,100 +1342,100 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1856967040435006</v>
+        <v>0.3118257098100953</v>
       </c>
       <c r="P6">
-        <v>0.0362853244794768</v>
+        <v>0.01258810055896899</v>
       </c>
       <c r="Q6">
-        <v>0.1211549104436775</v>
+        <v>0.1825629182479919</v>
       </c>
       <c r="R6">
-        <v>0.006646316735306959</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.02045411472715996</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.005865421204417099</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002567543905550324</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.08006229687176693</v>
+        <v>0.1002635948696827</v>
       </c>
       <c r="W6">
-        <v>0.02274863217077001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.02830632983234127</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.08799686372377694</v>
+        <v>0.1161547593992311</v>
       </c>
       <c r="Z6">
-        <v>0.004365012709168793</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.001973181109103553</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.000422896401607622</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01660361709429729</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.07000504399410962</v>
+        <v>0.08012116451714997</v>
       </c>
       <c r="AE6">
-        <v>0.02827231069178281</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01557319254521132</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.006562650441791355</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01017133974800441</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.005274353354625448</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.003647190055200027</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01856960777706626</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>6.89537730142026E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.004879884760992548</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.06127198553641775</v>
+        <v>0.06263079971391058</v>
       </c>
       <c r="AO6">
-        <v>0.09683369245935607</v>
+        <v>0.1338529528829694</v>
       </c>
       <c r="AP6">
-        <v>0.002611437270749551</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.003701617548729383</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.004145890176665334</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.02134302447382356</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0259186599405389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1449,37 +1449,37 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.11707508536556</v>
+        <v>0.1471217803501284</v>
       </c>
       <c r="E7">
-        <v>0.001474088027516051</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04543446237015168</v>
+        <v>0.02841121202036802</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08428794009953672</v>
+        <v>0.09279253968049465</v>
       </c>
       <c r="I7">
-        <v>0.03059162256063535</v>
+        <v>0.003816200478826727</v>
       </c>
       <c r="J7">
-        <v>0.02389374436914759</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1746818132836575</v>
+        <v>0.2425777817756539</v>
       </c>
       <c r="M7">
-        <v>0.07578701700872401</v>
+        <v>0.07870626614958692</v>
       </c>
       <c r="N7">
-        <v>0.06295497415285387</v>
+        <v>0.05744320286843958</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1488,25 +1488,25 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.005133226616457243</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.06760416051062119</v>
+        <v>0.06514703809104649</v>
       </c>
       <c r="T7">
-        <v>0.054652350086575</v>
+        <v>0.04368551651220171</v>
       </c>
       <c r="U7">
-        <v>0.05432271139947503</v>
+        <v>0.04313929574732056</v>
       </c>
       <c r="V7">
-        <v>0.005334168216558249</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.001777621898111047</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0102626832803346</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.09388064338215707</v>
+        <v>0.1086879243224122</v>
       </c>
       <c r="AD7">
-        <v>0.0816800808155424</v>
+        <v>0.08847124200352094</v>
       </c>
       <c r="AE7">
-        <v>0.008560628842679344</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.0006109777137061523</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1589,37 +1589,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1096785932663625</v>
+        <v>0.1343686165412127</v>
       </c>
       <c r="E8">
-        <v>0.02853009778314891</v>
+        <v>0.006334176031479375</v>
       </c>
       <c r="F8">
-        <v>0.008680699529495971</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.09786287266689973</v>
+        <v>0.1157260136542067</v>
       </c>
       <c r="I8">
-        <v>0.0191699956836039</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03672637268397486</v>
+        <v>0.01926609134232209</v>
       </c>
       <c r="K8">
-        <v>0.01765405560232521</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1653373166579949</v>
+        <v>0.2221858147098195</v>
       </c>
       <c r="M8">
-        <v>0.06843117997325564</v>
+        <v>0.06928928941371071</v>
       </c>
       <c r="N8">
-        <v>0.05875639172759751</v>
+        <v>0.05402460591333427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.01211927862794243</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.09276753145991473</v>
+        <v>0.1076866882575028</v>
       </c>
       <c r="T8">
-        <v>0.06001481255135412</v>
+        <v>0.05601011661363807</v>
       </c>
       <c r="U8">
-        <v>0.04364213240612514</v>
+        <v>0.03017763593045836</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.000844314705660559</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.013543764175388</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.1092868890758466</v>
+        <v>0.1337505936613135</v>
       </c>
       <c r="AD8">
-        <v>0.0569537014231094</v>
+        <v>0.05118035793100167</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1729,19 +1729,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2731211476401345</v>
+        <v>0.2724799449496433</v>
       </c>
       <c r="E9">
-        <v>0.00697761031495308</v>
+        <v>0.007235579959698764</v>
       </c>
       <c r="F9">
-        <v>0.01313040523639582</v>
+        <v>0.01336758751567192</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.08547206549773063</v>
+        <v>0.0854648397397279</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1750,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.04575577362701292</v>
+        <v>0.04588273031532189</v>
       </c>
       <c r="L9">
-        <v>0.2261076734679051</v>
+        <v>0.225625306929454</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.1344986315390999</v>
+        <v>0.1343257683498106</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.000281543668839318</v>
       </c>
       <c r="S9">
-        <v>0.04885402630433536</v>
+        <v>0.04897051547153516</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.02769629380810481</v>
+        <v>0.02788426488288031</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.1108973202206065</v>
+        <v>0.1108041946286535</v>
       </c>
       <c r="AD9">
-        <v>0.02748905234372134</v>
+        <v>0.02767772358876346</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1869,37 +1869,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2141935275774444</v>
+        <v>0.2592292634357424</v>
       </c>
       <c r="E10">
-        <v>0.005594611526498946</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05206081835560783</v>
+        <v>0.04395610448938943</v>
       </c>
       <c r="G10">
-        <v>0.01888090948356216</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.04796816885072888</v>
+        <v>0.03852205239956685</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01216863009046992</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.06492875174883225</v>
+        <v>0.06104161847337209</v>
       </c>
       <c r="L10">
-        <v>0.1529509227111424</v>
+        <v>0.1779138454984932</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1659453933118164</v>
+        <v>0.1951673703946643</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1911,16 +1911,16 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.02743123042599444</v>
+        <v>0.01125394819654475</v>
       </c>
       <c r="S10">
-        <v>0.01803654327120235</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.07639391368613166</v>
+        <v>0.07626459007435188</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1941,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.00261722708989637</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.08865241606158564</v>
+        <v>0.09254092655809411</v>
       </c>
       <c r="AD10">
-        <v>0.05217693580908632</v>
+        <v>0.04411028047978086</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2009,37 +2009,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.247603565710457</v>
+        <v>0.2755028266607796</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.05005167483161876</v>
+        <v>0.04240725987964417</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0676547535356018</v>
+        <v>0.06317749695175814</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.008619225105692392</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.03020838660416424</v>
+        <v>0.01899375320247061</v>
       </c>
       <c r="L11">
-        <v>0.2145661698107828</v>
+        <v>0.2365213191290173</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1392210580128063</v>
+        <v>0.1476200615373662</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.002757158275783084</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04539786254512167</v>
+        <v>0.03691613039569828</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.05496821303232331</v>
+        <v>0.04820838511006378</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.08224182297030114</v>
+        <v>0.08038908223414051</v>
       </c>
       <c r="AD11">
-        <v>0.05671010956534735</v>
+        <v>0.05026368489906129</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2335,100 +2335,100 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1538447330349463</v>
+        <v>0.2344786174063797</v>
       </c>
       <c r="P2">
-        <v>0.3963304925438732</v>
+        <v>0.6367837125624138</v>
       </c>
       <c r="Q2">
-        <v>0.4134905672935027</v>
+        <v>0.6367837125624138</v>
       </c>
       <c r="R2">
-        <v>0.4212260233196787</v>
+        <v>0.6367837125624138</v>
       </c>
       <c r="S2">
-        <v>0.4565385241027724</v>
+        <v>0.64684201547174</v>
       </c>
       <c r="T2">
-        <v>0.4746241188168892</v>
+        <v>0.64684201547174</v>
       </c>
       <c r="U2">
-        <v>0.4964484290152527</v>
+        <v>0.64684201547174</v>
       </c>
       <c r="V2">
-        <v>0.4998494262685731</v>
+        <v>0.64684201547174</v>
       </c>
       <c r="W2">
-        <v>0.5657020896262417</v>
+        <v>0.7147228427659481</v>
       </c>
       <c r="X2">
-        <v>0.6207265015746202</v>
+        <v>0.7621022457592731</v>
       </c>
       <c r="Y2">
-        <v>0.6287994522467553</v>
+        <v>0.7621022457592731</v>
       </c>
       <c r="Z2">
-        <v>0.6297430641807015</v>
+        <v>0.7621022457592731</v>
       </c>
       <c r="AA2">
-        <v>0.6403599134303297</v>
+        <v>0.7621022457592731</v>
       </c>
       <c r="AB2">
-        <v>0.6403616508107549</v>
+        <v>0.7621022457592731</v>
       </c>
       <c r="AC2">
-        <v>0.6760916007387037</v>
+        <v>0.7729509165423422</v>
       </c>
       <c r="AD2">
-        <v>0.7404743158805497</v>
+        <v>0.838048650709709</v>
       </c>
       <c r="AE2">
-        <v>0.7407265652982229</v>
+        <v>0.838048650709709</v>
       </c>
       <c r="AF2">
-        <v>0.7759684223809565</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AG2">
-        <v>0.7759843376641283</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AH2">
-        <v>0.7939464991806683</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AI2">
-        <v>0.795264000761413</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AJ2">
-        <v>0.7964270400971787</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AK2">
-        <v>0.8000563573440368</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AL2">
-        <v>0.8005186051108474</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AM2">
-        <v>0.8250980553625404</v>
+        <v>0.8479732019706366</v>
       </c>
       <c r="AN2">
-        <v>0.9136603038748884</v>
+        <v>0.9588507074315221</v>
       </c>
       <c r="AO2">
-        <v>0.9415271393378511</v>
+        <v>0.9588507074315221</v>
       </c>
       <c r="AP2">
-        <v>0.9416001503341139</v>
+        <v>0.9588507074315221</v>
       </c>
       <c r="AQ2">
-        <v>0.9448732032343441</v>
+        <v>0.9588507074315221</v>
       </c>
       <c r="AR2">
-        <v>0.9471173189735266</v>
+        <v>0.9588507074315221</v>
       </c>
       <c r="AS2">
-        <v>0.9988511692029819</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -2475,97 +2475,97 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.100367855175139</v>
+        <v>0.1287572353946568</v>
       </c>
       <c r="P3">
-        <v>0.1017365678443696</v>
+        <v>0.1287572353946568</v>
       </c>
       <c r="Q3">
-        <v>0.3435206255805535</v>
+        <v>0.5162740881806929</v>
       </c>
       <c r="R3">
-        <v>0.3539595904609887</v>
+        <v>0.5162740881806929</v>
       </c>
       <c r="S3">
-        <v>0.3801809123817319</v>
+        <v>0.5162740881806929</v>
       </c>
       <c r="T3">
-        <v>0.3874103679453557</v>
+        <v>0.5162740881806929</v>
       </c>
       <c r="U3">
-        <v>0.3929222802986103</v>
+        <v>0.5162740881806929</v>
       </c>
       <c r="V3">
-        <v>0.423285283591776</v>
+        <v>0.5169383019804575</v>
       </c>
       <c r="W3">
-        <v>0.4477379708069011</v>
+        <v>0.5169383019804575</v>
       </c>
       <c r="X3">
-        <v>0.4664951954299733</v>
+        <v>0.5169383019804575</v>
       </c>
       <c r="Y3">
-        <v>0.6089200557682017</v>
+        <v>0.7226503301608321</v>
       </c>
       <c r="Z3">
-        <v>0.6090620570598849</v>
+        <v>0.7226503301608321</v>
       </c>
       <c r="AA3">
-        <v>0.6137356197187136</v>
+        <v>0.7226503301608321</v>
       </c>
       <c r="AB3">
-        <v>0.6145703970428429</v>
+        <v>0.7226503301608321</v>
       </c>
       <c r="AC3">
-        <v>0.6198721419154873</v>
+        <v>0.7226503301608321</v>
       </c>
       <c r="AD3">
-        <v>0.6774425764300004</v>
+        <v>0.7730979801266123</v>
       </c>
       <c r="AE3">
-        <v>0.7202923447563306</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AF3">
-        <v>0.7234469528552118</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AG3">
-        <v>0.7395409163939426</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AH3">
-        <v>0.7408291153538799</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AI3">
-        <v>0.7578229449956566</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AJ3">
-        <v>0.7594845966770999</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AK3">
-        <v>0.766986431144836</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AL3">
-        <v>0.7673032560182612</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AM3">
-        <v>0.7718288074649891</v>
+        <v>0.7966101454617958</v>
       </c>
       <c r="AN3">
-        <v>0.8145682441154146</v>
+        <v>0.8199204288221685</v>
       </c>
       <c r="AO3">
-        <v>0.9244164090427343</v>
+        <v>0.9660244836038548</v>
       </c>
       <c r="AP3">
-        <v>0.93422570655272</v>
+        <v>0.9660244836038548</v>
       </c>
       <c r="AQ3">
-        <v>0.9342386150241525</v>
+        <v>0.9660244836038548</v>
       </c>
       <c r="AR3">
-        <v>0.9369194032187477</v>
+        <v>0.9660244836038548</v>
       </c>
       <c r="AS3">
-        <v>0.9514318456750297</v>
+        <v>0.9660244836038548</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2612,97 +2612,97 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.03385640031365729</v>
+        <v>0.00823549813293455</v>
       </c>
       <c r="O4">
-        <v>0.0933538055915584</v>
+        <v>0.07122839470341152</v>
       </c>
       <c r="P4">
-        <v>0.3141753237092697</v>
+        <v>0.4787354293379406</v>
       </c>
       <c r="Q4">
-        <v>0.3172447108577069</v>
+        <v>0.4787354293379406</v>
       </c>
       <c r="R4">
-        <v>0.3398157889954678</v>
+        <v>0.4787354293379406</v>
       </c>
       <c r="S4">
-        <v>0.3880898818170667</v>
+        <v>0.5177604902944949</v>
       </c>
       <c r="T4">
-        <v>0.3880904353709998</v>
+        <v>0.5177604902944949</v>
       </c>
       <c r="U4">
-        <v>0.4006122571722182</v>
+        <v>0.5177604902944949</v>
       </c>
       <c r="V4">
-        <v>0.5043876483405983</v>
+        <v>0.6753108084168126</v>
       </c>
       <c r="W4">
-        <v>0.5183493995951652</v>
+        <v>0.6753108084168126</v>
       </c>
       <c r="X4">
-        <v>0.5765295569651395</v>
+        <v>0.7354906690459935</v>
       </c>
       <c r="Y4">
-        <v>0.5876089150245387</v>
+        <v>0.7354906690459935</v>
       </c>
       <c r="Z4">
-        <v>0.601953912001805</v>
+        <v>0.7354906690459935</v>
       </c>
       <c r="AA4">
-        <v>0.6073567187091512</v>
+        <v>0.7354906690459935</v>
       </c>
       <c r="AB4">
-        <v>0.6083298351676558</v>
+        <v>0.7354906690459935</v>
       </c>
       <c r="AC4">
-        <v>0.6806839474910107</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AD4">
-        <v>0.7103171302329606</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AE4">
-        <v>0.7205385968121304</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AF4">
-        <v>0.739374342122449</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AG4">
-        <v>0.7448200821844581</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AH4">
-        <v>0.7487058511186193</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AI4">
-        <v>0.7541992410675175</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AJ4">
-        <v>0.7681247626790498</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AK4">
-        <v>0.7784332660440425</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AL4">
-        <v>0.7826849060402399</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="AM4">
-        <v>0.813469872577874</v>
+        <v>0.827615908782649</v>
       </c>
       <c r="AN4">
-        <v>0.9193112274733002</v>
+        <v>0.9895781756221532</v>
       </c>
       <c r="AO4">
-        <v>0.9396714471530758</v>
+        <v>0.9895781756221532</v>
       </c>
       <c r="AP4">
-        <v>0.9408223809326161</v>
+        <v>0.9895781756221532</v>
       </c>
       <c r="AQ4">
-        <v>0.9638427860940253</v>
+        <v>0.9895781756221532</v>
       </c>
       <c r="AR4">
-        <v>0.9651198183581778</v>
+        <v>0.9895781756221532</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -2755,100 +2755,100 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2206232623470129</v>
+        <v>0.3971021228286053</v>
       </c>
       <c r="P5">
-        <v>0.3520127264924061</v>
+        <v>0.6083143901504029</v>
       </c>
       <c r="Q5">
-        <v>0.397313410801327</v>
+        <v>0.6401884339842668</v>
       </c>
       <c r="R5">
-        <v>0.4021799679099394</v>
+        <v>0.6401884339842668</v>
       </c>
       <c r="S5">
-        <v>0.4406489407217389</v>
+        <v>0.657830809003645</v>
       </c>
       <c r="T5">
-        <v>0.4489012543996041</v>
+        <v>0.657830809003645</v>
       </c>
       <c r="U5">
-        <v>0.4663819099037241</v>
+        <v>0.657830809003645</v>
       </c>
       <c r="V5">
-        <v>0.5321708613249295</v>
+        <v>0.7323855533102399</v>
       </c>
       <c r="W5">
-        <v>0.5472507518096836</v>
+        <v>0.7323855533102399</v>
       </c>
       <c r="X5">
-        <v>0.5871164032569431</v>
+        <v>0.7529374580702269</v>
       </c>
       <c r="Y5">
-        <v>0.6261837878894665</v>
+        <v>0.7718264312298815</v>
       </c>
       <c r="Z5">
-        <v>0.6380233211837008</v>
+        <v>0.7718264312298815</v>
       </c>
       <c r="AA5">
-        <v>0.6381508620872816</v>
+        <v>0.7718264312298815</v>
       </c>
       <c r="AB5">
-        <v>0.6382031651388234</v>
+        <v>0.7718264312298815</v>
       </c>
       <c r="AC5">
-        <v>0.6681922539569878</v>
+        <v>0.7718264312298815</v>
       </c>
       <c r="AD5">
-        <v>0.7280416022322549</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AE5">
-        <v>0.7364326827905248</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AF5">
-        <v>0.760303862412109</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AG5">
-        <v>0.7603249443906959</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AH5">
-        <v>0.7777259992936523</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AI5">
-        <v>0.7780421286049353</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AJ5">
-        <v>0.7831171035372329</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AK5">
-        <v>0.7975972360371623</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AL5">
-        <v>0.7976990022073964</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AM5">
-        <v>0.8090774369711305</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="AN5">
-        <v>0.8906514400543745</v>
+        <v>0.9414457383080705</v>
       </c>
       <c r="AO5">
-        <v>0.9452691321559483</v>
+        <v>0.9927287646938014</v>
       </c>
       <c r="AP5">
-        <v>0.9457306328666294</v>
+        <v>0.9927287646938014</v>
       </c>
       <c r="AQ5">
-        <v>0.9557069976623037</v>
+        <v>0.9927287646938014</v>
       </c>
       <c r="AR5">
-        <v>0.9575952354326043</v>
+        <v>0.9927287646938014</v>
       </c>
       <c r="AS5">
-        <v>0.9910856891866343</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -2895,97 +2895,97 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1856967040435006</v>
+        <v>0.3118257098100953</v>
       </c>
       <c r="P6">
-        <v>0.2219820285229774</v>
+        <v>0.3244138103690643</v>
       </c>
       <c r="Q6">
-        <v>0.3431369389666549</v>
+        <v>0.5069767286170562</v>
       </c>
       <c r="R6">
-        <v>0.3497832557019618</v>
+        <v>0.5069767286170562</v>
       </c>
       <c r="S6">
-        <v>0.3702373704291218</v>
+        <v>0.5069767286170562</v>
       </c>
       <c r="T6">
-        <v>0.3761027916335389</v>
+        <v>0.5069767286170562</v>
       </c>
       <c r="U6">
-        <v>0.3786703355390892</v>
+        <v>0.5069767286170562</v>
       </c>
       <c r="V6">
-        <v>0.4587326324108561</v>
+        <v>0.607240323486739</v>
       </c>
       <c r="W6">
-        <v>0.4814812645816261</v>
+        <v>0.607240323486739</v>
       </c>
       <c r="X6">
-        <v>0.5097875944139674</v>
+        <v>0.607240323486739</v>
       </c>
       <c r="Y6">
-        <v>0.5977844581377443</v>
+        <v>0.7233950828859701</v>
       </c>
       <c r="Z6">
-        <v>0.6021494708469131</v>
+        <v>0.7233950828859701</v>
       </c>
       <c r="AA6">
-        <v>0.6041226519560167</v>
+        <v>0.7233950828859701</v>
       </c>
       <c r="AB6">
-        <v>0.6045455483576243</v>
+        <v>0.7233950828859701</v>
       </c>
       <c r="AC6">
-        <v>0.6211491654519216</v>
+        <v>0.7233950828859701</v>
       </c>
       <c r="AD6">
-        <v>0.6911542094460312</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AE6">
-        <v>0.7194265201378141</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AF6">
-        <v>0.7349997126830253</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AG6">
-        <v>0.7415623631248167</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AH6">
-        <v>0.7517337028728212</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AI6">
-        <v>0.7570080562274466</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AJ6">
-        <v>0.7606552462826466</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AK6">
-        <v>0.7792248540597129</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AL6">
-        <v>0.7792938078327271</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AM6">
-        <v>0.7841736925937196</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="AN6">
-        <v>0.8454456781301374</v>
+        <v>0.8661470471170307</v>
       </c>
       <c r="AO6">
-        <v>0.9422793705894934</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9448908078602429</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9485924254089723</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9527383155856376</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9740813400594611</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -3002,88 +3002,88 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.11707508536556</v>
+        <v>0.1471217803501284</v>
       </c>
       <c r="E7">
-        <v>0.1185491733930761</v>
+        <v>0.1471217803501284</v>
       </c>
       <c r="F7">
-        <v>0.1639836357632277</v>
+        <v>0.1755329923704964</v>
       </c>
       <c r="G7">
-        <v>0.1639836357632277</v>
+        <v>0.1755329923704964</v>
       </c>
       <c r="H7">
-        <v>0.2482715758627644</v>
+        <v>0.2683255320509911</v>
       </c>
       <c r="I7">
-        <v>0.2788631984233998</v>
+        <v>0.2721417325298178</v>
       </c>
       <c r="J7">
-        <v>0.3027569427925474</v>
+        <v>0.2721417325298178</v>
       </c>
       <c r="K7">
-        <v>0.3027569427925474</v>
+        <v>0.2721417325298178</v>
       </c>
       <c r="L7">
-        <v>0.4774387560762049</v>
+        <v>0.5147195143054717</v>
       </c>
       <c r="M7">
-        <v>0.5532257730849289</v>
+        <v>0.5934257804550587</v>
       </c>
       <c r="N7">
-        <v>0.6161807472377828</v>
+        <v>0.6508689833234983</v>
       </c>
       <c r="O7">
-        <v>0.6161807472377828</v>
+        <v>0.6508689833234983</v>
       </c>
       <c r="P7">
-        <v>0.6161807472377828</v>
+        <v>0.6508689833234983</v>
       </c>
       <c r="Q7">
-        <v>0.62131397385424</v>
+        <v>0.6508689833234983</v>
       </c>
       <c r="R7">
-        <v>0.62131397385424</v>
+        <v>0.6508689833234983</v>
       </c>
       <c r="S7">
-        <v>0.6889181343648613</v>
+        <v>0.7160160214145448</v>
       </c>
       <c r="T7">
-        <v>0.7435704844514363</v>
+        <v>0.7597015379267466</v>
       </c>
       <c r="U7">
-        <v>0.7978931958509112</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="V7">
-        <v>0.8032273640674695</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="W7">
-        <v>0.8050049859655806</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="X7">
-        <v>0.8050049859655806</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="Y7">
-        <v>0.8050049859655806</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="Z7">
-        <v>0.8050049859655806</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="AA7">
-        <v>0.8050049859655806</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="AB7">
-        <v>0.8152676692459152</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="AC7">
-        <v>0.9091483126280723</v>
+        <v>0.9115287579964794</v>
       </c>
       <c r="AD7">
-        <v>0.9908283934436146</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.999389022286294</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>1</v>
@@ -3142,133 +3142,133 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1096785932663625</v>
+        <v>0.1343686165412127</v>
       </c>
       <c r="E8">
-        <v>0.1382086910495114</v>
+        <v>0.1407027925726921</v>
       </c>
       <c r="F8">
-        <v>0.1468893905790074</v>
+        <v>0.1407027925726921</v>
       </c>
       <c r="G8">
-        <v>0.1468893905790074</v>
+        <v>0.1407027925726921</v>
       </c>
       <c r="H8">
-        <v>0.2447522632459072</v>
+        <v>0.2564288062268988</v>
       </c>
       <c r="I8">
-        <v>0.263922258929511</v>
+        <v>0.2564288062268988</v>
       </c>
       <c r="J8">
-        <v>0.3006486316134859</v>
+        <v>0.2756948975692209</v>
       </c>
       <c r="K8">
-        <v>0.3183026872158111</v>
+        <v>0.2756948975692209</v>
       </c>
       <c r="L8">
-        <v>0.4836400038738061</v>
+        <v>0.4978807122790405</v>
       </c>
       <c r="M8">
-        <v>0.5520711838470617</v>
+        <v>0.5671700016927512</v>
       </c>
       <c r="N8">
-        <v>0.6108275755746592</v>
+        <v>0.6211946076060855</v>
       </c>
       <c r="O8">
-        <v>0.6108275755746592</v>
+        <v>0.6211946076060855</v>
       </c>
       <c r="P8">
-        <v>0.6108275755746592</v>
+        <v>0.6211946076060855</v>
       </c>
       <c r="Q8">
-        <v>0.6229468542026017</v>
+        <v>0.6211946076060855</v>
       </c>
       <c r="R8">
-        <v>0.6229468542026017</v>
+        <v>0.6211946076060855</v>
       </c>
       <c r="S8">
-        <v>0.7157143856625163</v>
+        <v>0.7288812958635883</v>
       </c>
       <c r="T8">
-        <v>0.7757291982138704</v>
+        <v>0.7848914124772264</v>
       </c>
       <c r="U8">
-        <v>0.8193713306199956</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="V8">
-        <v>0.8193713306199956</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="W8">
-        <v>0.8193713306199956</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="X8">
-        <v>0.8193713306199956</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="Y8">
-        <v>0.8202156453256562</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="Z8">
-        <v>0.8202156453256562</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="AA8">
-        <v>0.8202156453256562</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="AB8">
-        <v>0.8337594095010442</v>
+        <v>0.8150690484076848</v>
       </c>
       <c r="AC8">
-        <v>0.9430462985768908</v>
+        <v>0.9488196420689983</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -3282,133 +3282,133 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2731211476401345</v>
+        <v>0.2724799449496433</v>
       </c>
       <c r="E9">
-        <v>0.2800987579550875</v>
+        <v>0.2797155249093421</v>
       </c>
       <c r="F9">
-        <v>0.2932291631914833</v>
+        <v>0.293083112425014</v>
       </c>
       <c r="G9">
-        <v>0.2932291631914833</v>
+        <v>0.293083112425014</v>
       </c>
       <c r="H9">
-        <v>0.378701228689214</v>
+        <v>0.3785479521647419</v>
       </c>
       <c r="I9">
-        <v>0.378701228689214</v>
+        <v>0.3785479521647419</v>
       </c>
       <c r="J9">
-        <v>0.378701228689214</v>
+        <v>0.3785479521647419</v>
       </c>
       <c r="K9">
-        <v>0.4244570023162269</v>
+        <v>0.4244306824800638</v>
       </c>
       <c r="L9">
-        <v>0.650564675784132</v>
+        <v>0.6500559894095177</v>
       </c>
       <c r="M9">
-        <v>0.650564675784132</v>
+        <v>0.6500559894095177</v>
       </c>
       <c r="N9">
-        <v>0.7850633073232318</v>
+        <v>0.7843817577593283</v>
       </c>
       <c r="O9">
-        <v>0.7850633073232318</v>
+        <v>0.7843817577593283</v>
       </c>
       <c r="P9">
-        <v>0.7850633073232318</v>
+        <v>0.7843817577593283</v>
       </c>
       <c r="Q9">
-        <v>0.7850633073232318</v>
+        <v>0.7843817577593283</v>
       </c>
       <c r="R9">
-        <v>0.7850633073232318</v>
+        <v>0.7846633014281676</v>
       </c>
       <c r="S9">
-        <v>0.8339173336275671</v>
+        <v>0.8336338168997028</v>
       </c>
       <c r="T9">
-        <v>0.8339173336275671</v>
+        <v>0.8336338168997028</v>
       </c>
       <c r="U9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="V9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="W9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="X9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="Y9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="Z9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="AA9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="AB9">
-        <v>0.8616136274356719</v>
+        <v>0.8615180817825832</v>
       </c>
       <c r="AC9">
-        <v>0.9725109476562784</v>
+        <v>0.9723222764112367</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -3422,82 +3422,82 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2141935275774444</v>
+        <v>0.2592292634357424</v>
       </c>
       <c r="E10">
-        <v>0.2197881391039433</v>
+        <v>0.2592292634357424</v>
       </c>
       <c r="F10">
-        <v>0.2718489574595512</v>
+        <v>0.3031853679251318</v>
       </c>
       <c r="G10">
-        <v>0.2907298669431133</v>
+        <v>0.3031853679251318</v>
       </c>
       <c r="H10">
-        <v>0.3386980357938422</v>
+        <v>0.3417074203246986</v>
       </c>
       <c r="I10">
-        <v>0.3386980357938422</v>
+        <v>0.3417074203246986</v>
       </c>
       <c r="J10">
-        <v>0.3508666658843121</v>
+        <v>0.3417074203246986</v>
       </c>
       <c r="K10">
-        <v>0.4157954176331443</v>
+        <v>0.4027490387980707</v>
       </c>
       <c r="L10">
-        <v>0.5687463403442867</v>
+        <v>0.580662884296564</v>
       </c>
       <c r="M10">
-        <v>0.5687463403442867</v>
+        <v>0.580662884296564</v>
       </c>
       <c r="N10">
-        <v>0.7346917336561032</v>
+        <v>0.7758302546912283</v>
       </c>
       <c r="O10">
-        <v>0.7346917336561032</v>
+        <v>0.7758302546912283</v>
       </c>
       <c r="P10">
-        <v>0.7346917336561032</v>
+        <v>0.7758302546912283</v>
       </c>
       <c r="Q10">
-        <v>0.7346917336561032</v>
+        <v>0.7758302546912283</v>
       </c>
       <c r="R10">
-        <v>0.7621229640820977</v>
+        <v>0.7870842028877731</v>
       </c>
       <c r="S10">
-        <v>0.7801595073533</v>
+        <v>0.7870842028877731</v>
       </c>
       <c r="T10">
-        <v>0.7801595073533</v>
+        <v>0.7870842028877731</v>
       </c>
       <c r="U10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="V10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="W10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="X10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="Y10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="Z10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="AA10">
-        <v>0.8565534210394317</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="AB10">
-        <v>0.8591706481293281</v>
+        <v>0.8633487929621251</v>
       </c>
       <c r="AC10">
-        <v>0.9478230641909138</v>
+        <v>0.9558897195202192</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -3562,82 +3562,82 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.247603565710457</v>
+        <v>0.2755028266607796</v>
       </c>
       <c r="E11">
-        <v>0.247603565710457</v>
+        <v>0.2755028266607796</v>
       </c>
       <c r="F11">
-        <v>0.2976552405420757</v>
+        <v>0.3179100865404237</v>
       </c>
       <c r="G11">
-        <v>0.2976552405420757</v>
+        <v>0.3179100865404237</v>
       </c>
       <c r="H11">
-        <v>0.3653099940776775</v>
+        <v>0.3810875834921819</v>
       </c>
       <c r="I11">
-        <v>0.3653099940776775</v>
+        <v>0.3810875834921819</v>
       </c>
       <c r="J11">
-        <v>0.3739292191833699</v>
+        <v>0.3810875834921819</v>
       </c>
       <c r="K11">
-        <v>0.4041376057875342</v>
+        <v>0.4000813366946525</v>
       </c>
       <c r="L11">
-        <v>0.618703775598317</v>
+        <v>0.6366026558236698</v>
       </c>
       <c r="M11">
-        <v>0.618703775598317</v>
+        <v>0.6366026558236698</v>
       </c>
       <c r="N11">
-        <v>0.7579248336111233</v>
+        <v>0.784222717361036</v>
       </c>
       <c r="O11">
-        <v>0.7579248336111233</v>
+        <v>0.784222717361036</v>
       </c>
       <c r="P11">
-        <v>0.7579248336111233</v>
+        <v>0.784222717361036</v>
       </c>
       <c r="Q11">
-        <v>0.7606819918869063</v>
+        <v>0.784222717361036</v>
       </c>
       <c r="R11">
-        <v>0.7606819918869063</v>
+        <v>0.784222717361036</v>
       </c>
       <c r="S11">
-        <v>0.806079854432028</v>
+        <v>0.8211388477567343</v>
       </c>
       <c r="T11">
-        <v>0.806079854432028</v>
+        <v>0.8211388477567343</v>
       </c>
       <c r="U11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="V11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="W11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="X11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="Y11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="Z11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="AA11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="AB11">
-        <v>0.8610480674643514</v>
+        <v>0.869347232866798</v>
       </c>
       <c r="AC11">
-        <v>0.9432898904346525</v>
+        <v>0.9497363151009386</v>
       </c>
       <c r="AD11">
         <v>0.9999999999999999</v>
@@ -3750,34 +3750,34 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6367837125624138</v>
       </c>
       <c r="F2">
-        <v>0.5657020896262417</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2">
         <v>42</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>70</v>
@@ -3791,34 +3791,34 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5162740881806929</v>
       </c>
       <c r="F3">
-        <v>0.6089200557682017</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3">
         <v>42</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
       </c>
       <c r="L3" t="s">
         <v>70</v>
@@ -3832,34 +3832,34 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5177604902944949</v>
       </c>
       <c r="F4">
-        <v>0.5043876483405983</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
         <v>42</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
       </c>
       <c r="L4" t="s">
         <v>70</v>
@@ -3873,34 +3873,34 @@
         <v>49</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.6083143901504029</v>
       </c>
       <c r="F5">
-        <v>0.5321708613249295</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5">
         <v>42</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>70</v>
@@ -3914,34 +3914,34 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5069767286170562</v>
       </c>
       <c r="F6">
-        <v>0.5097875944139674</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6">
         <v>42</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
       </c>
       <c r="L6" t="s">
         <v>70</v>
@@ -3955,34 +3955,34 @@
         <v>51</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5147195143054717</v>
       </c>
       <c r="F7">
-        <v>0.5532257730849289</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
         <v>42</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -3996,34 +3996,34 @@
         <v>52</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.5671700016927512</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5520711838470617</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
         <v>42</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
@@ -4037,34 +4037,34 @@
         <v>53</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.6500559894095177</v>
+      </c>
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.650564675784132</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
         <v>42</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>70</v>
@@ -4078,34 +4078,34 @@
         <v>54</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.580662884296564</v>
+      </c>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5687463403442867</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
         <v>42</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>70</v>
@@ -4119,34 +4119,34 @@
         <v>55</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.6366026558236698</v>
+      </c>
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.618703775598317</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
         <v>42</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>70</v>
@@ -4214,34 +4214,34 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7147228427659481</v>
       </c>
       <c r="F2">
-        <v>0.7404743158805497</v>
+        <v>22</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2">
         <v>42</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>70</v>
@@ -4255,34 +4255,34 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7226503301608321</v>
       </c>
       <c r="F3">
-        <v>0.7202923447563306</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3">
         <v>42</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
       </c>
       <c r="L3" t="s">
         <v>70</v>
@@ -4296,34 +4296,34 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7354906690459935</v>
       </c>
       <c r="F4">
-        <v>0.7103171302329606</v>
+        <v>23</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
         <v>42</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
       </c>
       <c r="L4" t="s">
         <v>70</v>
@@ -4337,34 +4337,34 @@
         <v>49</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7323855533102399</v>
       </c>
       <c r="F5">
-        <v>0.7280416022322549</v>
+        <v>21</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5">
         <v>42</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>70</v>
@@ -4378,34 +4378,34 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7233950828859701</v>
       </c>
       <c r="F6">
-        <v>0.7194265201378141</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6">
         <v>42</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
       </c>
       <c r="L6" t="s">
         <v>70</v>
@@ -4419,34 +4419,34 @@
         <v>51</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.7160160214145448</v>
       </c>
       <c r="F7">
-        <v>0.7435704844514363</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
         <v>42</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -4460,34 +4460,34 @@
         <v>52</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.7288812958635883</v>
+      </c>
+      <c r="F8">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7157143856625163</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
         <v>42</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
@@ -4501,34 +4501,34 @@
         <v>53</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.7843817577593283</v>
+      </c>
+      <c r="F9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7850633073232318</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
         <v>42</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>70</v>
@@ -4542,34 +4542,34 @@
         <v>54</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7758302546912283</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.7346917336561032</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
         <v>42</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>70</v>
@@ -4583,34 +4583,34 @@
         <v>55</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.784222717361036</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7579248336111233</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
         <v>42</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>70</v>
@@ -4678,34 +4678,34 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.838048650709709</v>
       </c>
       <c r="F2">
-        <v>0.8000563573440368</v>
+        <v>29</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2">
         <v>42</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>70</v>
@@ -4719,34 +4719,34 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.8199204288221685</v>
+      </c>
+      <c r="F3">
         <v>39</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8145682441154146</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>27</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3">
         <v>42</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
       </c>
       <c r="L3" t="s">
         <v>70</v>
@@ -4760,34 +4760,34 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8259395811378742</v>
       </c>
       <c r="F4">
-        <v>0.813469872577874</v>
+        <v>28</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
         <v>42</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
       </c>
       <c r="L4" t="s">
         <v>70</v>
@@ -4801,34 +4801,34 @@
         <v>49</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8340079269152358</v>
       </c>
       <c r="F5">
-        <v>0.8090774369711305</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5">
         <v>42</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>70</v>
@@ -4842,34 +4842,34 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8035162474031201</v>
       </c>
       <c r="F6">
-        <v>0.8454456781301374</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6">
         <v>42</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
       </c>
       <c r="L6" t="s">
         <v>70</v>
@@ -4883,34 +4883,34 @@
         <v>51</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8028408336740671</v>
       </c>
       <c r="F7">
-        <v>0.8032273640674695</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
         <v>42</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -4924,34 +4924,34 @@
         <v>52</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.8150690484076848</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8193713306199956</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>19</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
         <v>42</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
@@ -4965,34 +4965,34 @@
         <v>53</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8336338168997028</v>
+      </c>
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8339173336275671</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>17</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
         <v>42</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>70</v>
@@ -5006,34 +5006,34 @@
         <v>54</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.8633487929621251</v>
+      </c>
+      <c r="F10">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8565534210394317</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
         <v>42</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>70</v>
@@ -5047,34 +5047,34 @@
         <v>55</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.8211388477567343</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.806079854432028</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
         <v>42</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>70</v>
@@ -5142,34 +5142,34 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.9588507074315221</v>
+      </c>
+      <c r="F2">
         <v>39</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9136603038748884</v>
-      </c>
       <c r="G2">
+        <v>900</v>
+      </c>
+      <c r="H2">
         <v>27</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2">
         <v>42</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" t="s">
-        <v>69</v>
       </c>
       <c r="L2" t="s">
         <v>70</v>
@@ -5183,34 +5183,34 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.9660244836038548</v>
+      </c>
+      <c r="F3">
         <v>40</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9244164090427343</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>28</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3">
         <v>42</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>69</v>
       </c>
       <c r="L3" t="s">
         <v>70</v>
@@ -5224,34 +5224,34 @@
         <v>48</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
       <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9895781756221532</v>
+      </c>
+      <c r="F4">
         <v>39</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.9193112274733002</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4">
         <v>42</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
       </c>
       <c r="L4" t="s">
         <v>70</v>
@@ -5265,34 +5265,34 @@
         <v>49</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9414457383080705</v>
       </c>
       <c r="F5">
-        <v>0.9452691321559483</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5">
         <v>42</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>70</v>
@@ -5306,34 +5306,34 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
       <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9422793705894934</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>28</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6">
         <v>42</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" t="s">
-        <v>69</v>
       </c>
       <c r="L6" t="s">
         <v>70</v>
@@ -5347,34 +5347,34 @@
         <v>51</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9115287579964794</v>
+      </c>
+      <c r="F7">
         <v>28</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.9091483126280723</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>27</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7">
         <v>42</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" t="s">
-        <v>69</v>
       </c>
       <c r="L7" t="s">
         <v>70</v>
@@ -5388,34 +5388,34 @@
         <v>52</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9488196420689983</v>
+      </c>
+      <c r="F8">
         <v>28</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9430462985768908</v>
-      </c>
       <c r="G8">
+        <v>900</v>
+      </c>
+      <c r="H8">
         <v>27</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8">
         <v>42</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
       </c>
       <c r="L8" t="s">
         <v>70</v>
@@ -5429,34 +5429,34 @@
         <v>53</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9723222764112367</v>
+      </c>
+      <c r="F9">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9725109476562784</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>27</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
         <v>42</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>70</v>
@@ -5470,34 +5470,34 @@
         <v>54</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9558897195202192</v>
+      </c>
+      <c r="F10">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9478230641909138</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>27</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10">
         <v>42</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>70</v>
@@ -5511,34 +5511,34 @@
         <v>55</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9497363151009386</v>
+      </c>
+      <c r="F11">
         <v>28</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9432898904346525</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>27</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11">
         <v>42</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>70</v>
